--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkcho\Desktop\Folder\University\Zinzara\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01A37BB-4A5A-4D6B-9076-F4657C659387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6291A5-F392-464A-AE9A-EE8DBFD7681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5640" yWindow="4360" windowWidth="12780" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>모션 인식 정보 관리</t>
-  </si>
-  <si>
-    <t>사용자 ID관리</t>
   </si>
   <si>
     <t xml:space="preserve">서버 </t>
@@ -1389,72 +1386,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>서버와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>앱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(16)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="major"/>
@@ -1650,6 +1581,86 @@
         <scheme val="major"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(16)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1986,6 +1997,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2003,6 +2023,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,18 +2054,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2275,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2329,10 +2340,10 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2355,7 +2366,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2370,9 +2381,9 @@
       <c r="F3" s="4">
         <v>24</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="12">
         <f>SUM(F3:F8)</f>
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="1"/>
@@ -2396,7 +2407,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2405,7 +2416,7 @@
       <c r="F4" s="4">
         <v>36</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2428,7 +2439,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2437,7 +2448,7 @@
       <c r="F5" s="4">
         <v>30</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2460,7 +2471,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2469,7 +2480,7 @@
       <c r="F6" s="4">
         <v>30</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2492,7 +2503,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2512,7 @@
       <c r="F7" s="4">
         <v>30</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2524,16 +2535,16 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="27"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2556,12 +2567,12 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="8"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2584,12 +2595,12 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2612,14 +2623,14 @@
     </row>
     <row r="11" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>40</v>
@@ -2627,7 +2638,7 @@
       <c r="F11" s="4">
         <v>36</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="12">
         <f>SUM(F11:F14)</f>
         <v>126</v>
       </c>
@@ -2653,16 +2664,16 @@
     </row>
     <row r="12" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
         <v>16</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2685,16 +2696,16 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
         <v>50</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="8"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2717,16 +2728,16 @@
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
         <v>24</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2749,12 +2760,12 @@
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="8"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2777,12 +2788,12 @@
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2805,14 +2816,14 @@
     </row>
     <row r="17" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="4">
         <v>100</v>
@@ -2820,7 +2831,7 @@
       <c r="F17" s="7">
         <v>36</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="12">
         <f>SUM(F17:F24)</f>
         <v>314</v>
       </c>
@@ -2846,16 +2857,16 @@
     </row>
     <row r="18" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <v>24</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2878,16 +2889,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="26"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <v>80</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2910,16 +2921,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <v>36</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2942,16 +2953,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
         <v>30</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2974,16 +2985,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <v>36</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="8"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3006,16 +3017,16 @@
     </row>
     <row r="23" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
         <v>36</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="8"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3040,14 +3051,14 @@
       <c r="A24" s="3"/>
       <c r="B24" s="31"/>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
         <v>36</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3070,12 +3081,12 @@
     </row>
     <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="8"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3098,12 +3109,12 @@
     </row>
     <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3127,13 +3138,13 @@
     <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
@@ -3168,7 +3179,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="32"/>
       <c r="C28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3200,7 +3211,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3230,12 +3241,12 @@
     </row>
     <row r="30" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="8"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3258,12 +3269,12 @@
     </row>
     <row r="31" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="8"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3286,14 +3297,14 @@
     </row>
     <row r="32" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -3301,7 +3312,7 @@
       <c r="F32" s="4">
         <v>18</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="12">
         <f>SUM(F32:F34)</f>
         <v>66</v>
       </c>
@@ -3327,16 +3338,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
         <v>24</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="8"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3359,16 +3370,16 @@
     </row>
     <row r="34" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
         <v>24</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="8"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3391,12 +3402,12 @@
     </row>
     <row r="35" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="8"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3419,12 +3430,12 @@
     </row>
     <row r="36" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="8"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3447,14 +3458,14 @@
     </row>
     <row r="37" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
@@ -3462,7 +3473,7 @@
       <c r="F37" s="4">
         <v>50</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="12">
         <f>SUM(F37:F39)</f>
         <v>120</v>
       </c>
@@ -3488,16 +3499,16 @@
     </row>
     <row r="38" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4">
         <v>50</v>
       </c>
-      <c r="G38" s="26"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="8"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3520,16 +3531,16 @@
     </row>
     <row r="39" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4">
         <v>20</v>
       </c>
-      <c r="G39" s="27"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="8"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3552,14 +3563,14 @@
     </row>
     <row r="40" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3580,14 +3591,13 @@
     </row>
     <row r="41" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3608,14 +3618,14 @@
     </row>
     <row r="42" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -3623,7 +3633,7 @@
       <c r="F42" s="7">
         <v>24</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="12">
         <f>SUM(F42:F43)</f>
         <v>48</v>
       </c>
@@ -3649,16 +3659,16 @@
     </row>
     <row r="43" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
         <v>24</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="8"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3681,12 +3691,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="8"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -3709,12 +3719,12 @@
     </row>
     <row r="45" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="8"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3737,11 +3747,11 @@
     </row>
     <row r="46" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="25" t="s">
-        <v>40</v>
+      <c r="B46" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
@@ -3750,7 +3760,7 @@
       <c r="F46" s="4">
         <v>50</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="12">
         <f>SUM(F46:F48)</f>
         <v>126</v>
       </c>
@@ -3776,16 +3786,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4">
         <v>36</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="8"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3808,16 +3818,16 @@
     </row>
     <row r="48" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="27"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4">
         <v>40</v>
       </c>
-      <c r="G48" s="27"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="8"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3845,11 +3855,11 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="4">
         <f>SUM(G3:G48)</f>
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="1"/>
@@ -3902,7 +3912,7 @@
     <row r="51" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -3931,10 +3941,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="6"/>
@@ -3963,10 +3973,10 @@
     </row>
     <row r="53" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4024,13 +4034,13 @@
     <row r="55" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -4058,13 +4068,13 @@
     <row r="56" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -4092,13 +4102,13 @@
     <row r="57" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -4126,13 +4136,13 @@
     <row r="58" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -4160,13 +4170,13 @@
     <row r="59" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -4194,11 +4204,11 @@
     <row r="60" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -4226,11 +4236,11 @@
     <row r="61" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -30801,18 +30811,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B9:G10"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B44:G45"/>
     <mergeCell ref="B15:G16"/>
     <mergeCell ref="B25:G26"/>
     <mergeCell ref="B30:G31"/>
@@ -30825,6 +30823,18 @@
     <mergeCell ref="G17:G24"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="G32:G34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B9:G10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkcho\Desktop\Folder\University\Zinzara\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6291A5-F392-464A-AE9A-EE8DBFD7681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EB7818-3149-441D-AF98-DD741B1758DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5640" yWindow="4360" windowWidth="12780" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>모션인식 모델 개발</t>
-  </si>
-  <si>
-    <t>음성/모션 명령 실행</t>
   </si>
   <si>
     <t>웹 서버로 영상 전송</t>
@@ -186,7 +183,168 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>명령</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="3"/>
@@ -197,7 +355,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -207,7 +365,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="3"/>
@@ -221,7 +379,172 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>구글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> TTS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>디바이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>디바이스들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>해제할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
@@ -232,7 +555,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -242,7 +565,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
@@ -253,7 +576,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -263,7 +586,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
@@ -277,18 +600,39 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>두번째</t>
+      <t>구글</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> STT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -298,115 +642,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>스프린트</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1/24 ~ 2/4 (105</t>
+      <t>명령</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>시간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>설</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>구글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> TTS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>세번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -416,259 +663,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>스프린트</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>데이터베이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(24)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>서버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>구축</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>서버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>디바이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>디바이스들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>해제할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>있다</t>
+      <t>실행</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -678,85 +680,77 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>시간</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) * 5(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>일</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) * 3(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>명</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) * 8(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>주</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) - 30 = 570</t>
     </r>
@@ -768,85 +762,77 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>시간</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) * 5(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>일</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) * 3(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>명</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) * 14(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>주</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>) = 420</t>
     </r>
@@ -854,706 +840,45 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>모션</t>
+      <t>1/24 ~ 2/4 (105</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(36) - Done</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>디바이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>해제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(10) - Done</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>서버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(24)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>필립스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>휴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> API </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(36) - Done</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>인식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>모델</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(80) - Doing</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>서버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>구축</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(50)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>인식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>데이터셋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(24) - Done</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연결된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>기기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(20) - To Do</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>액티비티</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(24) - Done</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>디바이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>해제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(30) - Doing</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
-      <t>데이터베이스와</t>
+      <t>시간</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>)(</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
-      <t>서버</t>
+      <t>설</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(36)</t>
+      <t>)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1563,22 +888,45 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>시간</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2/21 ~ 3/4(105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1587,80 +935,961 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
-      <t>로그인</t>
+      <t>모션</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
-      <t>/</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
-      <t>회원가입</t>
+      <t>연구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(36) - Done</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
+      </rPr>
+      <t>기상청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(36)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필립스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(36) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(50)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TTS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(36)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터셋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(24) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>로그인</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="major"/>
       </rPr>
       <t>회원가입</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>(16)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재활</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(30)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액티비티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(24) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(24)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(36)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스프린트</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스프린트</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스프린트</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디바이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(30) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디바이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(20) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(80) - Done</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(24)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1669,7 +1898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1693,21 +1922,56 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -1715,13 +1979,37 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -1729,48 +2017,44 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1970,7 +2254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1981,89 +2265,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2284,29 +2577,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:G26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="53.36328125" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
-    <col min="4" max="4" width="59.81640625" customWidth="1"/>
+    <col min="3" max="3" width="46.36328125" customWidth="1"/>
+    <col min="4" max="4" width="69.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
+    <col min="10" max="10" width="57.90625" customWidth="1"/>
+    <col min="11" max="11" width="59" customWidth="1"/>
+    <col min="12" max="12" width="48.81640625" customWidth="1"/>
+    <col min="13" max="13" width="39.81640625" customWidth="1"/>
+    <col min="14" max="14" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2326,24 +2625,24 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2364,24 +2663,24 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>20</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="10">
         <v>24</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <f>SUM(F3:F8)</f>
         <v>166</v>
       </c>
@@ -2405,18 +2704,18 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
         <v>36</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2437,25 +2736,24 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>30</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="8"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -2469,25 +2767,26 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>30</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="8"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2501,25 +2800,28 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
         <v>30</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2533,25 +2835,28 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4" t="s">
-        <v>75</v>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
         <v>16</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2565,21 +2870,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="8"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2593,21 +2897,28 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="J10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2621,34 +2932,41 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>40</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>36</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <f>SUM(F11:F14)</f>
         <v>126</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2662,25 +2980,32 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2694,25 +3019,32 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>50</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="8"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="J13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2726,25 +3058,32 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="J14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2758,21 +3097,24 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="8"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2786,21 +3128,24 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2814,24 +3159,24 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>100</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="10">
         <v>36</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <f>SUM(F17:F24)</f>
         <v>314</v>
       </c>
@@ -2855,18 +3200,18 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="7">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10">
         <v>24</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2887,18 +3232,18 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="7">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10">
         <v>80</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2919,18 +3264,18 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="7" t="s">
-        <v>49</v>
+      <c r="B20" s="19"/>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10">
         <v>36</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2951,18 +3296,18 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="5" t="s">
-        <v>21</v>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
+        <v>52</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>30</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2983,18 +3328,18 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
+        <v>53</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <v>36</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="8"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3015,18 +3360,18 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <v>36</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="8"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3047,18 +3392,18 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="4" t="s">
-        <v>22</v>
+      <c r="B24" s="21"/>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>36</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3079,7 +3424,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -3107,14 +3452,14 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3135,24 +3480,24 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="32" t="s">
-        <v>59</v>
+      <c r="B27" s="25" t="s">
+        <v>55</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>23</v>
+      <c r="C27" s="10" t="s">
+        <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>60</v>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="10">
         <v>20</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="26">
         <v>60</v>
       </c>
       <c r="H27" s="8"/>
@@ -3175,18 +3520,18 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="7" t="s">
-        <v>24</v>
+      <c r="B28" s="25"/>
+      <c r="C28" s="10" t="s">
+        <v>23</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="7">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="10">
         <v>20</v>
       </c>
-      <c r="G28" s="32"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3207,18 +3552,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="7" t="s">
-        <v>25</v>
+      <c r="B29" s="27"/>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="7">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="10">
         <v>20</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3239,14 +3584,14 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="8"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3267,14 +3612,14 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="8"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3295,24 +3640,24 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>18</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <f>SUM(F32:F34)</f>
         <v>66</v>
       </c>
@@ -3336,18 +3681,18 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="4" t="s">
-        <v>29</v>
+      <c r="B33" s="11"/>
+      <c r="C33" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>24</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="8"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3368,18 +3713,18 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="4" t="s">
-        <v>30</v>
+      <c r="B34" s="12"/>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
         <v>24</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="8"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3400,14 +3745,14 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="8"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3428,14 +3773,14 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="8"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3456,24 +3801,24 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>8</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>50</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="9">
         <f>SUM(F37:F39)</f>
         <v>120</v>
       </c>
@@ -3497,18 +3842,18 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
+      <c r="B38" s="19"/>
+      <c r="C38" s="5" t="s">
+        <v>57</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <v>50</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3529,18 +3874,18 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5" t="s">
+        <v>33</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <v>20</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="8"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3561,14 +3906,14 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="8"/>
       <c r="I40" s="1"/>
       <c r="J40" s="2"/>
@@ -3589,14 +3934,14 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="8"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3616,24 +3961,24 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="10">
         <v>24</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="9">
         <f>SUM(F42:F43)</f>
         <v>48</v>
       </c>
@@ -3657,18 +4002,18 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="4" t="s">
-        <v>38</v>
+      <c r="B43" s="12"/>
+      <c r="C43" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
         <v>24</v>
       </c>
-      <c r="G43" s="14"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="8"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3689,14 +4034,14 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="8"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -3717,14 +4062,14 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="8"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3745,24 +4090,24 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>50</v>
       </c>
-      <c r="G46" s="12">
-        <f>SUM(F46:F48)</f>
-        <v>126</v>
+      <c r="G46" s="9">
+        <f>SUM(F46:F49)</f>
+        <v>176</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="1"/>
@@ -3784,18 +4129,18 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="4" t="s">
-        <v>41</v>
+      <c r="B47" s="11"/>
+      <c r="C47" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
         <v>36</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="8"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3816,51 +4161,50 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="4" t="s">
-        <v>42</v>
+      <c r="B48" s="11"/>
+      <c r="C48" s="5" t="s">
+        <v>58</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
+        <v>50</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <v>40</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="4">
-        <f>SUM(G3:G48)</f>
-        <v>1026</v>
-      </c>
+      <c r="G49" s="12"/>
       <c r="H49" s="8"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3881,14 +4225,19 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="5">
+        <f>SUM(G3:G49)</f>
+        <v>1076</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3909,16 +4258,14 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+    <row r="51" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3939,18 +4286,13 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+    <row r="52" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3971,18 +4313,12 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+    <row r="53" spans="1:26" ht="20" x14ac:dyDescent="0.4">
+      <c r="C53" s="34"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -4003,14 +4339,12 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+    <row r="54" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -4031,20 +4365,13 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+    <row r="55" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -4065,20 +4392,10 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+    <row r="56" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -4099,20 +4416,10 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+    <row r="57" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4133,20 +4440,10 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+    <row r="58" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4167,20 +4464,10 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+    <row r="59" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -4201,18 +4488,10 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+    <row r="60" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -4233,18 +4512,12 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+    <row r="61" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -4265,14 +4538,12 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+    <row r="62" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4293,15 +4564,15 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+    <row r="63" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4321,15 +4592,15 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+    <row r="64" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4349,15 +4620,15 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -30809,8 +31080,48 @@
       <c r="Y1009" s="1"/>
       <c r="Z1009" s="1"/>
     </row>
+    <row r="1010" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B44:G45"/>
     <mergeCell ref="B15:G16"/>
     <mergeCell ref="B25:G26"/>
     <mergeCell ref="B30:G31"/>
@@ -30823,18 +31134,6 @@
     <mergeCell ref="G17:G24"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="G32:G34"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B9:G10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -19,7 +19,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+  <x:si>
+    <x:r>
+      <x:t>5(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간) * 5(일) * 3(명) * 8(주) - 30 = 570</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>UI 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명령어 실행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기기 연결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 5일 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액티비티 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱과 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명령어 커스텀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디바이스 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 연구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기기 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>docker</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:t>2(</x:t>
@@ -32,6 +90,333 @@
       </x:rPr>
       <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>여섯번쨰 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Story Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 명령 실행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 STT 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스  설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 프로그램</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱 디자인 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다섯번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 서버로 영상 전송</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기상청 API 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션인식 모델 구동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클라우드 플랫폼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진과 동작 매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 서버와 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Story</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 구축(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 TTS 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인/회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>서버</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>설계</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(24)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>모션인식 모델 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매칭률 점수 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음성과 단어 매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 프로그램</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">서버 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>방학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aws</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2/21 ~ 3/4(105</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>3/7 ~ 3/18(115시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2/7 ~ 2/18 (150</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>매칭률 점수 데이터베이스에 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디바이스들을 연결/해제할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스와 서버 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 연구(36) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액티비티 설계(24) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/10 ~ 1/21 (150시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/21 ~ 4/1(100시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인/회원가입(16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필립스 휴  API 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprint Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정확도 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 데이터셋 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 STT 연동(35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 TTS 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 설계(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정보 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 목록 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기상청 API 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(10) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1/24 ~ 2/4 (105</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)(설)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -101,22 +486,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>1/24 ~ 2/4 (105</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)(설)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:rPr>
         <x:rFont val="맑은 고딕"/>
         <x:sz val="16"/>
@@ -166,63 +535,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(10) - Done</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Estimate Time (단위: 시간)</x:t>
-  </x:si>
-  <x:si>
     <x:t>필립스 휴 API 연동(36) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -291,305 +604,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>2/7 ~ 2/18 (150</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2/21 ~ 3/4(105</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스와 서버 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/10 ~ 1/21 (150시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디바이스들을 연결/해제할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 연구(36) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계(24) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>매칭률 점수 데이터베이스에 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 커스텀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 5일 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기기 연결</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기기 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱과 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 연구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 실행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디바이스 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>docker</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>5(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간) * 5(일) * 3(명) * 8(주) - 30 = 570</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 정보 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>서버</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설계</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(24)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>기상청 API 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션인식 모델 구동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 구축(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 TTS 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음성과 단어 매치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션인식 모델 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클라우드 플랫폼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 기기 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매칭률 점수 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인/회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹 서버와 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진과 동작 매치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동 재활 프로그램</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Story</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹 서버로 영상 전송</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재활 프로그램 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱 디자인 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 명령 실행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Story Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스  설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개강</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">서버 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 STT 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 프로그램</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 데이터셋 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재활 프로그램 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기상청 API 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 TTS 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprint Backlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Backlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 정확도 개선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 설계(24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필립스 휴  API 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 기기 목록 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인/회원가입(16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/7 ~ 3/18(115시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 STT 연동(35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 기기 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다섯번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
+    <x:t>Estimate Time (단위: 시간)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -730,6 +745,90 @@
         <x:color auto="1"/>
       </x:left>
       <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
       <x:top>
@@ -963,97 +1062,13 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="56">
+  <x:cellXfs count="59">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1247,20 +1262,30 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1274,103 +1299,128 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1380,6 +1430,97 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -1399,78 +1540,104 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1490,78 +1657,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1592,93 +1733,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
@@ -2298,8 +2352,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z1009"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I24" activeCellId="0" sqref="I24:I24"/>
+    <x:sheetView tabSelected="1" topLeftCell="B4" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K30" activeCellId="0" sqref="K30:K30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2348,21 +2402,21 @@
     <x:row r="2" spans="1:26" ht="20" customHeight="1">
       <x:c r="A2" s="5"/>
       <x:c r="B2" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>18</x:v>
       </x:c>
-      <x:c r="F2" s="17" t="s">
-        <x:v>6</x:v>
+      <x:c r="F2" s="29" t="s">
+        <x:v>94</x:v>
       </x:c>
-      <x:c r="G2" s="18"/>
+      <x:c r="G2" s="30"/>
       <x:c r="H2" s="8"/>
       <x:c r="I2" s="3"/>
       <x:c r="J2" s="3"/>
@@ -2385,14 +2439,14 @@
     </x:row>
     <x:row r="3" spans="1:26" ht="20" customHeight="1">
       <x:c r="A3" s="5"/>
-      <x:c r="B3" s="19" t="s">
-        <x:v>31</x:v>
+      <x:c r="B3" s="31" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E3" s="9">
         <x:v>20</x:v>
@@ -2400,7 +2454,7 @@
       <x:c r="F3" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G3" s="19">
+      <x:c r="G3" s="31">
         <x:f>SUM(F3:F8)</x:f>
         <x:v>166</x:v>
       </x:c>
@@ -2426,16 +2480,16 @@
     </x:row>
     <x:row r="4" spans="1:26" ht="20" customHeight="1">
       <x:c r="A4" s="5"/>
-      <x:c r="B4" s="20"/>
+      <x:c r="B4" s="32"/>
       <x:c r="C4" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="9"/>
       <x:c r="F4" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G4" s="20"/>
+      <x:c r="G4" s="32"/>
       <x:c r="H4" s="8"/>
       <x:c r="I4" s="3"/>
       <x:c r="J4" s="3"/>
@@ -2458,16 +2512,16 @@
     </x:row>
     <x:row r="5" spans="1:26" ht="20" customHeight="1">
       <x:c r="A5" s="5"/>
-      <x:c r="B5" s="20"/>
+      <x:c r="B5" s="32"/>
       <x:c r="C5" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="12"/>
       <x:c r="E5" s="12"/>
       <x:c r="F5" s="12">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G5" s="20"/>
+      <x:c r="G5" s="32"/>
       <x:c r="H5" s="8"/>
       <x:c r="I5" s="3"/>
       <x:c r="J5" s="3"/>
@@ -2489,20 +2543,20 @@
     </x:row>
     <x:row r="6" spans="1:26" ht="20" customHeight="1">
       <x:c r="A6" s="5"/>
-      <x:c r="B6" s="20"/>
-      <x:c r="C6" s="7" t="s">
-        <x:v>45</x:v>
+      <x:c r="B6" s="32"/>
+      <x:c r="C6" s="28" t="s">
+        <x:v>46</x:v>
       </x:c>
-      <x:c r="D6" s="7"/>
-      <x:c r="E6" s="7"/>
-      <x:c r="F6" s="7">
+      <x:c r="D6" s="28"/>
+      <x:c r="E6" s="28"/>
+      <x:c r="F6" s="28">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="20"/>
+      <x:c r="G6" s="32"/>
       <x:c r="H6" s="8"/>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K6" s="3"/>
       <x:c r="L6" s="3"/>
@@ -2522,22 +2576,22 @@
     </x:row>
     <x:row r="7" spans="1:26" ht="20" customHeight="1">
       <x:c r="A7" s="5"/>
-      <x:c r="B7" s="20"/>
+      <x:c r="B7" s="32"/>
       <x:c r="C7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="7"/>
       <x:c r="E7" s="7"/>
       <x:c r="F7" s="7">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G7" s="20"/>
+      <x:c r="G7" s="32"/>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J7" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K7" s="3"/>
       <x:c r="L7" s="3"/>
@@ -2557,22 +2611,22 @@
     </x:row>
     <x:row r="8" spans="1:26" ht="20" customHeight="1">
       <x:c r="A8" s="5"/>
-      <x:c r="B8" s="21"/>
+      <x:c r="B8" s="33"/>
       <x:c r="C8" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="9"/>
       <x:c r="E8" s="9"/>
       <x:c r="F8" s="9">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G8" s="21"/>
+      <x:c r="G8" s="33"/>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J8" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K8" s="3"/>
       <x:c r="L8" s="3"/>
@@ -2592,12 +2646,12 @@
     </x:row>
     <x:row r="9" spans="1:26" ht="20" customHeight="1">
       <x:c r="A9" s="5"/>
-      <x:c r="B9" s="22"/>
-      <x:c r="C9" s="23"/>
-      <x:c r="D9" s="23"/>
-      <x:c r="E9" s="23"/>
-      <x:c r="F9" s="23"/>
-      <x:c r="G9" s="24"/>
+      <x:c r="B9" s="34"/>
+      <x:c r="C9" s="35"/>
+      <x:c r="D9" s="35"/>
+      <x:c r="E9" s="35"/>
+      <x:c r="F9" s="35"/>
+      <x:c r="G9" s="36"/>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="6"/>
@@ -2619,27 +2673,27 @@
     </x:row>
     <x:row r="10" spans="1:26" ht="20" customHeight="1">
       <x:c r="A10" s="5"/>
-      <x:c r="B10" s="25"/>
-      <x:c r="C10" s="26"/>
-      <x:c r="D10" s="26"/>
-      <x:c r="E10" s="26"/>
-      <x:c r="F10" s="26"/>
-      <x:c r="G10" s="27"/>
+      <x:c r="B10" s="37"/>
+      <x:c r="C10" s="38"/>
+      <x:c r="D10" s="38"/>
+      <x:c r="E10" s="38"/>
+      <x:c r="F10" s="38"/>
+      <x:c r="G10" s="39"/>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="3"/>
-      <x:c r="J10" s="46" t="s">
-        <x:v>50</x:v>
+      <x:c r="J10" s="17" t="s">
+        <x:v>33</x:v>
       </x:c>
-      <x:c r="K10" s="46" t="s">
-        <x:v>36</x:v>
+      <x:c r="K10" s="17" t="s">
+        <x:v>43</x:v>
       </x:c>
-      <x:c r="L10" s="46" t="s">
-        <x:v>47</x:v>
+      <x:c r="L10" s="17" t="s">
+        <x:v>32</x:v>
       </x:c>
-      <x:c r="M10" s="46" t="s">
-        <x:v>57</x:v>
+      <x:c r="M10" s="17" t="s">
+        <x:v>21</x:v>
       </x:c>
-      <x:c r="N10" s="51"/>
+      <x:c r="N10" s="22"/>
       <x:c r="O10" s="3"/>
       <x:c r="P10" s="3"/>
       <x:c r="Q10" s="3"/>
@@ -2655,14 +2709,14 @@
     </x:row>
     <x:row r="11" spans="1:26" ht="20" customHeight="1">
       <x:c r="A11" s="5"/>
-      <x:c r="B11" s="19" t="s">
-        <x:v>65</x:v>
+      <x:c r="B11" s="31" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="7">
         <x:v>40</x:v>
@@ -2670,25 +2724,25 @@
       <x:c r="F11" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G11" s="19">
+      <x:c r="G11" s="31">
         <x:f>SUM(F11:F14)</x:f>
         <x:v>126</x:v>
       </x:c>
       <x:c r="H11" s="8"/>
       <x:c r="I11" s="3"/>
-      <x:c r="J11" s="47" t="s">
-        <x:v>13</x:v>
+      <x:c r="J11" s="18" t="s">
+        <x:v>66</x:v>
       </x:c>
-      <x:c r="K11" s="47" t="s">
-        <x:v>2</x:v>
+      <x:c r="K11" s="18" t="s">
+        <x:v>88</x:v>
       </x:c>
-      <x:c r="L11" s="47" t="s">
-        <x:v>10</x:v>
+      <x:c r="L11" s="18" t="s">
+        <x:v>59</x:v>
       </x:c>
-      <x:c r="M11" s="47" t="s">
-        <x:v>11</x:v>
+      <x:c r="M11" s="18" t="s">
+        <x:v>57</x:v>
       </x:c>
-      <x:c r="N11" s="52"/>
+      <x:c r="N11" s="23"/>
       <x:c r="O11" s="3"/>
       <x:c r="P11" s="3"/>
       <x:c r="Q11" s="3"/>
@@ -2704,31 +2758,31 @@
     </x:row>
     <x:row r="12" spans="1:26" ht="20" customHeight="1">
       <x:c r="A12" s="5"/>
-      <x:c r="B12" s="20"/>
+      <x:c r="B12" s="32"/>
       <x:c r="C12" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="7"/>
       <x:c r="E12" s="7"/>
       <x:c r="F12" s="7">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G12" s="20"/>
+      <x:c r="G12" s="32"/>
       <x:c r="H12" s="8"/>
       <x:c r="I12" s="3"/>
-      <x:c r="J12" s="47" t="s">
-        <x:v>15</x:v>
+      <x:c r="J12" s="18" t="s">
+        <x:v>64</x:v>
       </x:c>
-      <x:c r="K12" s="47" t="s">
-        <x:v>5</x:v>
+      <x:c r="K12" s="18" t="s">
+        <x:v>86</x:v>
       </x:c>
-      <x:c r="L12" s="47" t="s">
-        <x:v>37</x:v>
+      <x:c r="L12" s="18" t="s">
+        <x:v>39</x:v>
       </x:c>
-      <x:c r="M12" s="47" t="s">
-        <x:v>74</x:v>
+      <x:c r="M12" s="18" t="s">
+        <x:v>83</x:v>
       </x:c>
-      <x:c r="N12" s="53"/>
+      <x:c r="N12" s="24"/>
       <x:c r="O12" s="3"/>
       <x:c r="P12" s="3"/>
       <x:c r="Q12" s="3"/>
@@ -2744,31 +2798,31 @@
     </x:row>
     <x:row r="13" spans="1:26" ht="20" customHeight="1">
       <x:c r="A13" s="5"/>
-      <x:c r="B13" s="20"/>
+      <x:c r="B13" s="32"/>
       <x:c r="C13" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D13" s="9"/>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="20"/>
+      <x:c r="G13" s="32"/>
       <x:c r="H13" s="8"/>
       <x:c r="I13" s="3"/>
-      <x:c r="J13" s="47" t="s">
-        <x:v>7</x:v>
+      <x:c r="J13" s="18" t="s">
+        <x:v>92</x:v>
       </x:c>
-      <x:c r="K13" s="47" t="s">
-        <x:v>1</x:v>
+      <x:c r="K13" s="18" t="s">
+        <x:v>90</x:v>
       </x:c>
-      <x:c r="L13" s="47" t="s">
-        <x:v>40</x:v>
+      <x:c r="L13" s="18" t="s">
+        <x:v>36</x:v>
       </x:c>
-      <x:c r="M13" s="47" t="s">
-        <x:v>75</x:v>
+      <x:c r="M13" s="18" t="s">
+        <x:v>77</x:v>
       </x:c>
-      <x:c r="N13" s="52"/>
+      <x:c r="N13" s="23"/>
       <x:c r="O13" s="3"/>
       <x:c r="P13" s="4"/>
       <x:c r="Q13" s="4"/>
@@ -2784,31 +2838,31 @@
     </x:row>
     <x:row r="14" spans="1:26" ht="20" customHeight="1">
       <x:c r="A14" s="5"/>
-      <x:c r="B14" s="21"/>
+      <x:c r="B14" s="33"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D14" s="9"/>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="21"/>
+      <x:c r="G14" s="33"/>
       <x:c r="H14" s="8"/>
       <x:c r="I14" s="3"/>
-      <x:c r="J14" s="47" t="s">
-        <x:v>84</x:v>
+      <x:c r="J14" s="18" t="s">
+        <x:v>68</x:v>
       </x:c>
-      <x:c r="K14" s="47" t="s">
-        <x:v>9</x:v>
+      <x:c r="K14" s="18" t="s">
+        <x:v>93</x:v>
       </x:c>
-      <x:c r="L14" s="47" t="s">
-        <x:v>82</x:v>
+      <x:c r="L14" s="18" t="s">
+        <x:v>70</x:v>
       </x:c>
-      <x:c r="M14" s="47" t="s">
-        <x:v>73</x:v>
+      <x:c r="M14" s="18" t="s">
+        <x:v>79</x:v>
       </x:c>
-      <x:c r="N14" s="54"/>
+      <x:c r="N14" s="25"/>
       <x:c r="O14" s="3"/>
       <x:c r="P14" s="3"/>
       <x:c r="Q14" s="3"/>
@@ -2824,22 +2878,22 @@
     </x:row>
     <x:row r="15" spans="1:26" ht="20" customHeight="1">
       <x:c r="A15" s="5"/>
-      <x:c r="B15" s="22"/>
-      <x:c r="C15" s="23"/>
-      <x:c r="D15" s="23"/>
-      <x:c r="E15" s="23"/>
-      <x:c r="F15" s="23"/>
-      <x:c r="G15" s="24"/>
+      <x:c r="B15" s="34"/>
+      <x:c r="C15" s="35"/>
+      <x:c r="D15" s="35"/>
+      <x:c r="E15" s="35"/>
+      <x:c r="F15" s="35"/>
+      <x:c r="G15" s="36"/>
       <x:c r="H15" s="8"/>
       <x:c r="I15" s="3"/>
-      <x:c r="J15" s="47" t="s">
-        <x:v>16</x:v>
+      <x:c r="J15" s="18" t="s">
+        <x:v>65</x:v>
       </x:c>
-      <x:c r="K15" s="49"/>
-      <x:c r="L15" s="47" t="s">
-        <x:v>79</x:v>
+      <x:c r="K15" s="20"/>
+      <x:c r="L15" s="18" t="s">
+        <x:v>78</x:v>
       </x:c>
-      <x:c r="M15" s="49"/>
+      <x:c r="M15" s="20"/>
       <x:c r="O15" s="3"/>
       <x:c r="P15" s="4"/>
       <x:c r="Q15" s="4"/>
@@ -2855,22 +2909,22 @@
     </x:row>
     <x:row r="16" spans="1:26" ht="20" customHeight="1">
       <x:c r="A16" s="5"/>
-      <x:c r="B16" s="25"/>
-      <x:c r="C16" s="26"/>
-      <x:c r="D16" s="26"/>
-      <x:c r="E16" s="26"/>
-      <x:c r="F16" s="26"/>
-      <x:c r="G16" s="27"/>
+      <x:c r="B16" s="37"/>
+      <x:c r="C16" s="38"/>
+      <x:c r="D16" s="38"/>
+      <x:c r="E16" s="38"/>
+      <x:c r="F16" s="38"/>
+      <x:c r="G16" s="39"/>
       <x:c r="H16" s="8"/>
       <x:c r="I16" s="3"/>
-      <x:c r="J16" s="48" t="s">
-        <x:v>4</x:v>
+      <x:c r="J16" s="19" t="s">
+        <x:v>91</x:v>
       </x:c>
-      <x:c r="K16" s="50"/>
-      <x:c r="L16" s="48" t="s">
-        <x:v>12</x:v>
+      <x:c r="K16" s="21"/>
+      <x:c r="L16" s="19" t="s">
+        <x:v>63</x:v>
       </x:c>
-      <x:c r="M16" s="50"/>
+      <x:c r="M16" s="21"/>
       <x:c r="O16" s="3"/>
       <x:c r="P16" s="3"/>
       <x:c r="Q16" s="3"/>
@@ -2886,14 +2940,14 @@
     </x:row>
     <x:row r="17" spans="1:26" ht="20" customHeight="1">
       <x:c r="A17" s="5"/>
-      <x:c r="B17" s="19" t="s">
-        <x:v>29</x:v>
+      <x:c r="B17" s="31" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E17" s="7">
         <x:v>100</x:v>
@@ -2901,16 +2955,16 @@
       <x:c r="F17" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="19">
+      <x:c r="G17" s="31">
         <x:f>SUM(F17:F25)</x:f>
         <x:v>349</x:v>
       </x:c>
       <x:c r="H17" s="8"/>
       <x:c r="I17" s="3"/>
-      <x:c r="J17" s="45"/>
-      <x:c r="K17" s="45"/>
-      <x:c r="L17" s="45"/>
-      <x:c r="M17" s="45"/>
+      <x:c r="J17" s="57"/>
+      <x:c r="K17" s="57"/>
+      <x:c r="L17" s="57"/>
+      <x:c r="M17" s="57"/>
       <x:c r="N17" s="3"/>
       <x:c r="O17" s="3"/>
       <x:c r="P17" s="3"/>
@@ -2927,22 +2981,22 @@
     </x:row>
     <x:row r="18" spans="1:26" ht="20" customHeight="1">
       <x:c r="A18" s="5"/>
-      <x:c r="B18" s="28"/>
+      <x:c r="B18" s="40"/>
       <x:c r="C18" s="9" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D18" s="7"/>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G18" s="20"/>
+      <x:c r="G18" s="32"/>
       <x:c r="H18" s="8"/>
       <x:c r="I18" s="3"/>
-      <x:c r="J18" s="45"/>
-      <x:c r="K18" s="45"/>
-      <x:c r="L18" s="45"/>
-      <x:c r="M18" s="45"/>
+      <x:c r="J18" s="57"/>
+      <x:c r="K18" s="57"/>
+      <x:c r="L18" s="57"/>
+      <x:c r="M18" s="57"/>
       <x:c r="N18" s="3"/>
       <x:c r="O18" s="3"/>
       <x:c r="P18" s="3"/>
@@ -2959,22 +3013,24 @@
     </x:row>
     <x:row r="19" spans="1:26" ht="20" customHeight="1">
       <x:c r="A19" s="5"/>
-      <x:c r="B19" s="28"/>
+      <x:c r="B19" s="40"/>
       <x:c r="C19" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D19" s="7"/>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="9">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G19" s="20"/>
+      <x:c r="G19" s="32"/>
       <x:c r="H19" s="8"/>
       <x:c r="I19" s="3"/>
-      <x:c r="J19" s="55" t="s">
-        <x:v>88</x:v>
+      <x:c r="J19" s="26" t="s">
+        <x:v>25</x:v>
       </x:c>
-      <x:c r="K19" s="3"/>
+      <x:c r="K19" s="58" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="L19" s="3"/>
       <x:c r="M19" s="3"/>
       <x:c r="N19" s="3"/>
@@ -2993,22 +3049,24 @@
     </x:row>
     <x:row r="20" spans="1:26" ht="20" customHeight="1">
       <x:c r="A20" s="5"/>
-      <x:c r="B20" s="28"/>
+      <x:c r="B20" s="40"/>
       <x:c r="C20" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D20" s="7"/>
       <x:c r="E20" s="7"/>
       <x:c r="F20" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G20" s="20"/>
+      <x:c r="G20" s="32"/>
       <x:c r="H20" s="8"/>
       <x:c r="I20" s="3"/>
       <x:c r="J20" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>58</x:v>
       </x:c>
-      <x:c r="K20" s="3"/>
+      <x:c r="K20" s="6" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="L20" s="3"/>
       <x:c r="M20" s="3"/>
       <x:c r="N20" s="3"/>
@@ -3027,22 +3085,24 @@
     </x:row>
     <x:row r="21" spans="1:26" ht="20" customHeight="1">
       <x:c r="A21" s="5"/>
-      <x:c r="B21" s="28"/>
+      <x:c r="B21" s="40"/>
       <x:c r="C21" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D21" s="7"/>
       <x:c r="E21" s="7"/>
       <x:c r="F21" s="7">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G21" s="20"/>
+      <x:c r="G21" s="32"/>
       <x:c r="H21" s="8"/>
       <x:c r="I21" s="3"/>
       <x:c r="J21" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>76</x:v>
       </x:c>
-      <x:c r="K21" s="3"/>
+      <x:c r="K21" s="6" t="s">
+        <x:v>84</x:v>
+      </x:c>
       <x:c r="L21" s="3"/>
       <x:c r="M21" s="3"/>
       <x:c r="N21" s="3"/>
@@ -3061,22 +3121,24 @@
     </x:row>
     <x:row r="22" spans="1:26" ht="20" customHeight="1">
       <x:c r="A22" s="5"/>
-      <x:c r="B22" s="28"/>
+      <x:c r="B22" s="40"/>
       <x:c r="C22" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="12"/>
       <x:c r="E22" s="12"/>
       <x:c r="F22" s="12">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G22" s="20"/>
+      <x:c r="G22" s="32"/>
       <x:c r="H22" s="8"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="6" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="K22" s="4"/>
+      <x:c r="K22" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
       <x:c r="L22" s="4"/>
       <x:c r="M22" s="4"/>
       <x:c r="N22" s="4"/>
@@ -3095,22 +3157,24 @@
     </x:row>
     <x:row r="23" spans="1:26" ht="20" customHeight="1">
       <x:c r="A23" s="5"/>
-      <x:c r="B23" s="28"/>
+      <x:c r="B23" s="40"/>
       <x:c r="C23" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D23" s="12"/>
       <x:c r="E23" s="12"/>
       <x:c r="F23" s="12">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G23" s="20"/>
+      <x:c r="G23" s="32"/>
       <x:c r="H23" s="8"/>
       <x:c r="I23" s="4"/>
       <x:c r="J23" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>73</x:v>
       </x:c>
-      <x:c r="K23" s="4"/>
+      <x:c r="K23" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="L23" s="4"/>
       <x:c r="M23" s="4"/>
       <x:c r="N23" s="4"/>
@@ -3129,20 +3193,20 @@
     </x:row>
     <x:row r="24" spans="1:26" s="1" customFormat="1" ht="20" customHeight="1">
       <x:c r="A24" s="5"/>
-      <x:c r="B24" s="19"/>
-      <x:c r="C24" s="10" t="s">
-        <x:v>70</x:v>
+      <x:c r="B24" s="31"/>
+      <x:c r="C24" s="27" t="s">
+        <x:v>20</x:v>
       </x:c>
-      <x:c r="D24" s="9"/>
-      <x:c r="E24" s="9"/>
-      <x:c r="F24" s="7">
+      <x:c r="D24" s="28"/>
+      <x:c r="E24" s="28"/>
+      <x:c r="F24" s="28">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G24" s="19"/>
+      <x:c r="G24" s="31"/>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="3"/>
       <x:c r="J24" s="3"/>
-      <x:c r="K24" s="3"/>
+      <x:c r="K24" s="6"/>
       <x:c r="L24" s="3"/>
       <x:c r="M24" s="3"/>
       <x:c r="N24" s="3"/>
@@ -3161,16 +3225,16 @@
     </x:row>
     <x:row r="25" spans="1:26" ht="20" customHeight="1">
       <x:c r="A25" s="5"/>
-      <x:c r="B25" s="38"/>
+      <x:c r="B25" s="50"/>
       <x:c r="C25" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D25" s="7"/>
       <x:c r="E25" s="7"/>
       <x:c r="F25" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G25" s="21"/>
+      <x:c r="G25" s="33"/>
       <x:c r="H25" s="8"/>
       <x:c r="I25" s="3"/>
       <x:c r="J25" s="3"/>
@@ -3193,12 +3257,12 @@
     </x:row>
     <x:row r="26" spans="1:26" ht="20" customHeight="1">
       <x:c r="A26" s="5"/>
-      <x:c r="B26" s="29"/>
-      <x:c r="C26" s="30"/>
-      <x:c r="D26" s="30"/>
-      <x:c r="E26" s="30"/>
-      <x:c r="F26" s="30"/>
-      <x:c r="G26" s="31"/>
+      <x:c r="B26" s="41"/>
+      <x:c r="C26" s="42"/>
+      <x:c r="D26" s="42"/>
+      <x:c r="E26" s="42"/>
+      <x:c r="F26" s="42"/>
+      <x:c r="G26" s="43"/>
       <x:c r="H26" s="8"/>
       <x:c r="I26" s="4"/>
       <x:c r="J26" s="4"/>
@@ -3221,12 +3285,12 @@
     </x:row>
     <x:row r="27" spans="1:26" ht="20" customHeight="1">
       <x:c r="A27" s="5"/>
-      <x:c r="B27" s="25"/>
-      <x:c r="C27" s="26"/>
-      <x:c r="D27" s="26"/>
-      <x:c r="E27" s="26"/>
-      <x:c r="F27" s="26"/>
-      <x:c r="G27" s="27"/>
+      <x:c r="B27" s="37"/>
+      <x:c r="C27" s="38"/>
+      <x:c r="D27" s="38"/>
+      <x:c r="E27" s="38"/>
+      <x:c r="F27" s="38"/>
+      <x:c r="G27" s="39"/>
       <x:c r="H27" s="8"/>
       <x:c r="I27" s="3"/>
       <x:c r="J27" s="3"/>
@@ -3249,14 +3313,14 @@
     </x:row>
     <x:row r="28" spans="1:26" ht="20" customHeight="1">
       <x:c r="A28" s="5"/>
-      <x:c r="B28" s="28" t="s">
-        <x:v>30</x:v>
+      <x:c r="B28" s="40" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D28" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E28" s="7">
         <x:v>5</x:v>
@@ -3264,7 +3328,7 @@
       <x:c r="F28" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G28" s="19">
+      <x:c r="G28" s="31">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H28" s="8"/>
@@ -3289,16 +3353,16 @@
     </x:row>
     <x:row r="29" spans="1:26" ht="20" customHeight="1">
       <x:c r="A29" s="5"/>
-      <x:c r="B29" s="28"/>
+      <x:c r="B29" s="40"/>
       <x:c r="C29" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
       <x:c r="E29" s="7"/>
       <x:c r="F29" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G29" s="28"/>
+      <x:c r="G29" s="40"/>
       <x:c r="H29" s="8"/>
       <x:c r="I29" s="3"/>
       <x:c r="J29" s="3"/>
@@ -3321,16 +3385,16 @@
     </x:row>
     <x:row r="30" spans="1:26" ht="20" customHeight="1">
       <x:c r="A30" s="5"/>
-      <x:c r="B30" s="39"/>
+      <x:c r="B30" s="51"/>
       <x:c r="C30" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D30" s="7"/>
       <x:c r="E30" s="7"/>
       <x:c r="F30" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G30" s="39"/>
+      <x:c r="G30" s="51"/>
       <x:c r="H30" s="8"/>
       <x:c r="I30" s="3"/>
       <x:c r="J30" s="3"/>
@@ -3353,12 +3417,12 @@
     </x:row>
     <x:row r="31" spans="1:26" ht="20" customHeight="1">
       <x:c r="A31" s="5"/>
-      <x:c r="B31" s="32"/>
-      <x:c r="C31" s="33"/>
-      <x:c r="D31" s="33"/>
-      <x:c r="E31" s="33"/>
-      <x:c r="F31" s="33"/>
-      <x:c r="G31" s="34"/>
+      <x:c r="B31" s="44"/>
+      <x:c r="C31" s="45"/>
+      <x:c r="D31" s="45"/>
+      <x:c r="E31" s="45"/>
+      <x:c r="F31" s="45"/>
+      <x:c r="G31" s="46"/>
       <x:c r="H31" s="8"/>
       <x:c r="I31" s="4"/>
       <x:c r="J31" s="4"/>
@@ -3381,12 +3445,12 @@
     </x:row>
     <x:row r="32" spans="1:26" ht="20" customHeight="1">
       <x:c r="A32" s="5"/>
-      <x:c r="B32" s="35"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="36"/>
-      <x:c r="F32" s="36"/>
-      <x:c r="G32" s="37"/>
+      <x:c r="B32" s="47"/>
+      <x:c r="C32" s="48"/>
+      <x:c r="D32" s="48"/>
+      <x:c r="E32" s="48"/>
+      <x:c r="F32" s="48"/>
+      <x:c r="G32" s="49"/>
       <x:c r="H32" s="8"/>
       <x:c r="I32" s="3"/>
       <x:c r="J32" s="3"/>
@@ -3409,20 +3473,20 @@
     </x:row>
     <x:row r="33" spans="1:26" ht="20" customHeight="1">
       <x:c r="A33" s="5"/>
-      <x:c r="B33" s="19" t="s">
-        <x:v>71</x:v>
+      <x:c r="B33" s="31" t="s">
+        <x:v>23</x:v>
       </x:c>
-      <x:c r="C33" s="7" t="s">
-        <x:v>46</x:v>
+      <x:c r="C33" s="28" t="s">
+        <x:v>42</x:v>
       </x:c>
-      <x:c r="D33" s="7" t="s">
-        <x:v>66</x:v>
+      <x:c r="D33" s="28" t="s">
+        <x:v>48</x:v>
       </x:c>
-      <x:c r="E33" s="7"/>
-      <x:c r="F33" s="7">
+      <x:c r="E33" s="28"/>
+      <x:c r="F33" s="28">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G33" s="19">
+      <x:c r="G33" s="31">
         <x:f>SUM(F33:F35)</x:f>
         <x:v>120</x:v>
       </x:c>
@@ -3448,16 +3512,16 @@
     </x:row>
     <x:row r="34" spans="1:26" ht="20" customHeight="1">
       <x:c r="A34" s="5"/>
-      <x:c r="B34" s="20"/>
+      <x:c r="B34" s="32"/>
       <x:c r="C34" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D34" s="7"/>
       <x:c r="E34" s="7"/>
       <x:c r="F34" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G34" s="20"/>
+      <x:c r="G34" s="32"/>
       <x:c r="H34" s="8"/>
       <x:c r="I34" s="3"/>
       <x:c r="J34" s="3"/>
@@ -3480,16 +3544,16 @@
     </x:row>
     <x:row r="35" spans="1:26" ht="20" customHeight="1">
       <x:c r="A35" s="5"/>
-      <x:c r="B35" s="21"/>
+      <x:c r="B35" s="33"/>
       <x:c r="C35" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D35" s="7"/>
       <x:c r="E35" s="7"/>
       <x:c r="F35" s="7">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G35" s="21"/>
+      <x:c r="G35" s="33"/>
       <x:c r="H35" s="8"/>
       <x:c r="I35" s="3"/>
       <x:c r="J35" s="3"/>
@@ -3512,12 +3576,12 @@
     </x:row>
     <x:row r="36" spans="1:26" ht="20" customHeight="1">
       <x:c r="A36" s="5"/>
-      <x:c r="B36" s="22"/>
-      <x:c r="C36" s="23"/>
-      <x:c r="D36" s="23"/>
-      <x:c r="E36" s="23"/>
-      <x:c r="F36" s="23"/>
-      <x:c r="G36" s="24"/>
+      <x:c r="B36" s="34"/>
+      <x:c r="C36" s="35"/>
+      <x:c r="D36" s="35"/>
+      <x:c r="E36" s="35"/>
+      <x:c r="F36" s="35"/>
+      <x:c r="G36" s="36"/>
       <x:c r="H36" s="8"/>
       <x:c r="I36" s="4"/>
       <x:c r="J36" s="4"/>
@@ -3540,12 +3604,12 @@
     </x:row>
     <x:row r="37" spans="1:26" ht="20" customHeight="1">
       <x:c r="A37" s="5"/>
-      <x:c r="B37" s="25"/>
-      <x:c r="C37" s="26"/>
-      <x:c r="D37" s="26"/>
-      <x:c r="E37" s="26"/>
-      <x:c r="F37" s="26"/>
-      <x:c r="G37" s="27"/>
+      <x:c r="B37" s="37"/>
+      <x:c r="C37" s="38"/>
+      <x:c r="D37" s="38"/>
+      <x:c r="E37" s="38"/>
+      <x:c r="F37" s="38"/>
+      <x:c r="G37" s="39"/>
       <x:c r="H37" s="8"/>
       <x:c r="I37" s="3"/>
       <x:c r="J37" s="3"/>
@@ -3568,14 +3632,14 @@
     </x:row>
     <x:row r="38" spans="1:26" ht="20" customHeight="1">
       <x:c r="A38" s="5"/>
-      <x:c r="B38" s="19" t="s">
-        <x:v>52</x:v>
+      <x:c r="B38" s="31" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C38" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D38" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E38" s="7">
         <x:v>8</x:v>
@@ -3583,7 +3647,7 @@
       <x:c r="F38" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G38" s="19">
+      <x:c r="G38" s="31">
         <x:f>SUM(F38:F40)</x:f>
         <x:v>120</x:v>
       </x:c>
@@ -3609,16 +3673,16 @@
     </x:row>
     <x:row r="39" spans="1:26" ht="20" customHeight="1">
       <x:c r="A39" s="5"/>
-      <x:c r="B39" s="28"/>
+      <x:c r="B39" s="40"/>
       <x:c r="C39" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D39" s="7"/>
       <x:c r="E39" s="7"/>
       <x:c r="F39" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G39" s="28"/>
+      <x:c r="G39" s="40"/>
       <x:c r="H39" s="8"/>
       <x:c r="I39" s="4"/>
       <x:c r="J39" s="4"/>
@@ -3641,16 +3705,16 @@
     </x:row>
     <x:row r="40" spans="1:26" ht="20" customHeight="1">
       <x:c r="A40" s="5"/>
-      <x:c r="B40" s="21"/>
+      <x:c r="B40" s="33"/>
       <x:c r="C40" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D40" s="7"/>
       <x:c r="E40" s="7"/>
       <x:c r="F40" s="7">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G40" s="21"/>
+      <x:c r="G40" s="33"/>
       <x:c r="H40" s="8"/>
       <x:c r="I40" s="3"/>
       <x:c r="J40" s="3"/>
@@ -3673,12 +3737,12 @@
     </x:row>
     <x:row r="41" spans="1:26" ht="20" customHeight="1">
       <x:c r="A41" s="5"/>
-      <x:c r="B41" s="22"/>
-      <x:c r="C41" s="23"/>
-      <x:c r="D41" s="23"/>
-      <x:c r="E41" s="23"/>
-      <x:c r="F41" s="23"/>
-      <x:c r="G41" s="24"/>
+      <x:c r="B41" s="34"/>
+      <x:c r="C41" s="35"/>
+      <x:c r="D41" s="35"/>
+      <x:c r="E41" s="35"/>
+      <x:c r="F41" s="35"/>
+      <x:c r="G41" s="36"/>
       <x:c r="H41" s="8"/>
       <x:c r="I41" s="3"/>
       <x:c r="J41" s="4"/>
@@ -3701,12 +3765,12 @@
     </x:row>
     <x:row r="42" spans="1:26" ht="20" customHeight="1">
       <x:c r="A42" s="5"/>
-      <x:c r="B42" s="25"/>
-      <x:c r="C42" s="26"/>
-      <x:c r="D42" s="26"/>
-      <x:c r="E42" s="26"/>
-      <x:c r="F42" s="26"/>
-      <x:c r="G42" s="27"/>
+      <x:c r="B42" s="37"/>
+      <x:c r="C42" s="38"/>
+      <x:c r="D42" s="38"/>
+      <x:c r="E42" s="38"/>
+      <x:c r="F42" s="38"/>
+      <x:c r="G42" s="39"/>
       <x:c r="H42" s="8"/>
       <x:c r="J42" s="3"/>
       <x:c r="K42" s="3"/>
@@ -3728,14 +3792,14 @@
     </x:row>
     <x:row r="43" spans="1:26" ht="20" customHeight="1">
       <x:c r="A43" s="5"/>
-      <x:c r="B43" s="19" t="s">
-        <x:v>56</x:v>
+      <x:c r="B43" s="31" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C43" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E43" s="7">
         <x:v>2</x:v>
@@ -3743,7 +3807,7 @@
       <x:c r="F43" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G43" s="19">
+      <x:c r="G43" s="31">
         <x:f>SUM(F43:F44)</x:f>
         <x:v>48</x:v>
       </x:c>
@@ -3769,16 +3833,16 @@
     </x:row>
     <x:row r="44" spans="1:26" ht="20" customHeight="1">
       <x:c r="A44" s="5"/>
-      <x:c r="B44" s="21"/>
+      <x:c r="B44" s="33"/>
       <x:c r="C44" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D44" s="7"/>
       <x:c r="E44" s="7"/>
       <x:c r="F44" s="7">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G44" s="21"/>
+      <x:c r="G44" s="33"/>
       <x:c r="H44" s="8"/>
       <x:c r="I44" s="3"/>
       <x:c r="J44" s="3"/>
@@ -3801,12 +3865,12 @@
     </x:row>
     <x:row r="45" spans="1:26" ht="20" customHeight="1">
       <x:c r="A45" s="5"/>
-      <x:c r="B45" s="22"/>
-      <x:c r="C45" s="23"/>
-      <x:c r="D45" s="23"/>
-      <x:c r="E45" s="23"/>
-      <x:c r="F45" s="23"/>
-      <x:c r="G45" s="24"/>
+      <x:c r="B45" s="34"/>
+      <x:c r="C45" s="35"/>
+      <x:c r="D45" s="35"/>
+      <x:c r="E45" s="35"/>
+      <x:c r="F45" s="35"/>
+      <x:c r="G45" s="36"/>
       <x:c r="H45" s="8"/>
       <x:c r="I45" s="4"/>
       <x:c r="J45" s="4"/>
@@ -3829,12 +3893,12 @@
     </x:row>
     <x:row r="46" spans="1:26" ht="20" customHeight="1">
       <x:c r="A46" s="5"/>
-      <x:c r="B46" s="29"/>
-      <x:c r="C46" s="30"/>
-      <x:c r="D46" s="30"/>
-      <x:c r="E46" s="30"/>
-      <x:c r="F46" s="30"/>
-      <x:c r="G46" s="31"/>
+      <x:c r="B46" s="41"/>
+      <x:c r="C46" s="42"/>
+      <x:c r="D46" s="42"/>
+      <x:c r="E46" s="42"/>
+      <x:c r="F46" s="42"/>
+      <x:c r="G46" s="43"/>
       <x:c r="H46" s="6"/>
       <x:c r="I46" s="3"/>
       <x:c r="J46" s="3"/>
@@ -3857,14 +3921,14 @@
     </x:row>
     <x:row r="47" spans="1:26" ht="20" customHeight="1">
       <x:c r="A47" s="5"/>
-      <x:c r="B47" s="40" t="s">
-        <x:v>44</x:v>
+      <x:c r="B47" s="52" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C47" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D47" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E47" s="13">
         <x:v>1</x:v>
@@ -3872,7 +3936,7 @@
       <x:c r="F47" s="14">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G47" s="42">
+      <x:c r="G47" s="54">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H47" s="6"/>
@@ -3897,16 +3961,16 @@
     </x:row>
     <x:row r="48" spans="1:26" ht="20" customHeight="1">
       <x:c r="A48" s="5"/>
-      <x:c r="B48" s="41"/>
+      <x:c r="B48" s="53"/>
       <x:c r="C48" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D48" s="15"/>
       <x:c r="E48" s="15"/>
       <x:c r="F48" s="16">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G48" s="43"/>
+      <x:c r="G48" s="55"/>
       <x:c r="H48" s="6"/>
       <x:c r="I48" s="3"/>
       <x:c r="J48" s="3"/>
@@ -3929,12 +3993,12 @@
     </x:row>
     <x:row r="49" spans="1:26" ht="25" customHeight="1">
       <x:c r="A49" s="5"/>
-      <x:c r="B49" s="44"/>
-      <x:c r="C49" s="44"/>
-      <x:c r="D49" s="44"/>
-      <x:c r="E49" s="44"/>
-      <x:c r="F49" s="44"/>
-      <x:c r="G49" s="44"/>
+      <x:c r="B49" s="56"/>
+      <x:c r="C49" s="56"/>
+      <x:c r="D49" s="56"/>
+      <x:c r="E49" s="56"/>
+      <x:c r="F49" s="56"/>
+      <x:c r="G49" s="56"/>
       <x:c r="H49" s="6"/>
       <x:c r="I49" s="3"/>
       <x:c r="J49" s="3"/>
@@ -3957,12 +4021,12 @@
     </x:row>
     <x:row r="50" spans="1:26" ht="23.5">
       <x:c r="A50" s="6"/>
-      <x:c r="B50" s="45"/>
-      <x:c r="C50" s="45"/>
-      <x:c r="D50" s="45"/>
-      <x:c r="E50" s="45"/>
-      <x:c r="F50" s="45"/>
-      <x:c r="G50" s="45"/>
+      <x:c r="B50" s="57"/>
+      <x:c r="C50" s="57"/>
+      <x:c r="D50" s="57"/>
+      <x:c r="E50" s="57"/>
+      <x:c r="F50" s="57"/>
+      <x:c r="G50" s="57"/>
       <x:c r="H50" s="6"/>
       <x:c r="I50" s="3"/>
       <x:c r="J50" s="3"/>
@@ -3985,18 +4049,18 @@
     </x:row>
     <x:row r="51" spans="1:26" ht="23.5">
       <x:c r="A51" s="6"/>
-      <x:c r="B51" s="19" t="s">
-        <x:v>26</x:v>
+      <x:c r="B51" s="31" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C51" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D51" s="7"/>
       <x:c r="E51" s="7"/>
       <x:c r="F51" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G51" s="19">
+      <x:c r="G51" s="31">
         <x:f>SUM(F51:F52)</x:f>
         <x:v>76</x:v>
       </x:c>
@@ -4021,16 +4085,16 @@
       <x:c r="Z51" s="3"/>
     </x:row>
     <x:row r="52" spans="2:26" ht="23.5">
-      <x:c r="B52" s="19"/>
+      <x:c r="B52" s="31"/>
       <x:c r="C52" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D52" s="7"/>
       <x:c r="E52" s="7"/>
       <x:c r="F52" s="7">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G52" s="19"/>
+      <x:c r="G52" s="31"/>
       <x:c r="H52" s="8"/>
       <x:c r="I52" s="3"/>
       <x:c r="J52" s="3"/>
@@ -4057,7 +4121,7 @@
       <x:c r="D53" s="6"/>
       <x:c r="E53" s="6"/>
       <x:c r="F53" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G53" s="7">
         <x:f>SUM(G3:G48)</x:f>

--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -19,7 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+  <x:si>
+    <x:r>
+      <x:t>2(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>4/4 ~ 4/15(90시간)</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:t>5(</x:t>
@@ -34,101 +50,16 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>UI 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 실행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기기 연결</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 5일 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱과 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 커스텀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디바이스 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 연구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기기 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>docker</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>여섯번쨰 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Story Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 명령 실행</x:t>
+    <x:t>aws(20)</x:t>
   </x:si>
   <x:si>
     <x:t>구글 STT 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>네번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스  설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 프로그램</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱 디자인 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다섯번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹 서버로 영상 전송</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재활 프로그램 관리</x:t>
-  </x:si>
-  <x:si>
     <x:t>기상청 API 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>모션인식 모델 구동</x:t>
+    <x:t>세번째 스프린트</x:t>
   </x:si>
   <x:si>
     <x:t>클라우드 플랫폼</x:t>
@@ -137,7 +68,10 @@
     <x:t>사진과 동작 매치</x:t>
   </x:si>
   <x:si>
-    <x:t>세번째 스프린트</x:t>
+    <x:t>모션인식 모델 구동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리</x:t>
   </x:si>
   <x:si>
     <x:t>첫번째 스프린트</x:t>
@@ -146,16 +80,31 @@
     <x:t>웹 서버와 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>User Story</x:t>
+    <x:t>모션 인식 정보 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 구축(50)</x:t>
+    <x:t>음성과 단어 매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매칭률 점수 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인/회원가입</x:t>
   </x:si>
   <x:si>
     <x:t>구글 TTS 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입</x:t>
+    <x:t>연결된 기기 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 프로그램</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Story</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -192,25 +141,52 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>서버 구축(50)</x:t>
+  </x:si>
+  <x:si>
     <x:t>모션인식 모델 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정보 관리</x:t>
+    <x:t>일곱번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>매칭률 점수 계산</x:t>
+    <x:t>언어 재활 프로그램</x:t>
   </x:si>
   <x:si>
-    <x:t>두번째 스프린트</x:t>
+    <x:t>앱 디자인 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>음성과 단어 매치</x:t>
+    <x:t>다섯번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>운동 재활 프로그램</x:t>
+    <x:t>모션 명령 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 관리</x:t>
+    <x:t>데이터베이스  설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Story Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 서버로 영상 전송</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여섯번쨰 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
   </x:si>
   <x:si>
     <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
@@ -219,19 +195,13 @@
     <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
+    <x:t>방학</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">서버 </x:t>
   </x:si>
   <x:si>
-    <x:t>방학</x:t>
+    <x:t>합계</x:t>
   </x:si>
   <x:si>
     <x:t>aws</x:t>
@@ -240,7 +210,19 @@
     <x:t>개강</x:t>
   </x:si>
   <x:si>
-    <x:t>합계</x:t>
+    <x:t>1/10 ~ 1/21 (150시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스와 서버 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액티비티 설계(24) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/7 ~ 3/18(115시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -256,7 +238,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>3/7 ~ 3/18(115시간)</x:t>
+    <x:t>3/21 ~ 4/1(100시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매칭률 점수 데이터베이스에 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 연구(36) - Done</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -272,40 +260,85 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>매칭률 점수 데이터베이스에 저장</x:t>
-  </x:si>
-  <x:si>
     <x:t>디바이스들을 연결/해제할 수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
+    <x:t>명령어 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터베이스와 서버 연동(36)</x:t>
+    <x:t>디바이스 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 연구(36) - Done</x:t>
+    <x:t>주 5일 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>액티비티 설계(24) - Done</x:t>
+    <x:t>서버 구축</x:t>
   </x:si>
   <x:si>
-    <x:t>1/10 ~ 1/21 (150시간)</x:t>
+    <x:t>UI 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>3/21 ~ 4/1(100시간)</x:t>
+    <x:t>앱과 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
+    <x:t>모션 연구</x:t>
   </x:si>
   <x:si>
-    <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
+    <x:t>액티비티 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기기 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명령어 커스텀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기기 연결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>docker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정보 관리(30)</x:t>
   </x:si>
   <x:si>
     <x:t>로그인/회원가입(16)</x:t>
   </x:si>
   <x:si>
+    <x:t>구글 STT 연동(35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정확도 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 목록 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 TTS 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 데이터셋 생성</x:t>
+  </x:si>
+  <x:si>
     <x:t>필립스 휴  API 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기상청 API 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리(30)</x:t>
   </x:si>
   <x:si>
     <x:t>Sprint Backlog</x:t>
@@ -314,225 +347,13 @@
     <x:t>연결된 기기 관리(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정확도 개선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 데이터셋 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 STT 연동(35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 TTS 연동(36)</x:t>
-  </x:si>
-  <x:si>
     <x:t>데이터베이스 설계(24)</x:t>
   </x:si>
   <x:si>
-    <x:t>재활 프로그램 관리(30)</x:t>
+    <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정보 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Backlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 기기 목록 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기상청 API 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(10) - Done</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1/24 ~ 2/4 (105</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)(설)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모션</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인식</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모델</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>개발</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(80) - Done</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(30) - Done</x:t>
-    </x:r>
+    <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
   </x:si>
   <x:si>
     <x:t>필립스 휴 API 연동(36) - Done</x:t>
@@ -604,7 +425,201 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>모션</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>인식</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>모델</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>개발</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(80) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1/24 ~ 2/4 (105</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)(설)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Estimate Time (단위: 시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(30) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(10) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 음성과 단어 매치(50)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1068,7 +1083,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="59">
+  <x:cellXfs count="61">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1369,6 +1384,32 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2352,8 +2393,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z1009"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B4" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K30" activeCellId="0" sqref="K30:K30"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I48" activeCellId="0" sqref="I48:I48"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2402,21 +2443,21 @@
     <x:row r="2" spans="1:26" ht="20" customHeight="1">
       <x:c r="A2" s="5"/>
       <x:c r="B2" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
-      <x:c r="F2" s="29" t="s">
+      <x:c r="F2" s="31" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="G2" s="30"/>
+      <x:c r="G2" s="32"/>
       <x:c r="H2" s="8"/>
       <x:c r="I2" s="3"/>
       <x:c r="J2" s="3"/>
@@ -2439,14 +2480,14 @@
     </x:row>
     <x:row r="3" spans="1:26" ht="20" customHeight="1">
       <x:c r="A3" s="5"/>
-      <x:c r="B3" s="31" t="s">
-        <x:v>11</x:v>
+      <x:c r="B3" s="33" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E3" s="9">
         <x:v>20</x:v>
@@ -2454,7 +2495,7 @@
       <x:c r="F3" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G3" s="31">
+      <x:c r="G3" s="33">
         <x:f>SUM(F3:F8)</x:f>
         <x:v>166</x:v>
       </x:c>
@@ -2480,16 +2521,16 @@
     </x:row>
     <x:row r="4" spans="1:26" ht="20" customHeight="1">
       <x:c r="A4" s="5"/>
-      <x:c r="B4" s="32"/>
+      <x:c r="B4" s="34"/>
       <x:c r="C4" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="9"/>
       <x:c r="F4" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G4" s="32"/>
+      <x:c r="G4" s="34"/>
       <x:c r="H4" s="8"/>
       <x:c r="I4" s="3"/>
       <x:c r="J4" s="3"/>
@@ -2512,16 +2553,16 @@
     </x:row>
     <x:row r="5" spans="1:26" ht="20" customHeight="1">
       <x:c r="A5" s="5"/>
-      <x:c r="B5" s="32"/>
+      <x:c r="B5" s="34"/>
       <x:c r="C5" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="12"/>
       <x:c r="E5" s="12"/>
       <x:c r="F5" s="12">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G5" s="32"/>
+      <x:c r="G5" s="34"/>
       <x:c r="H5" s="8"/>
       <x:c r="I5" s="3"/>
       <x:c r="J5" s="3"/>
@@ -2543,20 +2584,20 @@
     </x:row>
     <x:row r="6" spans="1:26" ht="20" customHeight="1">
       <x:c r="A6" s="5"/>
-      <x:c r="B6" s="32"/>
+      <x:c r="B6" s="34"/>
       <x:c r="C6" s="28" t="s">
-        <x:v>46</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="28"/>
       <x:c r="E6" s="28"/>
       <x:c r="F6" s="28">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="32"/>
+      <x:c r="G6" s="34"/>
       <x:c r="H6" s="8"/>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K6" s="3"/>
       <x:c r="L6" s="3"/>
@@ -2576,22 +2617,22 @@
     </x:row>
     <x:row r="7" spans="1:26" ht="20" customHeight="1">
       <x:c r="A7" s="5"/>
-      <x:c r="B7" s="32"/>
-      <x:c r="C7" s="7" t="s">
+      <x:c r="B7" s="34"/>
+      <x:c r="C7" s="30" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D7" s="30"/>
+      <x:c r="E7" s="30"/>
+      <x:c r="F7" s="30">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G7" s="34"/>
+      <x:c r="H7" s="8"/>
+      <x:c r="I7" s="6" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D7" s="7"/>
-      <x:c r="E7" s="7"/>
-      <x:c r="F7" s="7">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G7" s="32"/>
-      <x:c r="H7" s="8"/>
-      <x:c r="I7" s="6" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="J7" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K7" s="3"/>
       <x:c r="L7" s="3"/>
@@ -2611,22 +2652,22 @@
     </x:row>
     <x:row r="8" spans="1:26" ht="20" customHeight="1">
       <x:c r="A8" s="5"/>
-      <x:c r="B8" s="33"/>
+      <x:c r="B8" s="35"/>
       <x:c r="C8" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="9"/>
       <x:c r="E8" s="9"/>
       <x:c r="F8" s="9">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G8" s="33"/>
+      <x:c r="G8" s="35"/>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J8" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="3"/>
       <x:c r="L8" s="3"/>
@@ -2646,12 +2687,12 @@
     </x:row>
     <x:row r="9" spans="1:26" ht="20" customHeight="1">
       <x:c r="A9" s="5"/>
-      <x:c r="B9" s="34"/>
-      <x:c r="C9" s="35"/>
-      <x:c r="D9" s="35"/>
-      <x:c r="E9" s="35"/>
-      <x:c r="F9" s="35"/>
-      <x:c r="G9" s="36"/>
+      <x:c r="B9" s="36"/>
+      <x:c r="C9" s="37"/>
+      <x:c r="D9" s="37"/>
+      <x:c r="E9" s="37"/>
+      <x:c r="F9" s="37"/>
+      <x:c r="G9" s="38"/>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="6"/>
@@ -2673,25 +2714,25 @@
     </x:row>
     <x:row r="10" spans="1:26" ht="20" customHeight="1">
       <x:c r="A10" s="5"/>
-      <x:c r="B10" s="37"/>
-      <x:c r="C10" s="38"/>
-      <x:c r="D10" s="38"/>
-      <x:c r="E10" s="38"/>
-      <x:c r="F10" s="38"/>
-      <x:c r="G10" s="39"/>
+      <x:c r="B10" s="39"/>
+      <x:c r="C10" s="40"/>
+      <x:c r="D10" s="40"/>
+      <x:c r="E10" s="40"/>
+      <x:c r="F10" s="40"/>
+      <x:c r="G10" s="41"/>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K10" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L10" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="17" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N10" s="22"/>
       <x:c r="O10" s="3"/>
@@ -2709,14 +2750,14 @@
     </x:row>
     <x:row r="11" spans="1:26" ht="20" customHeight="1">
       <x:c r="A11" s="5"/>
-      <x:c r="B11" s="31" t="s">
-        <x:v>52</x:v>
+      <x:c r="B11" s="33" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E11" s="7">
         <x:v>40</x:v>
@@ -2724,23 +2765,23 @@
       <x:c r="F11" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G11" s="31">
+      <x:c r="G11" s="33">
         <x:f>SUM(F11:F14)</x:f>
         <x:v>126</x:v>
       </x:c>
       <x:c r="H11" s="8"/>
       <x:c r="I11" s="3"/>
       <x:c r="J11" s="18" t="s">
-        <x:v>66</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K11" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L11" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="M11" s="18" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N11" s="23"/>
       <x:c r="O11" s="3"/>
@@ -2758,29 +2799,29 @@
     </x:row>
     <x:row r="12" spans="1:26" ht="20" customHeight="1">
       <x:c r="A12" s="5"/>
-      <x:c r="B12" s="32"/>
+      <x:c r="B12" s="34"/>
       <x:c r="C12" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D12" s="7"/>
       <x:c r="E12" s="7"/>
       <x:c r="F12" s="7">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G12" s="32"/>
+      <x:c r="G12" s="34"/>
       <x:c r="H12" s="8"/>
       <x:c r="I12" s="3"/>
       <x:c r="J12" s="18" t="s">
-        <x:v>64</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K12" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L12" s="18" t="s">
-        <x:v>39</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M12" s="18" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N12" s="24"/>
       <x:c r="O12" s="3"/>
@@ -2798,29 +2839,29 @@
     </x:row>
     <x:row r="13" spans="1:26" ht="20" customHeight="1">
       <x:c r="A13" s="5"/>
-      <x:c r="B13" s="32"/>
+      <x:c r="B13" s="34"/>
       <x:c r="C13" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D13" s="9"/>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="32"/>
+      <x:c r="G13" s="34"/>
       <x:c r="H13" s="8"/>
       <x:c r="I13" s="3"/>
       <x:c r="J13" s="18" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K13" s="18" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L13" s="18" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M13" s="18" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N13" s="23"/>
       <x:c r="O13" s="3"/>
@@ -2838,29 +2879,29 @@
     </x:row>
     <x:row r="14" spans="1:26" ht="20" customHeight="1">
       <x:c r="A14" s="5"/>
-      <x:c r="B14" s="33"/>
+      <x:c r="B14" s="35"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D14" s="9"/>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="33"/>
+      <x:c r="G14" s="35"/>
       <x:c r="H14" s="8"/>
       <x:c r="I14" s="3"/>
       <x:c r="J14" s="18" t="s">
-        <x:v>68</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K14" s="18" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L14" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M14" s="18" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="N14" s="25"/>
       <x:c r="O14" s="3"/>
@@ -2878,20 +2919,20 @@
     </x:row>
     <x:row r="15" spans="1:26" ht="20" customHeight="1">
       <x:c r="A15" s="5"/>
-      <x:c r="B15" s="34"/>
-      <x:c r="C15" s="35"/>
-      <x:c r="D15" s="35"/>
-      <x:c r="E15" s="35"/>
-      <x:c r="F15" s="35"/>
-      <x:c r="G15" s="36"/>
+      <x:c r="B15" s="36"/>
+      <x:c r="C15" s="37"/>
+      <x:c r="D15" s="37"/>
+      <x:c r="E15" s="37"/>
+      <x:c r="F15" s="37"/>
+      <x:c r="G15" s="38"/>
       <x:c r="H15" s="8"/>
       <x:c r="I15" s="3"/>
       <x:c r="J15" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K15" s="20"/>
       <x:c r="L15" s="18" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M15" s="20"/>
       <x:c r="O15" s="3"/>
@@ -2909,20 +2950,20 @@
     </x:row>
     <x:row r="16" spans="1:26" ht="20" customHeight="1">
       <x:c r="A16" s="5"/>
-      <x:c r="B16" s="37"/>
-      <x:c r="C16" s="38"/>
-      <x:c r="D16" s="38"/>
-      <x:c r="E16" s="38"/>
-      <x:c r="F16" s="38"/>
-      <x:c r="G16" s="39"/>
+      <x:c r="B16" s="39"/>
+      <x:c r="C16" s="40"/>
+      <x:c r="D16" s="40"/>
+      <x:c r="E16" s="40"/>
+      <x:c r="F16" s="40"/>
+      <x:c r="G16" s="41"/>
       <x:c r="H16" s="8"/>
       <x:c r="I16" s="3"/>
       <x:c r="J16" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K16" s="21"/>
       <x:c r="L16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M16" s="21"/>
       <x:c r="O16" s="3"/>
@@ -2940,14 +2981,14 @@
     </x:row>
     <x:row r="17" spans="1:26" ht="20" customHeight="1">
       <x:c r="A17" s="5"/>
-      <x:c r="B17" s="31" t="s">
-        <x:v>3</x:v>
+      <x:c r="B17" s="33" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E17" s="7">
         <x:v>100</x:v>
@@ -2955,16 +2996,16 @@
       <x:c r="F17" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="31">
+      <x:c r="G17" s="33">
         <x:f>SUM(F17:F25)</x:f>
         <x:v>349</x:v>
       </x:c>
       <x:c r="H17" s="8"/>
       <x:c r="I17" s="3"/>
-      <x:c r="J17" s="57"/>
-      <x:c r="K17" s="57"/>
-      <x:c r="L17" s="57"/>
-      <x:c r="M17" s="57"/>
+      <x:c r="J17" s="59"/>
+      <x:c r="K17" s="59"/>
+      <x:c r="L17" s="59"/>
+      <x:c r="M17" s="59"/>
       <x:c r="N17" s="3"/>
       <x:c r="O17" s="3"/>
       <x:c r="P17" s="3"/>
@@ -2981,22 +3022,22 @@
     </x:row>
     <x:row r="18" spans="1:26" ht="20" customHeight="1">
       <x:c r="A18" s="5"/>
-      <x:c r="B18" s="40"/>
+      <x:c r="B18" s="42"/>
       <x:c r="C18" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D18" s="7"/>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G18" s="32"/>
+      <x:c r="G18" s="34"/>
       <x:c r="H18" s="8"/>
       <x:c r="I18" s="3"/>
-      <x:c r="J18" s="57"/>
-      <x:c r="K18" s="57"/>
-      <x:c r="L18" s="57"/>
-      <x:c r="M18" s="57"/>
+      <x:c r="J18" s="59"/>
+      <x:c r="K18" s="59"/>
+      <x:c r="L18" s="59"/>
+      <x:c r="M18" s="59"/>
       <x:c r="N18" s="3"/>
       <x:c r="O18" s="3"/>
       <x:c r="P18" s="3"/>
@@ -3013,25 +3054,27 @@
     </x:row>
     <x:row r="19" spans="1:26" ht="20" customHeight="1">
       <x:c r="A19" s="5"/>
-      <x:c r="B19" s="40"/>
+      <x:c r="B19" s="42"/>
       <x:c r="C19" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D19" s="7"/>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="9">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G19" s="32"/>
+      <x:c r="G19" s="34"/>
       <x:c r="H19" s="8"/>
       <x:c r="I19" s="3"/>
       <x:c r="J19" s="26" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K19" s="29" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L19" s="60" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="K19" s="58" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L19" s="3"/>
       <x:c r="M19" s="3"/>
       <x:c r="N19" s="3"/>
       <x:c r="O19" s="3"/>
@@ -3049,25 +3092,27 @@
     </x:row>
     <x:row r="20" spans="1:26" ht="20" customHeight="1">
       <x:c r="A20" s="5"/>
-      <x:c r="B20" s="40"/>
+      <x:c r="B20" s="42"/>
       <x:c r="C20" s="9" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D20" s="7"/>
       <x:c r="E20" s="7"/>
       <x:c r="F20" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G20" s="32"/>
+      <x:c r="G20" s="34"/>
       <x:c r="H20" s="8"/>
       <x:c r="I20" s="3"/>
       <x:c r="J20" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
-      <x:c r="L20" s="3"/>
+      <x:c r="L20" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="M20" s="3"/>
       <x:c r="N20" s="3"/>
       <x:c r="O20" s="3"/>
@@ -3085,25 +3130,27 @@
     </x:row>
     <x:row r="21" spans="1:26" ht="20" customHeight="1">
       <x:c r="A21" s="5"/>
-      <x:c r="B21" s="40"/>
+      <x:c r="B21" s="42"/>
       <x:c r="C21" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D21" s="7"/>
       <x:c r="E21" s="7"/>
       <x:c r="F21" s="7">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G21" s="32"/>
+      <x:c r="G21" s="34"/>
       <x:c r="H21" s="8"/>
       <x:c r="I21" s="3"/>
       <x:c r="J21" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K21" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>93</x:v>
       </x:c>
-      <x:c r="L21" s="3"/>
+      <x:c r="L21" s="6" t="s">
+        <x:v>99</x:v>
+      </x:c>
       <x:c r="M21" s="3"/>
       <x:c r="N21" s="3"/>
       <x:c r="O21" s="3"/>
@@ -3121,25 +3168,27 @@
     </x:row>
     <x:row r="22" spans="1:26" ht="20" customHeight="1">
       <x:c r="A22" s="5"/>
-      <x:c r="B22" s="40"/>
+      <x:c r="B22" s="42"/>
       <x:c r="C22" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="12"/>
       <x:c r="E22" s="12"/>
       <x:c r="F22" s="12">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G22" s="32"/>
+      <x:c r="G22" s="34"/>
       <x:c r="H22" s="8"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K22" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
-      <x:c r="L22" s="4"/>
+      <x:c r="L22" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="M22" s="4"/>
       <x:c r="N22" s="4"/>
       <x:c r="O22" s="4"/>
@@ -3157,25 +3206,27 @@
     </x:row>
     <x:row r="23" spans="1:26" ht="20" customHeight="1">
       <x:c r="A23" s="5"/>
-      <x:c r="B23" s="40"/>
+      <x:c r="B23" s="42"/>
       <x:c r="C23" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D23" s="12"/>
       <x:c r="E23" s="12"/>
       <x:c r="F23" s="12">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G23" s="32"/>
+      <x:c r="G23" s="34"/>
       <x:c r="H23" s="8"/>
       <x:c r="I23" s="4"/>
       <x:c r="J23" s="6" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="K23" s="6" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="K23" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="L23" s="6" t="s">
+        <x:v>3</x:v>
       </x:c>
-      <x:c r="L23" s="4"/>
       <x:c r="M23" s="4"/>
       <x:c r="N23" s="4"/>
       <x:c r="O23" s="4"/>
@@ -3193,16 +3244,16 @@
     </x:row>
     <x:row r="24" spans="1:26" s="1" customFormat="1" ht="20" customHeight="1">
       <x:c r="A24" s="5"/>
-      <x:c r="B24" s="31"/>
+      <x:c r="B24" s="33"/>
       <x:c r="C24" s="27" t="s">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D24" s="28"/>
       <x:c r="E24" s="28"/>
       <x:c r="F24" s="28">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G24" s="31"/>
+      <x:c r="G24" s="33"/>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="3"/>
       <x:c r="J24" s="3"/>
@@ -3225,16 +3276,16 @@
     </x:row>
     <x:row r="25" spans="1:26" ht="20" customHeight="1">
       <x:c r="A25" s="5"/>
-      <x:c r="B25" s="50"/>
+      <x:c r="B25" s="52"/>
       <x:c r="C25" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D25" s="7"/>
       <x:c r="E25" s="7"/>
       <x:c r="F25" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G25" s="33"/>
+      <x:c r="G25" s="35"/>
       <x:c r="H25" s="8"/>
       <x:c r="I25" s="3"/>
       <x:c r="J25" s="3"/>
@@ -3257,12 +3308,12 @@
     </x:row>
     <x:row r="26" spans="1:26" ht="20" customHeight="1">
       <x:c r="A26" s="5"/>
-      <x:c r="B26" s="41"/>
-      <x:c r="C26" s="42"/>
-      <x:c r="D26" s="42"/>
-      <x:c r="E26" s="42"/>
-      <x:c r="F26" s="42"/>
-      <x:c r="G26" s="43"/>
+      <x:c r="B26" s="43"/>
+      <x:c r="C26" s="44"/>
+      <x:c r="D26" s="44"/>
+      <x:c r="E26" s="44"/>
+      <x:c r="F26" s="44"/>
+      <x:c r="G26" s="45"/>
       <x:c r="H26" s="8"/>
       <x:c r="I26" s="4"/>
       <x:c r="J26" s="4"/>
@@ -3285,12 +3336,12 @@
     </x:row>
     <x:row r="27" spans="1:26" ht="20" customHeight="1">
       <x:c r="A27" s="5"/>
-      <x:c r="B27" s="37"/>
-      <x:c r="C27" s="38"/>
-      <x:c r="D27" s="38"/>
-      <x:c r="E27" s="38"/>
-      <x:c r="F27" s="38"/>
-      <x:c r="G27" s="39"/>
+      <x:c r="B27" s="39"/>
+      <x:c r="C27" s="40"/>
+      <x:c r="D27" s="40"/>
+      <x:c r="E27" s="40"/>
+      <x:c r="F27" s="40"/>
+      <x:c r="G27" s="41"/>
       <x:c r="H27" s="8"/>
       <x:c r="I27" s="3"/>
       <x:c r="J27" s="3"/>
@@ -3313,14 +3364,14 @@
     </x:row>
     <x:row r="28" spans="1:26" ht="20" customHeight="1">
       <x:c r="A28" s="5"/>
-      <x:c r="B28" s="40" t="s">
-        <x:v>12</x:v>
+      <x:c r="B28" s="42" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C28" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D28" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E28" s="7">
         <x:v>5</x:v>
@@ -3328,7 +3379,7 @@
       <x:c r="F28" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G28" s="31">
+      <x:c r="G28" s="33">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H28" s="8"/>
@@ -3353,16 +3404,16 @@
     </x:row>
     <x:row r="29" spans="1:26" ht="20" customHeight="1">
       <x:c r="A29" s="5"/>
-      <x:c r="B29" s="40"/>
+      <x:c r="B29" s="42"/>
       <x:c r="C29" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
       <x:c r="E29" s="7"/>
       <x:c r="F29" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G29" s="40"/>
+      <x:c r="G29" s="42"/>
       <x:c r="H29" s="8"/>
       <x:c r="I29" s="3"/>
       <x:c r="J29" s="3"/>
@@ -3385,16 +3436,16 @@
     </x:row>
     <x:row r="30" spans="1:26" ht="20" customHeight="1">
       <x:c r="A30" s="5"/>
-      <x:c r="B30" s="51"/>
+      <x:c r="B30" s="53"/>
       <x:c r="C30" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D30" s="7"/>
       <x:c r="E30" s="7"/>
       <x:c r="F30" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G30" s="51"/>
+      <x:c r="G30" s="53"/>
       <x:c r="H30" s="8"/>
       <x:c r="I30" s="3"/>
       <x:c r="J30" s="3"/>
@@ -3417,19 +3468,19 @@
     </x:row>
     <x:row r="31" spans="1:26" ht="20" customHeight="1">
       <x:c r="A31" s="5"/>
-      <x:c r="B31" s="44"/>
-      <x:c r="C31" s="45"/>
-      <x:c r="D31" s="45"/>
-      <x:c r="E31" s="45"/>
-      <x:c r="F31" s="45"/>
-      <x:c r="G31" s="46"/>
+      <x:c r="B31" s="46"/>
+      <x:c r="C31" s="47"/>
+      <x:c r="D31" s="47"/>
+      <x:c r="E31" s="47"/>
+      <x:c r="F31" s="47"/>
+      <x:c r="G31" s="48"/>
       <x:c r="H31" s="8"/>
       <x:c r="I31" s="4"/>
       <x:c r="J31" s="4"/>
-      <x:c r="K31" s="4"/>
-      <x:c r="L31" s="4"/>
-      <x:c r="M31" s="4"/>
-      <x:c r="N31" s="4"/>
+      <x:c r="K31" s="7"/>
+      <x:c r="L31" s="7"/>
+      <x:c r="M31" s="7"/>
+      <x:c r="N31" s="7"/>
       <x:c r="O31" s="4"/>
       <x:c r="P31" s="4"/>
       <x:c r="Q31" s="4"/>
@@ -3445,19 +3496,19 @@
     </x:row>
     <x:row r="32" spans="1:26" ht="20" customHeight="1">
       <x:c r="A32" s="5"/>
-      <x:c r="B32" s="47"/>
-      <x:c r="C32" s="48"/>
-      <x:c r="D32" s="48"/>
-      <x:c r="E32" s="48"/>
-      <x:c r="F32" s="48"/>
-      <x:c r="G32" s="49"/>
+      <x:c r="B32" s="49"/>
+      <x:c r="C32" s="50"/>
+      <x:c r="D32" s="50"/>
+      <x:c r="E32" s="50"/>
+      <x:c r="F32" s="50"/>
+      <x:c r="G32" s="51"/>
       <x:c r="H32" s="8"/>
       <x:c r="I32" s="3"/>
       <x:c r="J32" s="3"/>
-      <x:c r="K32" s="3"/>
-      <x:c r="L32" s="3"/>
-      <x:c r="M32" s="3"/>
-      <x:c r="N32" s="3"/>
+      <x:c r="K32" s="7"/>
+      <x:c r="L32" s="7"/>
+      <x:c r="M32" s="7"/>
+      <x:c r="N32" s="7"/>
       <x:c r="O32" s="3"/>
       <x:c r="P32" s="3"/>
       <x:c r="Q32" s="3"/>
@@ -3473,30 +3524,30 @@
     </x:row>
     <x:row r="33" spans="1:26" ht="20" customHeight="1">
       <x:c r="A33" s="5"/>
-      <x:c r="B33" s="31" t="s">
-        <x:v>23</x:v>
+      <x:c r="B33" s="33" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C33" s="28" t="s">
-        <x:v>42</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D33" s="28" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E33" s="28"/>
       <x:c r="F33" s="28">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G33" s="31">
+      <x:c r="G33" s="33">
         <x:f>SUM(F33:F35)</x:f>
         <x:v>120</x:v>
       </x:c>
       <x:c r="H33" s="8"/>
       <x:c r="I33" s="3"/>
       <x:c r="J33" s="3"/>
-      <x:c r="K33" s="3"/>
-      <x:c r="L33" s="3"/>
-      <x:c r="M33" s="3"/>
-      <x:c r="N33" s="3"/>
+      <x:c r="K33" s="13"/>
+      <x:c r="L33" s="13"/>
+      <x:c r="M33" s="13"/>
+      <x:c r="N33" s="14"/>
       <x:c r="O33" s="3"/>
       <x:c r="P33" s="3"/>
       <x:c r="Q33" s="3"/>
@@ -3512,16 +3563,16 @@
     </x:row>
     <x:row r="34" spans="1:26" ht="20" customHeight="1">
       <x:c r="A34" s="5"/>
-      <x:c r="B34" s="32"/>
+      <x:c r="B34" s="34"/>
       <x:c r="C34" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D34" s="7"/>
       <x:c r="E34" s="7"/>
       <x:c r="F34" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G34" s="32"/>
+      <x:c r="G34" s="34"/>
       <x:c r="H34" s="8"/>
       <x:c r="I34" s="3"/>
       <x:c r="J34" s="3"/>
@@ -3544,16 +3595,16 @@
     </x:row>
     <x:row r="35" spans="1:26" ht="20" customHeight="1">
       <x:c r="A35" s="5"/>
-      <x:c r="B35" s="33"/>
+      <x:c r="B35" s="35"/>
       <x:c r="C35" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D35" s="7"/>
       <x:c r="E35" s="7"/>
       <x:c r="F35" s="7">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G35" s="33"/>
+      <x:c r="G35" s="35"/>
       <x:c r="H35" s="8"/>
       <x:c r="I35" s="3"/>
       <x:c r="J35" s="3"/>
@@ -3576,12 +3627,12 @@
     </x:row>
     <x:row r="36" spans="1:26" ht="20" customHeight="1">
       <x:c r="A36" s="5"/>
-      <x:c r="B36" s="34"/>
-      <x:c r="C36" s="35"/>
-      <x:c r="D36" s="35"/>
-      <x:c r="E36" s="35"/>
-      <x:c r="F36" s="35"/>
-      <x:c r="G36" s="36"/>
+      <x:c r="B36" s="36"/>
+      <x:c r="C36" s="37"/>
+      <x:c r="D36" s="37"/>
+      <x:c r="E36" s="37"/>
+      <x:c r="F36" s="37"/>
+      <x:c r="G36" s="38"/>
       <x:c r="H36" s="8"/>
       <x:c r="I36" s="4"/>
       <x:c r="J36" s="4"/>
@@ -3604,12 +3655,12 @@
     </x:row>
     <x:row r="37" spans="1:26" ht="20" customHeight="1">
       <x:c r="A37" s="5"/>
-      <x:c r="B37" s="37"/>
-      <x:c r="C37" s="38"/>
-      <x:c r="D37" s="38"/>
-      <x:c r="E37" s="38"/>
-      <x:c r="F37" s="38"/>
-      <x:c r="G37" s="39"/>
+      <x:c r="B37" s="39"/>
+      <x:c r="C37" s="40"/>
+      <x:c r="D37" s="40"/>
+      <x:c r="E37" s="40"/>
+      <x:c r="F37" s="40"/>
+      <x:c r="G37" s="41"/>
       <x:c r="H37" s="8"/>
       <x:c r="I37" s="3"/>
       <x:c r="J37" s="3"/>
@@ -3632,22 +3683,22 @@
     </x:row>
     <x:row r="38" spans="1:26" ht="20" customHeight="1">
       <x:c r="A38" s="5"/>
-      <x:c r="B38" s="31" t="s">
-        <x:v>45</x:v>
+      <x:c r="B38" s="33" t="s">
+        <x:v>20</x:v>
       </x:c>
-      <x:c r="C38" s="7" t="s">
-        <x:v>42</x:v>
+      <x:c r="C38" s="30" t="s">
+        <x:v>15</x:v>
       </x:c>
-      <x:c r="D38" s="7" t="s">
-        <x:v>49</x:v>
+      <x:c r="D38" s="30" t="s">
+        <x:v>38</x:v>
       </x:c>
-      <x:c r="E38" s="7">
+      <x:c r="E38" s="30">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F38" s="7">
+      <x:c r="F38" s="30">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G38" s="31">
+      <x:c r="G38" s="33">
         <x:f>SUM(F38:F40)</x:f>
         <x:v>120</x:v>
       </x:c>
@@ -3673,16 +3724,16 @@
     </x:row>
     <x:row r="39" spans="1:26" ht="20" customHeight="1">
       <x:c r="A39" s="5"/>
-      <x:c r="B39" s="40"/>
+      <x:c r="B39" s="42"/>
       <x:c r="C39" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D39" s="7"/>
       <x:c r="E39" s="7"/>
       <x:c r="F39" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G39" s="40"/>
+      <x:c r="G39" s="42"/>
       <x:c r="H39" s="8"/>
       <x:c r="I39" s="4"/>
       <x:c r="J39" s="4"/>
@@ -3705,16 +3756,16 @@
     </x:row>
     <x:row r="40" spans="1:26" ht="20" customHeight="1">
       <x:c r="A40" s="5"/>
-      <x:c r="B40" s="33"/>
-      <x:c r="C40" s="7" t="s">
-        <x:v>62</x:v>
+      <x:c r="B40" s="35"/>
+      <x:c r="C40" s="30" t="s">
+        <x:v>50</x:v>
       </x:c>
-      <x:c r="D40" s="7"/>
-      <x:c r="E40" s="7"/>
-      <x:c r="F40" s="7">
+      <x:c r="D40" s="30"/>
+      <x:c r="E40" s="30"/>
+      <x:c r="F40" s="30">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G40" s="33"/>
+      <x:c r="G40" s="35"/>
       <x:c r="H40" s="8"/>
       <x:c r="I40" s="3"/>
       <x:c r="J40" s="3"/>
@@ -3737,12 +3788,12 @@
     </x:row>
     <x:row r="41" spans="1:26" ht="20" customHeight="1">
       <x:c r="A41" s="5"/>
-      <x:c r="B41" s="34"/>
-      <x:c r="C41" s="35"/>
-      <x:c r="D41" s="35"/>
-      <x:c r="E41" s="35"/>
-      <x:c r="F41" s="35"/>
-      <x:c r="G41" s="36"/>
+      <x:c r="B41" s="36"/>
+      <x:c r="C41" s="37"/>
+      <x:c r="D41" s="37"/>
+      <x:c r="E41" s="37"/>
+      <x:c r="F41" s="37"/>
+      <x:c r="G41" s="38"/>
       <x:c r="H41" s="8"/>
       <x:c r="I41" s="3"/>
       <x:c r="J41" s="4"/>
@@ -3765,12 +3816,12 @@
     </x:row>
     <x:row r="42" spans="1:26" ht="20" customHeight="1">
       <x:c r="A42" s="5"/>
-      <x:c r="B42" s="37"/>
-      <x:c r="C42" s="38"/>
-      <x:c r="D42" s="38"/>
-      <x:c r="E42" s="38"/>
-      <x:c r="F42" s="38"/>
-      <x:c r="G42" s="39"/>
+      <x:c r="B42" s="39"/>
+      <x:c r="C42" s="40"/>
+      <x:c r="D42" s="40"/>
+      <x:c r="E42" s="40"/>
+      <x:c r="F42" s="40"/>
+      <x:c r="G42" s="41"/>
       <x:c r="H42" s="8"/>
       <x:c r="J42" s="3"/>
       <x:c r="K42" s="3"/>
@@ -3792,14 +3843,14 @@
     </x:row>
     <x:row r="43" spans="1:26" ht="20" customHeight="1">
       <x:c r="A43" s="5"/>
-      <x:c r="B43" s="31" t="s">
-        <x:v>24</x:v>
+      <x:c r="B43" s="33" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C43" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D43" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E43" s="7">
         <x:v>2</x:v>
@@ -3807,7 +3858,7 @@
       <x:c r="F43" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G43" s="31">
+      <x:c r="G43" s="33">
         <x:f>SUM(F43:F44)</x:f>
         <x:v>48</x:v>
       </x:c>
@@ -3833,16 +3884,16 @@
     </x:row>
     <x:row r="44" spans="1:26" ht="20" customHeight="1">
       <x:c r="A44" s="5"/>
-      <x:c r="B44" s="33"/>
+      <x:c r="B44" s="35"/>
       <x:c r="C44" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D44" s="7"/>
       <x:c r="E44" s="7"/>
       <x:c r="F44" s="7">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G44" s="33"/>
+      <x:c r="G44" s="35"/>
       <x:c r="H44" s="8"/>
       <x:c r="I44" s="3"/>
       <x:c r="J44" s="3"/>
@@ -3865,12 +3916,12 @@
     </x:row>
     <x:row r="45" spans="1:26" ht="20" customHeight="1">
       <x:c r="A45" s="5"/>
-      <x:c r="B45" s="34"/>
-      <x:c r="C45" s="35"/>
-      <x:c r="D45" s="35"/>
-      <x:c r="E45" s="35"/>
-      <x:c r="F45" s="35"/>
-      <x:c r="G45" s="36"/>
+      <x:c r="B45" s="36"/>
+      <x:c r="C45" s="37"/>
+      <x:c r="D45" s="37"/>
+      <x:c r="E45" s="37"/>
+      <x:c r="F45" s="37"/>
+      <x:c r="G45" s="38"/>
       <x:c r="H45" s="8"/>
       <x:c r="I45" s="4"/>
       <x:c r="J45" s="4"/>
@@ -3893,12 +3944,12 @@
     </x:row>
     <x:row r="46" spans="1:26" ht="20" customHeight="1">
       <x:c r="A46" s="5"/>
-      <x:c r="B46" s="41"/>
-      <x:c r="C46" s="42"/>
-      <x:c r="D46" s="42"/>
-      <x:c r="E46" s="42"/>
-      <x:c r="F46" s="42"/>
-      <x:c r="G46" s="43"/>
+      <x:c r="B46" s="43"/>
+      <x:c r="C46" s="44"/>
+      <x:c r="D46" s="44"/>
+      <x:c r="E46" s="44"/>
+      <x:c r="F46" s="44"/>
+      <x:c r="G46" s="45"/>
       <x:c r="H46" s="6"/>
       <x:c r="I46" s="3"/>
       <x:c r="J46" s="3"/>
@@ -3921,14 +3972,14 @@
     </x:row>
     <x:row r="47" spans="1:26" ht="20" customHeight="1">
       <x:c r="A47" s="5"/>
-      <x:c r="B47" s="52" t="s">
-        <x:v>30</x:v>
+      <x:c r="B47" s="54" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C47" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D47" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E47" s="13">
         <x:v>1</x:v>
@@ -3936,7 +3987,7 @@
       <x:c r="F47" s="14">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G47" s="54">
+      <x:c r="G47" s="56">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H47" s="6"/>
@@ -3961,16 +4012,16 @@
     </x:row>
     <x:row r="48" spans="1:26" ht="20" customHeight="1">
       <x:c r="A48" s="5"/>
-      <x:c r="B48" s="53"/>
+      <x:c r="B48" s="55"/>
       <x:c r="C48" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D48" s="15"/>
       <x:c r="E48" s="15"/>
       <x:c r="F48" s="16">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G48" s="55"/>
+      <x:c r="G48" s="57"/>
       <x:c r="H48" s="6"/>
       <x:c r="I48" s="3"/>
       <x:c r="J48" s="3"/>
@@ -3993,12 +4044,12 @@
     </x:row>
     <x:row r="49" spans="1:26" ht="25" customHeight="1">
       <x:c r="A49" s="5"/>
-      <x:c r="B49" s="56"/>
-      <x:c r="C49" s="56"/>
-      <x:c r="D49" s="56"/>
-      <x:c r="E49" s="56"/>
-      <x:c r="F49" s="56"/>
-      <x:c r="G49" s="56"/>
+      <x:c r="B49" s="58"/>
+      <x:c r="C49" s="58"/>
+      <x:c r="D49" s="58"/>
+      <x:c r="E49" s="58"/>
+      <x:c r="F49" s="58"/>
+      <x:c r="G49" s="58"/>
       <x:c r="H49" s="6"/>
       <x:c r="I49" s="3"/>
       <x:c r="J49" s="3"/>
@@ -4021,12 +4072,12 @@
     </x:row>
     <x:row r="50" spans="1:26" ht="23.5">
       <x:c r="A50" s="6"/>
-      <x:c r="B50" s="57"/>
-      <x:c r="C50" s="57"/>
-      <x:c r="D50" s="57"/>
-      <x:c r="E50" s="57"/>
-      <x:c r="F50" s="57"/>
-      <x:c r="G50" s="57"/>
+      <x:c r="B50" s="59"/>
+      <x:c r="C50" s="59"/>
+      <x:c r="D50" s="59"/>
+      <x:c r="E50" s="59"/>
+      <x:c r="F50" s="59"/>
+      <x:c r="G50" s="59"/>
       <x:c r="H50" s="6"/>
       <x:c r="I50" s="3"/>
       <x:c r="J50" s="3"/>
@@ -4049,18 +4100,18 @@
     </x:row>
     <x:row r="51" spans="1:26" ht="23.5">
       <x:c r="A51" s="6"/>
-      <x:c r="B51" s="31" t="s">
-        <x:v>8</x:v>
+      <x:c r="B51" s="33" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C51" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D51" s="7"/>
       <x:c r="E51" s="7"/>
       <x:c r="F51" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G51" s="31">
+      <x:c r="G51" s="33">
         <x:f>SUM(F51:F52)</x:f>
         <x:v>76</x:v>
       </x:c>
@@ -4085,16 +4136,16 @@
       <x:c r="Z51" s="3"/>
     </x:row>
     <x:row r="52" spans="2:26" ht="23.5">
-      <x:c r="B52" s="31"/>
+      <x:c r="B52" s="33"/>
       <x:c r="C52" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D52" s="7"/>
       <x:c r="E52" s="7"/>
       <x:c r="F52" s="7">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G52" s="31"/>
+      <x:c r="G52" s="33"/>
       <x:c r="H52" s="8"/>
       <x:c r="I52" s="3"/>
       <x:c r="J52" s="3"/>
@@ -4121,7 +4172,7 @@
       <x:c r="D53" s="6"/>
       <x:c r="E53" s="6"/>
       <x:c r="F53" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G53" s="7">
         <x:f>SUM(G3:G48)</x:f>

--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -19,22 +19,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <x:si>
-    <x:r>
-      <x:t>2(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
-    </x:r>
+    <x:t>여덟번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>4/4 ~ 4/15(90시간)</x:t>
+    <x:t>웹 서버로 사진 전송</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정확도 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 목록 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인/회원가입(16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 TTS 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정보 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 STT 연동(35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 설계(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기상청 API 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 데이터셋 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprint Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필립스 휴  API 연동</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -50,61 +82,71 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>aws(20)</x:t>
+    <x:t xml:space="preserve">서버 </x:t>
   </x:si>
   <x:si>
-    <x:t>구글 STT 연동</x:t>
+    <x:t>방학</x:t>
   </x:si>
   <x:si>
-    <x:t>기상청 API 연동</x:t>
+    <x:t>개강</x:t>
   </x:si>
   <x:si>
-    <x:t>세번째 스프린트</x:t>
+    <x:t>합계</x:t>
   </x:si>
   <x:si>
-    <x:t>클라우드 플랫폼</x:t>
+    <x:t>aws</x:t>
   </x:si>
   <x:si>
-    <x:t>사진과 동작 매치</x:t>
+    <x:t>웹 서버로 사진 전송(40)</x:t>
   </x:si>
   <x:si>
-    <x:t>모션인식 모델 구동</x:t>
+    <x:t>5/2 ~ 5/13(94시간)</x:t>
   </x:si>
   <x:si>
-    <x:t>재활 프로그램 관리</x:t>
+    <x:t>모션 명령 실행(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>첫번째 스프린트</x:t>
+    <x:r>
+      <x:t>2(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>웹 서버와 연동</x:t>
+    <x:t>모션인식 모델 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정보 관리</x:t>
+    <x:t>데이터베이스  설계</x:t>
   </x:si>
   <x:si>
-    <x:t>음성과 단어 매치</x:t>
+    <x:t>여섯번쨰 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>매칭률 점수 계산</x:t>
+    <x:t>일곱번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입</x:t>
+    <x:t>네번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 TTS 연동</x:t>
+    <x:t>Story Point</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 관리</x:t>
+    <x:t>모션 명령 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>두번째 스프린트</x:t>
+    <x:t>서버 구축(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>운동 재활 프로그램</x:t>
+    <x:t>다섯번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>User Story</x:t>
+    <x:t>앱 디자인 구성</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -141,92 +183,78 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>서버 구축(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션인식 모델 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일곱번째 스프린트</x:t>
-  </x:si>
-  <x:si>
     <x:t>언어 재활 프로그램</x:t>
   </x:si>
   <x:si>
-    <x:t>앱 디자인 구성</x:t>
+    <x:t>세번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>다섯번째 스프린트</x:t>
+    <x:t>구글 STT 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 명령 실행</x:t>
+    <x:t>클라우드 플랫폼</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터베이스  설계</x:t>
+    <x:t>사진과 동작 매치</x:t>
   </x:si>
   <x:si>
-    <x:t>Story Point</x:t>
+    <x:t>기상청 API 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버로 영상 전송</x:t>
+    <x:t>모션 인식 정보 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>네번째 스프린트</x:t>
+    <x:t>User Story</x:t>
   </x:si>
   <x:si>
-    <x:t>여섯번쨰 스프린트</x:t>
+    <x:t>음성과 단어 매치</x:t>
   </x:si>
   <x:si>
-    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+    <x:t>모션인식 모델 구동</x:t>
   </x:si>
   <x:si>
-    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
+    <x:t>연결된 기기 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
+    <x:t>매칭률 점수 계산</x:t>
   </x:si>
   <x:si>
-    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
+    <x:t>첫번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+    <x:t>웹 서버와 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
+    <x:t>로그인/회원가입</x:t>
   </x:si>
   <x:si>
-    <x:t>방학</x:t>
+    <x:t>두번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">서버 </x:t>
+    <x:t>운동 재활 프로그램</x:t>
   </x:si>
   <x:si>
-    <x:t>합계</x:t>
+    <x:t>재활 프로그램 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>aws</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개강</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/10 ~ 1/21 (150시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스와 서버 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계(24) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/7 ~ 3/18(115시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
+    <x:t>구글 TTS 연동</x:t>
   </x:si>
   <x:si>
     <x:r>
       <x:t>2/21 ~ 3/4(105</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2/7 ~ 2/18 (150</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -244,53 +272,55 @@
     <x:t>매칭률 점수 데이터베이스에 저장</x:t>
   </x:si>
   <x:si>
+    <x:t>디바이스들을 연결/해제할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액티비티 설계(24) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/10 ~ 1/21 (150시간)</x:t>
+  </x:si>
+  <x:si>
     <x:t>모션 연구(36) - Done</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>2/7 ~ 2/18 (150</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)</x:t>
-    </x:r>
+    <x:t>3/7 ~ 3/18(115시간)</x:t>
   </x:si>
   <x:si>
-    <x:t>디바이스들을 연결/해제할 수 있다</x:t>
+    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스와 서버 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/4 ~ 4/15(90시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aws(20)</x:t>
   </x:si>
   <x:si>
     <x:t>명령어 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>디바이스 관리</x:t>
-  </x:si>
-  <x:si>
     <x:t>주 5일 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 구축</x:t>
+    <x:t>모션 연구</x:t>
   </x:si>
   <x:si>
     <x:t>UI 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>앱과 연동</x:t>
+    <x:t>디바이스 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 연구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계</x:t>
+    <x:t>앱과 연동</x:t>
   </x:si>
   <x:si>
     <x:t>데이터베이스</x:t>
   </x:si>
   <x:si>
-    <x:t>기기 해제</x:t>
+    <x:t>액티비티 설계</x:t>
   </x:si>
   <x:si>
     <x:t>추가 기능</x:t>
@@ -299,64 +329,43 @@
     <x:t>명령어 커스텀</x:t>
   </x:si>
   <x:si>
-    <x:t>기기 연결</x:t>
+    <x:t>기기 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 구축</x:t>
   </x:si>
   <x:si>
     <x:t>서버 설계</x:t>
   </x:si>
   <x:si>
+    <x:t>기기 연결</x:t>
+  </x:si>
+  <x:si>
     <x:t>docker</x:t>
   </x:si>
   <x:si>
-    <x:t>Product Backlog</x:t>
+    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정보 관리(30)</x:t>
+    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입(16)</x:t>
+    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 STT 연동(35)</x:t>
+    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정확도 개선</x:t>
+    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 목록 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 TTS 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 데이터셋 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필립스 휴  API 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기상청 API 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재활 프로그램 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprint Backlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 기기 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 설계(24)</x:t>
+    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
   </x:si>
   <x:si>
     <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
   </x:si>
   <x:si>
     <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필립스 휴 API 연동(36) - Done</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -425,7 +434,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
+    <x:t>Estimate Time (단위: 시간)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -494,6 +503,59 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(10) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:t>1/24 ~ 2/4 (105</x:t>
     </x:r>
@@ -505,18 +567,6 @@
       </x:rPr>
       <x:t>시간)(설)</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Estimate Time (단위: 시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -569,57 +619,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(10) - Done</x:t>
-    </x:r>
+    <x:t>언어 재활 - 음성과 단어 매치(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>언어 재활 - 음성과 단어 매치(50)</x:t>
+    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필립스 휴 API 연동(36) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱과 연동(24)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1083,7 +1098,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="61">
+  <x:cellXfs count="65">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1423,6 +1438,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1770,6 +1798,45 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2393,8 +2460,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z1009"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I48" activeCellId="0" sqref="I48:I48"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K39" activeCellId="0" sqref="K39:K39"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2406,8 +2473,8 @@
     <x:col min="5" max="5" width="24.81640625" style="2" customWidth="1"/>
     <x:col min="6" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="57.90625" style="2" customWidth="1"/>
-    <x:col min="11" max="11" width="59" style="2" customWidth="1"/>
-    <x:col min="12" max="12" width="48.81640625" style="2" customWidth="1"/>
+    <x:col min="11" max="11" width="66.91015625" style="2" customWidth="1"/>
+    <x:col min="12" max="12" width="68.91015625" style="2" customWidth="1"/>
     <x:col min="13" max="13" width="39.81640625" style="2" customWidth="1"/>
     <x:col min="14" max="14" width="34.36328125" style="2" customWidth="1"/>
   </x:cols>
@@ -2443,21 +2510,21 @@
     <x:row r="2" spans="1:26" ht="20" customHeight="1">
       <x:c r="A2" s="5"/>
       <x:c r="B2" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F2" s="31" t="s">
-        <x:v>94</x:v>
+      <x:c r="F2" s="32" t="s">
+        <x:v>93</x:v>
       </x:c>
-      <x:c r="G2" s="32"/>
+      <x:c r="G2" s="33"/>
       <x:c r="H2" s="8"/>
       <x:c r="I2" s="3"/>
       <x:c r="J2" s="3"/>
@@ -2480,14 +2547,14 @@
     </x:row>
     <x:row r="3" spans="1:26" ht="20" customHeight="1">
       <x:c r="A3" s="5"/>
-      <x:c r="B3" s="33" t="s">
-        <x:v>65</x:v>
+      <x:c r="B3" s="34" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>96</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E3" s="9">
         <x:v>20</x:v>
@@ -2495,7 +2562,7 @@
       <x:c r="F3" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G3" s="33">
+      <x:c r="G3" s="34">
         <x:f>SUM(F3:F8)</x:f>
         <x:v>166</x:v>
       </x:c>
@@ -2521,16 +2588,16 @@
     </x:row>
     <x:row r="4" spans="1:26" ht="20" customHeight="1">
       <x:c r="A4" s="5"/>
-      <x:c r="B4" s="34"/>
+      <x:c r="B4" s="35"/>
       <x:c r="C4" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="9"/>
       <x:c r="F4" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G4" s="34"/>
+      <x:c r="G4" s="35"/>
       <x:c r="H4" s="8"/>
       <x:c r="I4" s="3"/>
       <x:c r="J4" s="3"/>
@@ -2553,16 +2620,16 @@
     </x:row>
     <x:row r="5" spans="1:26" ht="20" customHeight="1">
       <x:c r="A5" s="5"/>
-      <x:c r="B5" s="34"/>
+      <x:c r="B5" s="35"/>
       <x:c r="C5" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D5" s="12"/>
       <x:c r="E5" s="12"/>
       <x:c r="F5" s="12">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G5" s="34"/>
+      <x:c r="G5" s="35"/>
       <x:c r="H5" s="8"/>
       <x:c r="I5" s="3"/>
       <x:c r="J5" s="3"/>
@@ -2584,20 +2651,20 @@
     </x:row>
     <x:row r="6" spans="1:26" ht="20" customHeight="1">
       <x:c r="A6" s="5"/>
-      <x:c r="B6" s="34"/>
+      <x:c r="B6" s="35"/>
       <x:c r="C6" s="28" t="s">
-        <x:v>18</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D6" s="28"/>
       <x:c r="E6" s="28"/>
       <x:c r="F6" s="28">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="34"/>
+      <x:c r="G6" s="35"/>
       <x:c r="H6" s="8"/>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K6" s="3"/>
       <x:c r="L6" s="3"/>
@@ -2617,22 +2684,22 @@
     </x:row>
     <x:row r="7" spans="1:26" ht="20" customHeight="1">
       <x:c r="A7" s="5"/>
-      <x:c r="B7" s="34"/>
+      <x:c r="B7" s="35"/>
       <x:c r="C7" s="30" t="s">
-        <x:v>13</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D7" s="30"/>
       <x:c r="E7" s="30"/>
       <x:c r="F7" s="30">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G7" s="34"/>
+      <x:c r="G7" s="35"/>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J7" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K7" s="3"/>
       <x:c r="L7" s="3"/>
@@ -2652,22 +2719,22 @@
     </x:row>
     <x:row r="8" spans="1:26" ht="20" customHeight="1">
       <x:c r="A8" s="5"/>
-      <x:c r="B8" s="35"/>
+      <x:c r="B8" s="36"/>
       <x:c r="C8" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="9"/>
       <x:c r="E8" s="9"/>
       <x:c r="F8" s="9">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G8" s="35"/>
+      <x:c r="G8" s="36"/>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J8" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K8" s="3"/>
       <x:c r="L8" s="3"/>
@@ -2687,12 +2754,12 @@
     </x:row>
     <x:row r="9" spans="1:26" ht="20" customHeight="1">
       <x:c r="A9" s="5"/>
-      <x:c r="B9" s="36"/>
-      <x:c r="C9" s="37"/>
-      <x:c r="D9" s="37"/>
-      <x:c r="E9" s="37"/>
-      <x:c r="F9" s="37"/>
-      <x:c r="G9" s="38"/>
+      <x:c r="B9" s="37"/>
+      <x:c r="C9" s="38"/>
+      <x:c r="D9" s="38"/>
+      <x:c r="E9" s="38"/>
+      <x:c r="F9" s="38"/>
+      <x:c r="G9" s="39"/>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="6"/>
@@ -2714,25 +2781,25 @@
     </x:row>
     <x:row r="10" spans="1:26" ht="20" customHeight="1">
       <x:c r="A10" s="5"/>
-      <x:c r="B10" s="39"/>
-      <x:c r="C10" s="40"/>
-      <x:c r="D10" s="40"/>
-      <x:c r="E10" s="40"/>
-      <x:c r="F10" s="40"/>
-      <x:c r="G10" s="41"/>
+      <x:c r="B10" s="40"/>
+      <x:c r="C10" s="41"/>
+      <x:c r="D10" s="41"/>
+      <x:c r="E10" s="41"/>
+      <x:c r="F10" s="41"/>
+      <x:c r="G10" s="42"/>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K10" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L10" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M10" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N10" s="22"/>
       <x:c r="O10" s="3"/>
@@ -2750,38 +2817,38 @@
     </x:row>
     <x:row r="11" spans="1:26" ht="20" customHeight="1">
       <x:c r="A11" s="5"/>
-      <x:c r="B11" s="33" t="s">
-        <x:v>42</x:v>
+      <x:c r="B11" s="34" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E11" s="7">
         <x:v>40</x:v>
       </x:c>
       <x:c r="F11" s="7">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
-      <x:c r="G11" s="33">
+      <x:c r="G11" s="34">
         <x:f>SUM(F11:F14)</x:f>
-        <x:v>126</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H11" s="8"/>
       <x:c r="I11" s="3"/>
       <x:c r="J11" s="18" t="s">
-        <x:v>46</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K11" s="18" t="s">
-        <x:v>92</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L11" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M11" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N11" s="23"/>
       <x:c r="O11" s="3"/>
@@ -2799,29 +2866,29 @@
     </x:row>
     <x:row r="12" spans="1:26" ht="20" customHeight="1">
       <x:c r="A12" s="5"/>
-      <x:c r="B12" s="34"/>
+      <x:c r="B12" s="35"/>
       <x:c r="C12" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="7"/>
       <x:c r="E12" s="7"/>
       <x:c r="F12" s="7">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
-      <x:c r="G12" s="34"/>
+      <x:c r="G12" s="35"/>
       <x:c r="H12" s="8"/>
       <x:c r="I12" s="3"/>
       <x:c r="J12" s="18" t="s">
-        <x:v>54</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K12" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L12" s="18" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M12" s="18" t="s">
-        <x:v>81</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N12" s="24"/>
       <x:c r="O12" s="3"/>
@@ -2839,29 +2906,29 @@
     </x:row>
     <x:row r="13" spans="1:26" ht="20" customHeight="1">
       <x:c r="A13" s="5"/>
-      <x:c r="B13" s="34"/>
+      <x:c r="B13" s="35"/>
       <x:c r="C13" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D13" s="9"/>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="34"/>
+      <x:c r="G13" s="35"/>
       <x:c r="H13" s="8"/>
       <x:c r="I13" s="3"/>
       <x:c r="J13" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K13" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L13" s="18" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M13" s="18" t="s">
-        <x:v>78</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N13" s="23"/>
       <x:c r="O13" s="3"/>
@@ -2879,29 +2946,29 @@
     </x:row>
     <x:row r="14" spans="1:26" ht="20" customHeight="1">
       <x:c r="A14" s="5"/>
-      <x:c r="B14" s="35"/>
+      <x:c r="B14" s="36"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D14" s="9"/>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="35"/>
+      <x:c r="G14" s="36"/>
       <x:c r="H14" s="8"/>
       <x:c r="I14" s="3"/>
       <x:c r="J14" s="18" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K14" s="18" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L14" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M14" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N14" s="25"/>
       <x:c r="O14" s="3"/>
@@ -2919,20 +2986,20 @@
     </x:row>
     <x:row r="15" spans="1:26" ht="20" customHeight="1">
       <x:c r="A15" s="5"/>
-      <x:c r="B15" s="36"/>
-      <x:c r="C15" s="37"/>
-      <x:c r="D15" s="37"/>
-      <x:c r="E15" s="37"/>
-      <x:c r="F15" s="37"/>
-      <x:c r="G15" s="38"/>
+      <x:c r="B15" s="37"/>
+      <x:c r="C15" s="38"/>
+      <x:c r="D15" s="38"/>
+      <x:c r="E15" s="38"/>
+      <x:c r="F15" s="38"/>
+      <x:c r="G15" s="39"/>
       <x:c r="H15" s="8"/>
       <x:c r="I15" s="3"/>
       <x:c r="J15" s="18" t="s">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K15" s="20"/>
       <x:c r="L15" s="18" t="s">
-        <x:v>85</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M15" s="20"/>
       <x:c r="O15" s="3"/>
@@ -2950,20 +3017,20 @@
     </x:row>
     <x:row r="16" spans="1:26" ht="20" customHeight="1">
       <x:c r="A16" s="5"/>
-      <x:c r="B16" s="39"/>
-      <x:c r="C16" s="40"/>
-      <x:c r="D16" s="40"/>
-      <x:c r="E16" s="40"/>
-      <x:c r="F16" s="40"/>
-      <x:c r="G16" s="41"/>
+      <x:c r="B16" s="40"/>
+      <x:c r="C16" s="41"/>
+      <x:c r="D16" s="41"/>
+      <x:c r="E16" s="41"/>
+      <x:c r="F16" s="41"/>
+      <x:c r="G16" s="42"/>
       <x:c r="H16" s="8"/>
       <x:c r="I16" s="3"/>
       <x:c r="J16" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K16" s="21"/>
       <x:c r="L16" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M16" s="21"/>
       <x:c r="O16" s="3"/>
@@ -2981,14 +3048,14 @@
     </x:row>
     <x:row r="17" spans="1:26" ht="20" customHeight="1">
       <x:c r="A17" s="5"/>
-      <x:c r="B17" s="33" t="s">
-        <x:v>57</x:v>
+      <x:c r="B17" s="34" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E17" s="7">
         <x:v>100</x:v>
@@ -2996,16 +3063,16 @@
       <x:c r="F17" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="33">
+      <x:c r="G17" s="34">
         <x:f>SUM(F17:F25)</x:f>
-        <x:v>349</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H17" s="8"/>
       <x:c r="I17" s="3"/>
-      <x:c r="J17" s="59"/>
-      <x:c r="K17" s="59"/>
-      <x:c r="L17" s="59"/>
-      <x:c r="M17" s="59"/>
+      <x:c r="J17" s="60"/>
+      <x:c r="K17" s="60"/>
+      <x:c r="L17" s="60"/>
+      <x:c r="M17" s="60"/>
       <x:c r="N17" s="3"/>
       <x:c r="O17" s="3"/>
       <x:c r="P17" s="3"/>
@@ -3022,22 +3089,22 @@
     </x:row>
     <x:row r="18" spans="1:26" ht="20" customHeight="1">
       <x:c r="A18" s="5"/>
-      <x:c r="B18" s="42"/>
+      <x:c r="B18" s="43"/>
       <x:c r="C18" s="9" t="s">
-        <x:v>79</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="7"/>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G18" s="34"/>
+      <x:c r="G18" s="35"/>
       <x:c r="H18" s="8"/>
       <x:c r="I18" s="3"/>
-      <x:c r="J18" s="59"/>
-      <x:c r="K18" s="59"/>
-      <x:c r="L18" s="59"/>
-      <x:c r="M18" s="59"/>
+      <x:c r="J18" s="60"/>
+      <x:c r="K18" s="60"/>
+      <x:c r="L18" s="60"/>
+      <x:c r="M18" s="60"/>
       <x:c r="N18" s="3"/>
       <x:c r="O18" s="3"/>
       <x:c r="P18" s="3"/>
@@ -3054,28 +3121,30 @@
     </x:row>
     <x:row r="19" spans="1:26" ht="20" customHeight="1">
       <x:c r="A19" s="5"/>
-      <x:c r="B19" s="42"/>
+      <x:c r="B19" s="43"/>
       <x:c r="C19" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D19" s="7"/>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="9">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G19" s="34"/>
+      <x:c r="G19" s="35"/>
       <x:c r="H19" s="8"/>
       <x:c r="I19" s="3"/>
       <x:c r="J19" s="26" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K19" s="29" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K19" s="29" t="s">
-        <x:v>34</x:v>
+      <x:c r="L19" s="31" t="s">
+        <x:v>29</x:v>
       </x:c>
-      <x:c r="L19" s="60" t="s">
-        <x:v>25</x:v>
+      <x:c r="M19" s="64" t="s">
+        <x:v>0</x:v>
       </x:c>
-      <x:c r="M19" s="3"/>
       <x:c r="N19" s="3"/>
       <x:c r="O19" s="3"/>
       <x:c r="P19" s="3"/>
@@ -3092,28 +3161,30 @@
     </x:row>
     <x:row r="20" spans="1:26" ht="20" customHeight="1">
       <x:c r="A20" s="5"/>
-      <x:c r="B20" s="42"/>
+      <x:c r="B20" s="43"/>
       <x:c r="C20" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D20" s="7"/>
       <x:c r="E20" s="7"/>
       <x:c r="F20" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G20" s="34"/>
+      <x:c r="G20" s="35"/>
       <x:c r="H20" s="8"/>
       <x:c r="I20" s="3"/>
       <x:c r="J20" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L20" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>67</x:v>
       </x:c>
-      <x:c r="M20" s="3"/>
+      <x:c r="M20" s="6" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="N20" s="3"/>
       <x:c r="O20" s="3"/>
       <x:c r="P20" s="3"/>
@@ -3130,28 +3201,30 @@
     </x:row>
     <x:row r="21" spans="1:26" ht="20" customHeight="1">
       <x:c r="A21" s="5"/>
-      <x:c r="B21" s="42"/>
+      <x:c r="B21" s="43"/>
       <x:c r="C21" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D21" s="7"/>
       <x:c r="E21" s="7"/>
       <x:c r="F21" s="7">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G21" s="34"/>
+      <x:c r="G21" s="35"/>
       <x:c r="H21" s="8"/>
       <x:c r="I21" s="3"/>
       <x:c r="J21" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K21" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L21" s="6" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="M21" s="3"/>
+      <x:c r="M21" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="N21" s="3"/>
       <x:c r="O21" s="3"/>
       <x:c r="P21" s="3"/>
@@ -3168,28 +3241,30 @@
     </x:row>
     <x:row r="22" spans="1:26" ht="20" customHeight="1">
       <x:c r="A22" s="5"/>
-      <x:c r="B22" s="42"/>
+      <x:c r="B22" s="43"/>
       <x:c r="C22" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D22" s="12"/>
       <x:c r="E22" s="12"/>
       <x:c r="F22" s="12">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G22" s="34"/>
+      <x:c r="G22" s="35"/>
       <x:c r="H22" s="8"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="6" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="K22" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L22" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>85</x:v>
       </x:c>
-      <x:c r="M22" s="4"/>
+      <x:c r="M22" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="N22" s="4"/>
       <x:c r="O22" s="4"/>
       <x:c r="P22" s="4"/>
@@ -3206,28 +3281,30 @@
     </x:row>
     <x:row r="23" spans="1:26" ht="20" customHeight="1">
       <x:c r="A23" s="5"/>
-      <x:c r="B23" s="42"/>
+      <x:c r="B23" s="43"/>
       <x:c r="C23" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D23" s="12"/>
       <x:c r="E23" s="12"/>
       <x:c r="F23" s="12">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G23" s="34"/>
+      <x:c r="G23" s="35"/>
       <x:c r="H23" s="8"/>
       <x:c r="I23" s="4"/>
       <x:c r="J23" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K23" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L23" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>68</x:v>
       </x:c>
-      <x:c r="M23" s="4"/>
+      <x:c r="M23" s="6" t="s">
+        <x:v>104</x:v>
+      </x:c>
       <x:c r="N23" s="4"/>
       <x:c r="O23" s="4"/>
       <x:c r="P23" s="4"/>
@@ -3244,22 +3321,22 @@
     </x:row>
     <x:row r="24" spans="1:26" s="1" customFormat="1" ht="20" customHeight="1">
       <x:c r="A24" s="5"/>
-      <x:c r="B24" s="33"/>
+      <x:c r="B24" s="34"/>
       <x:c r="C24" s="27" t="s">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D24" s="28"/>
       <x:c r="E24" s="28"/>
       <x:c r="F24" s="28">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G24" s="33"/>
+      <x:c r="G24" s="34"/>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="3"/>
       <x:c r="J24" s="3"/>
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="3"/>
-      <x:c r="M24" s="3"/>
+      <x:c r="M24" s="6"/>
       <x:c r="N24" s="3"/>
       <x:c r="O24" s="3"/>
       <x:c r="P24" s="3"/>
@@ -3276,22 +3353,22 @@
     </x:row>
     <x:row r="25" spans="1:26" ht="20" customHeight="1">
       <x:c r="A25" s="5"/>
-      <x:c r="B25" s="52"/>
+      <x:c r="B25" s="53"/>
       <x:c r="C25" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D25" s="7"/>
       <x:c r="E25" s="7"/>
       <x:c r="F25" s="7">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
-      <x:c r="G25" s="35"/>
+      <x:c r="G25" s="36"/>
       <x:c r="H25" s="8"/>
       <x:c r="I25" s="3"/>
       <x:c r="J25" s="3"/>
       <x:c r="K25" s="3"/>
       <x:c r="L25" s="3"/>
-      <x:c r="M25" s="3"/>
+      <x:c r="M25" s="6"/>
       <x:c r="N25" s="3"/>
       <x:c r="O25" s="3"/>
       <x:c r="P25" s="3"/>
@@ -3308,12 +3385,12 @@
     </x:row>
     <x:row r="26" spans="1:26" ht="20" customHeight="1">
       <x:c r="A26" s="5"/>
-      <x:c r="B26" s="43"/>
-      <x:c r="C26" s="44"/>
-      <x:c r="D26" s="44"/>
-      <x:c r="E26" s="44"/>
-      <x:c r="F26" s="44"/>
-      <x:c r="G26" s="45"/>
+      <x:c r="B26" s="44"/>
+      <x:c r="C26" s="45"/>
+      <x:c r="D26" s="45"/>
+      <x:c r="E26" s="45"/>
+      <x:c r="F26" s="45"/>
+      <x:c r="G26" s="46"/>
       <x:c r="H26" s="8"/>
       <x:c r="I26" s="4"/>
       <x:c r="J26" s="4"/>
@@ -3336,12 +3413,12 @@
     </x:row>
     <x:row r="27" spans="1:26" ht="20" customHeight="1">
       <x:c r="A27" s="5"/>
-      <x:c r="B27" s="39"/>
-      <x:c r="C27" s="40"/>
-      <x:c r="D27" s="40"/>
-      <x:c r="E27" s="40"/>
-      <x:c r="F27" s="40"/>
-      <x:c r="G27" s="41"/>
+      <x:c r="B27" s="40"/>
+      <x:c r="C27" s="41"/>
+      <x:c r="D27" s="41"/>
+      <x:c r="E27" s="41"/>
+      <x:c r="F27" s="41"/>
+      <x:c r="G27" s="42"/>
       <x:c r="H27" s="8"/>
       <x:c r="I27" s="3"/>
       <x:c r="J27" s="3"/>
@@ -3364,14 +3441,14 @@
     </x:row>
     <x:row r="28" spans="1:26" ht="20" customHeight="1">
       <x:c r="A28" s="5"/>
-      <x:c r="B28" s="42" t="s">
-        <x:v>58</x:v>
+      <x:c r="B28" s="43" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C28" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E28" s="7">
         <x:v>5</x:v>
@@ -3379,7 +3456,7 @@
       <x:c r="F28" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G28" s="33">
+      <x:c r="G28" s="34">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H28" s="8"/>
@@ -3404,16 +3481,16 @@
     </x:row>
     <x:row r="29" spans="1:26" ht="20" customHeight="1">
       <x:c r="A29" s="5"/>
-      <x:c r="B29" s="42"/>
+      <x:c r="B29" s="43"/>
       <x:c r="C29" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
       <x:c r="E29" s="7"/>
       <x:c r="F29" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G29" s="42"/>
+      <x:c r="G29" s="43"/>
       <x:c r="H29" s="8"/>
       <x:c r="I29" s="3"/>
       <x:c r="J29" s="3"/>
@@ -3436,16 +3513,16 @@
     </x:row>
     <x:row r="30" spans="1:26" ht="20" customHeight="1">
       <x:c r="A30" s="5"/>
-      <x:c r="B30" s="53"/>
+      <x:c r="B30" s="54"/>
       <x:c r="C30" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D30" s="7"/>
       <x:c r="E30" s="7"/>
       <x:c r="F30" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G30" s="53"/>
+      <x:c r="G30" s="54"/>
       <x:c r="H30" s="8"/>
       <x:c r="I30" s="3"/>
       <x:c r="J30" s="3"/>
@@ -3468,12 +3545,12 @@
     </x:row>
     <x:row r="31" spans="1:26" ht="20" customHeight="1">
       <x:c r="A31" s="5"/>
-      <x:c r="B31" s="46"/>
-      <x:c r="C31" s="47"/>
-      <x:c r="D31" s="47"/>
-      <x:c r="E31" s="47"/>
-      <x:c r="F31" s="47"/>
-      <x:c r="G31" s="48"/>
+      <x:c r="B31" s="47"/>
+      <x:c r="C31" s="48"/>
+      <x:c r="D31" s="48"/>
+      <x:c r="E31" s="48"/>
+      <x:c r="F31" s="48"/>
+      <x:c r="G31" s="49"/>
       <x:c r="H31" s="8"/>
       <x:c r="I31" s="4"/>
       <x:c r="J31" s="4"/>
@@ -3496,12 +3573,12 @@
     </x:row>
     <x:row r="32" spans="1:26" ht="20" customHeight="1">
       <x:c r="A32" s="5"/>
-      <x:c r="B32" s="49"/>
-      <x:c r="C32" s="50"/>
-      <x:c r="D32" s="50"/>
-      <x:c r="E32" s="50"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="51"/>
+      <x:c r="B32" s="50"/>
+      <x:c r="C32" s="51"/>
+      <x:c r="D32" s="51"/>
+      <x:c r="E32" s="51"/>
+      <x:c r="F32" s="51"/>
+      <x:c r="G32" s="52"/>
       <x:c r="H32" s="8"/>
       <x:c r="I32" s="3"/>
       <x:c r="J32" s="3"/>
@@ -3524,20 +3601,20 @@
     </x:row>
     <x:row r="33" spans="1:26" ht="20" customHeight="1">
       <x:c r="A33" s="5"/>
-      <x:c r="B33" s="33" t="s">
-        <x:v>26</x:v>
+      <x:c r="B33" s="34" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C33" s="28" t="s">
-        <x:v>15</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="28" t="s">
-        <x:v>40</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E33" s="28"/>
       <x:c r="F33" s="28">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G33" s="33">
+      <x:c r="G33" s="34">
         <x:f>SUM(F33:F35)</x:f>
         <x:v>120</x:v>
       </x:c>
@@ -3563,16 +3640,16 @@
     </x:row>
     <x:row r="34" spans="1:26" ht="20" customHeight="1">
       <x:c r="A34" s="5"/>
-      <x:c r="B34" s="34"/>
-      <x:c r="C34" s="7" t="s">
-        <x:v>14</x:v>
+      <x:c r="B34" s="35"/>
+      <x:c r="C34" s="63" t="s">
+        <x:v>45</x:v>
       </x:c>
-      <x:c r="D34" s="7"/>
-      <x:c r="E34" s="7"/>
-      <x:c r="F34" s="7">
+      <x:c r="D34" s="63"/>
+      <x:c r="E34" s="63"/>
+      <x:c r="F34" s="63">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G34" s="34"/>
+      <x:c r="G34" s="35"/>
       <x:c r="H34" s="8"/>
       <x:c r="I34" s="3"/>
       <x:c r="J34" s="3"/>
@@ -3595,16 +3672,16 @@
     </x:row>
     <x:row r="35" spans="1:26" ht="20" customHeight="1">
       <x:c r="A35" s="5"/>
-      <x:c r="B35" s="35"/>
-      <x:c r="C35" s="7" t="s">
-        <x:v>53</x:v>
+      <x:c r="B35" s="36"/>
+      <x:c r="C35" s="63" t="s">
+        <x:v>59</x:v>
       </x:c>
-      <x:c r="D35" s="7"/>
-      <x:c r="E35" s="7"/>
-      <x:c r="F35" s="7">
+      <x:c r="D35" s="63"/>
+      <x:c r="E35" s="63"/>
+      <x:c r="F35" s="63">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G35" s="35"/>
+      <x:c r="G35" s="36"/>
       <x:c r="H35" s="8"/>
       <x:c r="I35" s="3"/>
       <x:c r="J35" s="3"/>
@@ -3627,12 +3704,12 @@
     </x:row>
     <x:row r="36" spans="1:26" ht="20" customHeight="1">
       <x:c r="A36" s="5"/>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="37"/>
-      <x:c r="D36" s="37"/>
-      <x:c r="E36" s="37"/>
-      <x:c r="F36" s="37"/>
-      <x:c r="G36" s="38"/>
+      <x:c r="B36" s="37"/>
+      <x:c r="C36" s="38"/>
+      <x:c r="D36" s="38"/>
+      <x:c r="E36" s="38"/>
+      <x:c r="F36" s="38"/>
+      <x:c r="G36" s="39"/>
       <x:c r="H36" s="8"/>
       <x:c r="I36" s="4"/>
       <x:c r="J36" s="4"/>
@@ -3655,12 +3732,12 @@
     </x:row>
     <x:row r="37" spans="1:26" ht="20" customHeight="1">
       <x:c r="A37" s="5"/>
-      <x:c r="B37" s="39"/>
-      <x:c r="C37" s="40"/>
-      <x:c r="D37" s="40"/>
-      <x:c r="E37" s="40"/>
-      <x:c r="F37" s="40"/>
-      <x:c r="G37" s="41"/>
+      <x:c r="B37" s="40"/>
+      <x:c r="C37" s="41"/>
+      <x:c r="D37" s="41"/>
+      <x:c r="E37" s="41"/>
+      <x:c r="F37" s="41"/>
+      <x:c r="G37" s="42"/>
       <x:c r="H37" s="8"/>
       <x:c r="I37" s="3"/>
       <x:c r="J37" s="3"/>
@@ -3683,14 +3760,14 @@
     </x:row>
     <x:row r="38" spans="1:26" ht="20" customHeight="1">
       <x:c r="A38" s="5"/>
-      <x:c r="B38" s="33" t="s">
-        <x:v>20</x:v>
+      <x:c r="B38" s="34" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C38" s="30" t="s">
-        <x:v>15</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D38" s="30" t="s">
-        <x:v>38</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E38" s="30">
         <x:v>8</x:v>
@@ -3698,7 +3775,7 @@
       <x:c r="F38" s="30">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G38" s="33">
+      <x:c r="G38" s="34">
         <x:f>SUM(F38:F40)</x:f>
         <x:v>120</x:v>
       </x:c>
@@ -3724,16 +3801,16 @@
     </x:row>
     <x:row r="39" spans="1:26" ht="20" customHeight="1">
       <x:c r="A39" s="5"/>
-      <x:c r="B39" s="42"/>
+      <x:c r="B39" s="43"/>
       <x:c r="C39" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D39" s="7"/>
       <x:c r="E39" s="7"/>
       <x:c r="F39" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G39" s="42"/>
+      <x:c r="G39" s="43"/>
       <x:c r="H39" s="8"/>
       <x:c r="I39" s="4"/>
       <x:c r="J39" s="4"/>
@@ -3756,16 +3833,16 @@
     </x:row>
     <x:row r="40" spans="1:26" ht="20" customHeight="1">
       <x:c r="A40" s="5"/>
-      <x:c r="B40" s="35"/>
+      <x:c r="B40" s="36"/>
       <x:c r="C40" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D40" s="30"/>
       <x:c r="E40" s="30"/>
       <x:c r="F40" s="30">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G40" s="35"/>
+      <x:c r="G40" s="36"/>
       <x:c r="H40" s="8"/>
       <x:c r="I40" s="3"/>
       <x:c r="J40" s="3"/>
@@ -3788,12 +3865,12 @@
     </x:row>
     <x:row r="41" spans="1:26" ht="20" customHeight="1">
       <x:c r="A41" s="5"/>
-      <x:c r="B41" s="36"/>
-      <x:c r="C41" s="37"/>
-      <x:c r="D41" s="37"/>
-      <x:c r="E41" s="37"/>
-      <x:c r="F41" s="37"/>
-      <x:c r="G41" s="38"/>
+      <x:c r="B41" s="37"/>
+      <x:c r="C41" s="38"/>
+      <x:c r="D41" s="38"/>
+      <x:c r="E41" s="38"/>
+      <x:c r="F41" s="38"/>
+      <x:c r="G41" s="39"/>
       <x:c r="H41" s="8"/>
       <x:c r="I41" s="3"/>
       <x:c r="J41" s="4"/>
@@ -3816,12 +3893,12 @@
     </x:row>
     <x:row r="42" spans="1:26" ht="20" customHeight="1">
       <x:c r="A42" s="5"/>
-      <x:c r="B42" s="39"/>
-      <x:c r="C42" s="40"/>
-      <x:c r="D42" s="40"/>
-      <x:c r="E42" s="40"/>
-      <x:c r="F42" s="40"/>
-      <x:c r="G42" s="41"/>
+      <x:c r="B42" s="40"/>
+      <x:c r="C42" s="41"/>
+      <x:c r="D42" s="41"/>
+      <x:c r="E42" s="41"/>
+      <x:c r="F42" s="41"/>
+      <x:c r="G42" s="42"/>
       <x:c r="H42" s="8"/>
       <x:c r="J42" s="3"/>
       <x:c r="K42" s="3"/>
@@ -3843,14 +3920,14 @@
     </x:row>
     <x:row r="43" spans="1:26" ht="20" customHeight="1">
       <x:c r="A43" s="5"/>
-      <x:c r="B43" s="33" t="s">
-        <x:v>27</x:v>
+      <x:c r="B43" s="34" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C43" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D43" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E43" s="7">
         <x:v>2</x:v>
@@ -3858,7 +3935,7 @@
       <x:c r="F43" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G43" s="33">
+      <x:c r="G43" s="34">
         <x:f>SUM(F43:F44)</x:f>
         <x:v>48</x:v>
       </x:c>
@@ -3884,16 +3961,16 @@
     </x:row>
     <x:row r="44" spans="1:26" ht="20" customHeight="1">
       <x:c r="A44" s="5"/>
-      <x:c r="B44" s="35"/>
+      <x:c r="B44" s="36"/>
       <x:c r="C44" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D44" s="7"/>
       <x:c r="E44" s="7"/>
       <x:c r="F44" s="7">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G44" s="35"/>
+      <x:c r="G44" s="36"/>
       <x:c r="H44" s="8"/>
       <x:c r="I44" s="3"/>
       <x:c r="J44" s="3"/>
@@ -3916,12 +3993,12 @@
     </x:row>
     <x:row r="45" spans="1:26" ht="20" customHeight="1">
       <x:c r="A45" s="5"/>
-      <x:c r="B45" s="36"/>
-      <x:c r="C45" s="37"/>
-      <x:c r="D45" s="37"/>
-      <x:c r="E45" s="37"/>
-      <x:c r="F45" s="37"/>
-      <x:c r="G45" s="38"/>
+      <x:c r="B45" s="37"/>
+      <x:c r="C45" s="38"/>
+      <x:c r="D45" s="38"/>
+      <x:c r="E45" s="38"/>
+      <x:c r="F45" s="38"/>
+      <x:c r="G45" s="39"/>
       <x:c r="H45" s="8"/>
       <x:c r="I45" s="4"/>
       <x:c r="J45" s="4"/>
@@ -3944,12 +4021,12 @@
     </x:row>
     <x:row r="46" spans="1:26" ht="20" customHeight="1">
       <x:c r="A46" s="5"/>
-      <x:c r="B46" s="43"/>
-      <x:c r="C46" s="44"/>
-      <x:c r="D46" s="44"/>
-      <x:c r="E46" s="44"/>
-      <x:c r="F46" s="44"/>
-      <x:c r="G46" s="45"/>
+      <x:c r="B46" s="44"/>
+      <x:c r="C46" s="45"/>
+      <x:c r="D46" s="45"/>
+      <x:c r="E46" s="45"/>
+      <x:c r="F46" s="45"/>
+      <x:c r="G46" s="46"/>
       <x:c r="H46" s="6"/>
       <x:c r="I46" s="3"/>
       <x:c r="J46" s="3"/>
@@ -3972,22 +4049,22 @@
     </x:row>
     <x:row r="47" spans="1:26" ht="20" customHeight="1">
       <x:c r="A47" s="5"/>
-      <x:c r="B47" s="54" t="s">
-        <x:v>7</x:v>
+      <x:c r="B47" s="55" t="s">
+        <x:v>40</x:v>
       </x:c>
-      <x:c r="C47" s="13" t="s">
-        <x:v>44</x:v>
+      <x:c r="C47" s="61" t="s">
+        <x:v>21</x:v>
       </x:c>
-      <x:c r="D47" s="13" t="s">
-        <x:v>36</x:v>
+      <x:c r="D47" s="61" t="s">
+        <x:v>88</x:v>
       </x:c>
-      <x:c r="E47" s="13">
+      <x:c r="E47" s="61">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F47" s="14">
+      <x:c r="F47" s="62">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G47" s="56">
+      <x:c r="G47" s="57">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H47" s="6"/>
@@ -4012,16 +4089,16 @@
     </x:row>
     <x:row r="48" spans="1:26" ht="20" customHeight="1">
       <x:c r="A48" s="5"/>
-      <x:c r="B48" s="55"/>
+      <x:c r="B48" s="56"/>
       <x:c r="C48" s="15" t="s">
-        <x:v>71</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D48" s="15"/>
       <x:c r="E48" s="15"/>
       <x:c r="F48" s="16">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G48" s="57"/>
+      <x:c r="G48" s="58"/>
       <x:c r="H48" s="6"/>
       <x:c r="I48" s="3"/>
       <x:c r="J48" s="3"/>
@@ -4044,12 +4121,12 @@
     </x:row>
     <x:row r="49" spans="1:26" ht="25" customHeight="1">
       <x:c r="A49" s="5"/>
-      <x:c r="B49" s="58"/>
-      <x:c r="C49" s="58"/>
-      <x:c r="D49" s="58"/>
-      <x:c r="E49" s="58"/>
-      <x:c r="F49" s="58"/>
-      <x:c r="G49" s="58"/>
+      <x:c r="B49" s="59"/>
+      <x:c r="C49" s="59"/>
+      <x:c r="D49" s="59"/>
+      <x:c r="E49" s="59"/>
+      <x:c r="F49" s="59"/>
+      <x:c r="G49" s="59"/>
       <x:c r="H49" s="6"/>
       <x:c r="I49" s="3"/>
       <x:c r="J49" s="3"/>
@@ -4072,12 +4149,12 @@
     </x:row>
     <x:row r="50" spans="1:26" ht="23.5">
       <x:c r="A50" s="6"/>
-      <x:c r="B50" s="59"/>
-      <x:c r="C50" s="59"/>
-      <x:c r="D50" s="59"/>
-      <x:c r="E50" s="59"/>
-      <x:c r="F50" s="59"/>
-      <x:c r="G50" s="59"/>
+      <x:c r="B50" s="60"/>
+      <x:c r="C50" s="60"/>
+      <x:c r="D50" s="60"/>
+      <x:c r="E50" s="60"/>
+      <x:c r="F50" s="60"/>
+      <x:c r="G50" s="60"/>
       <x:c r="H50" s="6"/>
       <x:c r="I50" s="3"/>
       <x:c r="J50" s="3"/>
@@ -4100,18 +4177,18 @@
     </x:row>
     <x:row r="51" spans="1:26" ht="23.5">
       <x:c r="A51" s="6"/>
-      <x:c r="B51" s="33" t="s">
-        <x:v>67</x:v>
+      <x:c r="B51" s="34" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C51" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D51" s="7"/>
       <x:c r="E51" s="7"/>
       <x:c r="F51" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G51" s="33">
+      <x:c r="G51" s="34">
         <x:f>SUM(F51:F52)</x:f>
         <x:v>76</x:v>
       </x:c>
@@ -4136,16 +4213,16 @@
       <x:c r="Z51" s="3"/>
     </x:row>
     <x:row r="52" spans="2:26" ht="23.5">
-      <x:c r="B52" s="33"/>
+      <x:c r="B52" s="34"/>
       <x:c r="C52" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D52" s="7"/>
       <x:c r="E52" s="7"/>
       <x:c r="F52" s="7">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G52" s="33"/>
+      <x:c r="G52" s="34"/>
       <x:c r="H52" s="8"/>
       <x:c r="I52" s="3"/>
       <x:c r="J52" s="3"/>
@@ -4172,11 +4249,11 @@
       <x:c r="D53" s="6"/>
       <x:c r="E53" s="6"/>
       <x:c r="F53" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G53" s="7">
         <x:f>SUM(G3:G48)</x:f>
-        <x:v>1049</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="H53" s="8"/>
       <x:c r="I53" s="3"/>

--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -19,54 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <x:si>
-    <x:t>여덟번째 스프린트</x:t>
+    <x:t>모션인식 모델 구동(40)</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버로 사진 전송</x:t>
+    <x:r>
+      <x:t>2(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정확도 개선</x:t>
+    <x:t>모션 연구</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 목록 보기</x:t>
+    <x:t>디바이스 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입(16)</x:t>
+    <x:t>주 5일 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 TTS 연동(36)</x:t>
+    <x:t>아홉번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>Product Backlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 정보 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 STT 연동(35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 기기 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 설계(24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기상청 API 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재활 프로그램 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 데이터셋 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprint Backlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필립스 휴  API 연동</x:t>
+    <x:t>5/16 ~ 5/27</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -82,71 +65,70 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">서버 </x:t>
+    <x:t>docker(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>방학</x:t>
+    <x:t>여덟번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>개강</x:t>
+    <x:t>웹 서버로 사진 전송</x:t>
   </x:si>
   <x:si>
-    <x:t>합계</x:t>
+    <x:t>로그인/회원가입</x:t>
   </x:si>
   <x:si>
-    <x:t>aws</x:t>
+    <x:t>재활 프로그램 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버로 사진 전송(40)</x:t>
+    <x:t>운동 재활 프로그램</x:t>
   </x:si>
   <x:si>
-    <x:t>5/2 ~ 5/13(94시간)</x:t>
+    <x:t>두번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 명령 실행(30)</x:t>
+    <x:t>구글 TTS 연동</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>2(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
-    </x:r>
+    <x:t>웹 서버와 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>모션인식 모델 개발</x:t>
+    <x:t>클라우드 플랫폼</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터베이스  설계</x:t>
+    <x:t>User Story</x:t>
   </x:si>
   <x:si>
-    <x:t>여섯번쨰 스프린트</x:t>
+    <x:t>음성과 단어 매치</x:t>
   </x:si>
   <x:si>
-    <x:t>일곱번째 스프린트</x:t>
+    <x:t>모션인식 모델 구동</x:t>
   </x:si>
   <x:si>
-    <x:t>네번째 스프린트</x:t>
+    <x:t>연결된 기기 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>Story Point</x:t>
+    <x:t>매칭률 점수 계산</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 명령 실행</x:t>
+    <x:t>세번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 구축(50)</x:t>
+    <x:t>구글 STT 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>다섯번째 스프린트</x:t>
+    <x:t>기상청 API 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>앱 디자인 구성</x:t>
+    <x:t>모션 인식 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 프로그램</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진과 동작 매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫번째 스프린트</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -183,61 +165,131 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>언어 재활 프로그램</x:t>
+    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>세번째 스프린트</x:t>
+    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 STT 연동</x:t>
+    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>클라우드 플랫폼</x:t>
+    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>사진과 동작 매치</x:t>
+    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>기상청 API 연동</x:t>
+    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정보 관리</x:t>
+    <x:t>aws(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>User Story</x:t>
+    <x:t>앱과 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>음성과 단어 매치</x:t>
+    <x:t>명령어 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>모션인식 모델 구동</x:t>
+    <x:t>모션인식 모델 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 관리</x:t>
+    <x:t>여섯번쨰 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>매칭률 점수 계산</x:t>
+    <x:t>데이터베이스  설계</x:t>
   </x:si>
   <x:si>
-    <x:t>첫번째 스프린트</x:t>
+    <x:t>네번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버와 연동</x:t>
+    <x:t>일곱번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입</x:t>
+    <x:t>서버 구축(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>두번째 스프린트</x:t>
+    <x:t>앱 디자인 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>운동 재활 프로그램</x:t>
+    <x:t>Story Point</x:t>
   </x:si>
   <x:si>
-    <x:t>재활 프로그램 관리</x:t>
+    <x:t>모션 명령 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 TTS 연동</x:t>
+    <x:t>다섯번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>docker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기기 연결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명령어 커스텀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기기 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aws</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">서버 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱과 연동(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액티비티 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2/7 ~ 2/18 (150</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>4/4 ~ 4/15(90시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/2 ~ 5/13(94시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -253,17 +305,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>2/7 ~ 2/18 (150</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)</x:t>
-    </x:r>
+    <x:t>데이터베이스와 서버 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 연구(36) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/7 ~ 3/18(115시간)</x:t>
   </x:si>
   <x:si>
     <x:t>3/21 ~ 4/1(100시간)</x:t>
@@ -281,91 +329,207 @@
     <x:t>1/10 ~ 1/21 (150시간)</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 연구(36) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/7 ~ 3/18(115시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스와 서버 연동(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4/4 ~ 4/15(90시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 실행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 5일 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 연구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디바이스 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱과 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 커스텀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기기 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기기 연결</x:t>
-  </x:si>
-  <x:si>
-    <x:t>docker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+    <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
   </x:si>
   <x:si>
     <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(10) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필립스 휴 API 연동(36) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>모션</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>인식</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>모델</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>개발</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(80) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1/24 ~ 2/4 (105</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)(설)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(30) - Done</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Estimate Time (단위: 시간)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -434,207 +598,55 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Estimate Time (단위: 시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모션</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인식</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모델</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>개발</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(80) - Done</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(10) - Done</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1/24 ~ 2/4 (105</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)(설)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(30) - Done</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:t>언어 재활 - 음성과 단어 매치(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
+    <x:t>연결된 기기 목록 보기</x:t>
   </x:si>
   <x:si>
-    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
+    <x:t>모션 인식 정확도 개선</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
+    <x:t>로그인/회원가입(16)</x:t>
   </x:si>
   <x:si>
-    <x:t>필립스 휴 API 연동(36) - Done</x:t>
+    <x:t>구글 TTS 연동(36)</x:t>
   </x:si>
   <x:si>
-    <x:t>앱과 연동(24)</x:t>
+    <x:t>Sprint Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기상청 API 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 서버로 사진 전송(40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 STT 연동(35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필립스 휴  API 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 설계(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 데이터셋 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 명령 실행(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정보 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Backlog</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1098,7 +1110,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="65">
+  <x:cellXfs count="66">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1195,19 +1207,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1392,13 +1391,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1425,6 +1437,32 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1804,26 +1842,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2460,8 +2485,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z1009"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K39" activeCellId="0" sqref="K39:K39"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J38" activeCellId="0" sqref="J38:J38"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2510,21 +2535,21 @@
     <x:row r="2" spans="1:26" ht="20" customHeight="1">
       <x:c r="A2" s="5"/>
       <x:c r="B2" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
-      <x:c r="F2" s="32" t="s">
-        <x:v>93</x:v>
+      <x:c r="F2" s="34" t="s">
+        <x:v>90</x:v>
       </x:c>
-      <x:c r="G2" s="33"/>
+      <x:c r="G2" s="35"/>
       <x:c r="H2" s="8"/>
       <x:c r="I2" s="3"/>
       <x:c r="J2" s="3"/>
@@ -2547,14 +2572,14 @@
     </x:row>
     <x:row r="3" spans="1:26" ht="20" customHeight="1">
       <x:c r="A3" s="5"/>
-      <x:c r="B3" s="34" t="s">
-        <x:v>75</x:v>
+      <x:c r="B3" s="36" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E3" s="9">
         <x:v>20</x:v>
@@ -2562,7 +2587,7 @@
       <x:c r="F3" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G3" s="34">
+      <x:c r="G3" s="36">
         <x:f>SUM(F3:F8)</x:f>
         <x:v>166</x:v>
       </x:c>
@@ -2588,16 +2613,16 @@
     </x:row>
     <x:row r="4" spans="1:26" ht="20" customHeight="1">
       <x:c r="A4" s="5"/>
-      <x:c r="B4" s="35"/>
+      <x:c r="B4" s="37"/>
       <x:c r="C4" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="9"/>
       <x:c r="F4" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G4" s="35"/>
+      <x:c r="G4" s="37"/>
       <x:c r="H4" s="8"/>
       <x:c r="I4" s="3"/>
       <x:c r="J4" s="3"/>
@@ -2620,16 +2645,16 @@
     </x:row>
     <x:row r="5" spans="1:26" ht="20" customHeight="1">
       <x:c r="A5" s="5"/>
-      <x:c r="B5" s="35"/>
-      <x:c r="C5" s="12" t="s">
-        <x:v>54</x:v>
+      <x:c r="B5" s="37"/>
+      <x:c r="C5" s="11" t="s">
+        <x:v>12</x:v>
       </x:c>
-      <x:c r="D5" s="12"/>
-      <x:c r="E5" s="12"/>
-      <x:c r="F5" s="12">
+      <x:c r="D5" s="11"/>
+      <x:c r="E5" s="11"/>
+      <x:c r="F5" s="11">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G5" s="35"/>
+      <x:c r="G5" s="37"/>
       <x:c r="H5" s="8"/>
       <x:c r="I5" s="3"/>
       <x:c r="J5" s="3"/>
@@ -2651,20 +2676,20 @@
     </x:row>
     <x:row r="6" spans="1:26" ht="20" customHeight="1">
       <x:c r="A6" s="5"/>
-      <x:c r="B6" s="35"/>
-      <x:c r="C6" s="28" t="s">
-        <x:v>47</x:v>
+      <x:c r="B6" s="37"/>
+      <x:c r="C6" s="26" t="s">
+        <x:v>21</x:v>
       </x:c>
-      <x:c r="D6" s="28"/>
-      <x:c r="E6" s="28"/>
-      <x:c r="F6" s="28">
+      <x:c r="D6" s="26"/>
+      <x:c r="E6" s="26"/>
+      <x:c r="F6" s="26">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="35"/>
+      <x:c r="G6" s="37"/>
       <x:c r="H6" s="8"/>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K6" s="3"/>
       <x:c r="L6" s="3"/>
@@ -2684,22 +2709,22 @@
     </x:row>
     <x:row r="7" spans="1:26" ht="20" customHeight="1">
       <x:c r="A7" s="5"/>
-      <x:c r="B7" s="35"/>
-      <x:c r="C7" s="30" t="s">
-        <x:v>43</x:v>
+      <x:c r="B7" s="37"/>
+      <x:c r="C7" s="28" t="s">
+        <x:v>26</x:v>
       </x:c>
-      <x:c r="D7" s="30"/>
-      <x:c r="E7" s="30"/>
-      <x:c r="F7" s="30">
+      <x:c r="D7" s="28"/>
+      <x:c r="E7" s="28"/>
+      <x:c r="F7" s="28">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G7" s="35"/>
+      <x:c r="G7" s="37"/>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J7" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K7" s="3"/>
       <x:c r="L7" s="3"/>
@@ -2719,22 +2744,22 @@
     </x:row>
     <x:row r="8" spans="1:26" ht="20" customHeight="1">
       <x:c r="A8" s="5"/>
-      <x:c r="B8" s="36"/>
+      <x:c r="B8" s="38"/>
       <x:c r="C8" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="9"/>
       <x:c r="E8" s="9"/>
       <x:c r="F8" s="9">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G8" s="36"/>
+      <x:c r="G8" s="38"/>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J8" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K8" s="3"/>
       <x:c r="L8" s="3"/>
@@ -2754,12 +2779,12 @@
     </x:row>
     <x:row r="9" spans="1:26" ht="20" customHeight="1">
       <x:c r="A9" s="5"/>
-      <x:c r="B9" s="37"/>
-      <x:c r="C9" s="38"/>
-      <x:c r="D9" s="38"/>
-      <x:c r="E9" s="38"/>
-      <x:c r="F9" s="38"/>
-      <x:c r="G9" s="39"/>
+      <x:c r="B9" s="39"/>
+      <x:c r="C9" s="40"/>
+      <x:c r="D9" s="40"/>
+      <x:c r="E9" s="40"/>
+      <x:c r="F9" s="40"/>
+      <x:c r="G9" s="41"/>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="6"/>
@@ -2781,27 +2806,27 @@
     </x:row>
     <x:row r="10" spans="1:26" ht="20" customHeight="1">
       <x:c r="A10" s="5"/>
-      <x:c r="B10" s="40"/>
-      <x:c r="C10" s="41"/>
-      <x:c r="D10" s="41"/>
-      <x:c r="E10" s="41"/>
-      <x:c r="F10" s="41"/>
-      <x:c r="G10" s="42"/>
+      <x:c r="B10" s="42"/>
+      <x:c r="C10" s="43"/>
+      <x:c r="D10" s="43"/>
+      <x:c r="E10" s="43"/>
+      <x:c r="F10" s="43"/>
+      <x:c r="G10" s="44"/>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="3"/>
-      <x:c r="J10" s="17" t="s">
-        <x:v>49</x:v>
+      <x:c r="J10" s="16" t="s">
+        <x:v>29</x:v>
       </x:c>
-      <x:c r="K10" s="17" t="s">
-        <x:v>52</x:v>
+      <x:c r="K10" s="16" t="s">
+        <x:v>14</x:v>
       </x:c>
-      <x:c r="L10" s="17" t="s">
-        <x:v>38</x:v>
+      <x:c r="L10" s="16" t="s">
+        <x:v>23</x:v>
       </x:c>
-      <x:c r="M10" s="17" t="s">
-        <x:v>30</x:v>
+      <x:c r="M10" s="16" t="s">
+        <x:v>43</x:v>
       </x:c>
-      <x:c r="N10" s="22"/>
+      <x:c r="N10" s="21"/>
       <x:c r="O10" s="3"/>
       <x:c r="P10" s="3"/>
       <x:c r="Q10" s="3"/>
@@ -2817,14 +2842,14 @@
     </x:row>
     <x:row r="11" spans="1:26" ht="20" customHeight="1">
       <x:c r="A11" s="5"/>
-      <x:c r="B11" s="34" t="s">
-        <x:v>17</x:v>
+      <x:c r="B11" s="36" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="7">
         <x:v>40</x:v>
@@ -2832,25 +2857,25 @@
       <x:c r="F11" s="7">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G11" s="34">
+      <x:c r="G11" s="36">
         <x:f>SUM(F11:F14)</x:f>
         <x:v>138</x:v>
       </x:c>
       <x:c r="H11" s="8"/>
       <x:c r="I11" s="3"/>
-      <x:c r="J11" s="18" t="s">
-        <x:v>62</x:v>
+      <x:c r="J11" s="17" t="s">
+        <x:v>78</x:v>
       </x:c>
-      <x:c r="K11" s="18" t="s">
-        <x:v>97</x:v>
+      <x:c r="K11" s="17" t="s">
+        <x:v>88</x:v>
       </x:c>
-      <x:c r="L11" s="18" t="s">
-        <x:v>57</x:v>
+      <x:c r="L11" s="17" t="s">
+        <x:v>66</x:v>
       </x:c>
-      <x:c r="M11" s="18" t="s">
-        <x:v>56</x:v>
+      <x:c r="M11" s="17" t="s">
+        <x:v>70</x:v>
       </x:c>
-      <x:c r="N11" s="23"/>
+      <x:c r="N11" s="22"/>
       <x:c r="O11" s="3"/>
       <x:c r="P11" s="3"/>
       <x:c r="Q11" s="3"/>
@@ -2866,31 +2891,31 @@
     </x:row>
     <x:row r="12" spans="1:26" ht="20" customHeight="1">
       <x:c r="A12" s="5"/>
-      <x:c r="B12" s="35"/>
-      <x:c r="C12" s="7" t="s">
-        <x:v>74</x:v>
+      <x:c r="B12" s="37"/>
+      <x:c r="C12" s="64" t="s">
+        <x:v>38</x:v>
       </x:c>
-      <x:c r="D12" s="7"/>
-      <x:c r="E12" s="7"/>
-      <x:c r="F12" s="7">
+      <x:c r="D12" s="64"/>
+      <x:c r="E12" s="64"/>
+      <x:c r="F12" s="64">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G12" s="35"/>
+      <x:c r="G12" s="37"/>
       <x:c r="H12" s="8"/>
       <x:c r="I12" s="3"/>
-      <x:c r="J12" s="18" t="s">
-        <x:v>63</x:v>
+      <x:c r="J12" s="17" t="s">
+        <x:v>72</x:v>
       </x:c>
-      <x:c r="K12" s="18" t="s">
-        <x:v>96</x:v>
+      <x:c r="K12" s="17" t="s">
+        <x:v>81</x:v>
       </x:c>
-      <x:c r="L12" s="18" t="s">
-        <x:v>36</x:v>
+      <x:c r="L12" s="17" t="s">
+        <x:v>30</x:v>
       </x:c>
-      <x:c r="M12" s="18" t="s">
-        <x:v>11</x:v>
+      <x:c r="M12" s="17" t="s">
+        <x:v>99</x:v>
       </x:c>
-      <x:c r="N12" s="24"/>
+      <x:c r="N12" s="23"/>
       <x:c r="O12" s="3"/>
       <x:c r="P12" s="3"/>
       <x:c r="Q12" s="3"/>
@@ -2906,31 +2931,31 @@
     </x:row>
     <x:row r="13" spans="1:26" ht="20" customHeight="1">
       <x:c r="A13" s="5"/>
-      <x:c r="B13" s="35"/>
+      <x:c r="B13" s="37"/>
       <x:c r="C13" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D13" s="9"/>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="35"/>
+      <x:c r="G13" s="37"/>
       <x:c r="H13" s="8"/>
       <x:c r="I13" s="3"/>
-      <x:c r="J13" s="18" t="s">
-        <x:v>103</x:v>
+      <x:c r="J13" s="17" t="s">
+        <x:v>83</x:v>
       </x:c>
-      <x:c r="K13" s="18" t="s">
-        <x:v>94</x:v>
+      <x:c r="K13" s="17" t="s">
+        <x:v>84</x:v>
       </x:c>
-      <x:c r="L13" s="18" t="s">
-        <x:v>33</x:v>
+      <x:c r="L13" s="17" t="s">
+        <x:v>45</x:v>
       </x:c>
-      <x:c r="M13" s="18" t="s">
-        <x:v>5</x:v>
+      <x:c r="M13" s="17" t="s">
+        <x:v>96</x:v>
       </x:c>
-      <x:c r="N13" s="23"/>
+      <x:c r="N13" s="22"/>
       <x:c r="O13" s="3"/>
       <x:c r="P13" s="4"/>
       <x:c r="Q13" s="4"/>
@@ -2946,31 +2971,31 @@
     </x:row>
     <x:row r="14" spans="1:26" ht="20" customHeight="1">
       <x:c r="A14" s="5"/>
-      <x:c r="B14" s="36"/>
+      <x:c r="B14" s="38"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D14" s="9"/>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="36"/>
+      <x:c r="G14" s="38"/>
       <x:c r="H14" s="8"/>
       <x:c r="I14" s="3"/>
-      <x:c r="J14" s="18" t="s">
+      <x:c r="J14" s="17" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="K14" s="17" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="K14" s="18" t="s">
-        <x:v>92</x:v>
+      <x:c r="L14" s="17" t="s">
+        <x:v>95</x:v>
       </x:c>
-      <x:c r="L14" s="18" t="s">
-        <x:v>4</x:v>
+      <x:c r="M14" s="17" t="s">
+        <x:v>107</x:v>
       </x:c>
-      <x:c r="M14" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N14" s="25"/>
+      <x:c r="N14" s="24"/>
       <x:c r="O14" s="3"/>
       <x:c r="P14" s="3"/>
       <x:c r="Q14" s="3"/>
@@ -2986,22 +3011,22 @@
     </x:row>
     <x:row r="15" spans="1:26" ht="20" customHeight="1">
       <x:c r="A15" s="5"/>
-      <x:c r="B15" s="37"/>
-      <x:c r="C15" s="38"/>
-      <x:c r="D15" s="38"/>
-      <x:c r="E15" s="38"/>
-      <x:c r="F15" s="38"/>
-      <x:c r="G15" s="39"/>
+      <x:c r="B15" s="39"/>
+      <x:c r="C15" s="40"/>
+      <x:c r="D15" s="40"/>
+      <x:c r="E15" s="40"/>
+      <x:c r="F15" s="40"/>
+      <x:c r="G15" s="41"/>
       <x:c r="H15" s="8"/>
       <x:c r="I15" s="3"/>
-      <x:c r="J15" s="18" t="s">
-        <x:v>61</x:v>
+      <x:c r="J15" s="17" t="s">
+        <x:v>77</x:v>
       </x:c>
-      <x:c r="K15" s="20"/>
-      <x:c r="L15" s="18" t="s">
-        <x:v>10</x:v>
+      <x:c r="K15" s="19"/>
+      <x:c r="L15" s="17" t="s">
+        <x:v>103</x:v>
       </x:c>
-      <x:c r="M15" s="20"/>
+      <x:c r="M15" s="19"/>
       <x:c r="O15" s="3"/>
       <x:c r="P15" s="4"/>
       <x:c r="Q15" s="4"/>
@@ -3017,22 +3042,22 @@
     </x:row>
     <x:row r="16" spans="1:26" ht="20" customHeight="1">
       <x:c r="A16" s="5"/>
-      <x:c r="B16" s="40"/>
-      <x:c r="C16" s="41"/>
-      <x:c r="D16" s="41"/>
-      <x:c r="E16" s="41"/>
-      <x:c r="F16" s="41"/>
-      <x:c r="G16" s="42"/>
+      <x:c r="B16" s="42"/>
+      <x:c r="C16" s="43"/>
+      <x:c r="D16" s="43"/>
+      <x:c r="E16" s="43"/>
+      <x:c r="F16" s="43"/>
+      <x:c r="G16" s="44"/>
       <x:c r="H16" s="8"/>
       <x:c r="I16" s="3"/>
-      <x:c r="J16" s="19" t="s">
-        <x:v>98</x:v>
+      <x:c r="J16" s="18" t="s">
+        <x:v>89</x:v>
       </x:c>
-      <x:c r="K16" s="21"/>
-      <x:c r="L16" s="19" t="s">
-        <x:v>66</x:v>
+      <x:c r="K16" s="20"/>
+      <x:c r="L16" s="18" t="s">
+        <x:v>71</x:v>
       </x:c>
-      <x:c r="M16" s="21"/>
+      <x:c r="M16" s="20"/>
       <x:c r="O16" s="3"/>
       <x:c r="P16" s="3"/>
       <x:c r="Q16" s="3"/>
@@ -3048,14 +3073,14 @@
     </x:row>
     <x:row r="17" spans="1:26" ht="20" customHeight="1">
       <x:c r="A17" s="5"/>
-      <x:c r="B17" s="34" t="s">
-        <x:v>69</x:v>
+      <x:c r="B17" s="36" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>71</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E17" s="7">
         <x:v>100</x:v>
@@ -3063,16 +3088,16 @@
       <x:c r="F17" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="34">
+      <x:c r="G17" s="36">
         <x:f>SUM(F17:F25)</x:f>
         <x:v>353</x:v>
       </x:c>
       <x:c r="H17" s="8"/>
       <x:c r="I17" s="3"/>
-      <x:c r="J17" s="60"/>
-      <x:c r="K17" s="60"/>
-      <x:c r="L17" s="60"/>
-      <x:c r="M17" s="60"/>
+      <x:c r="J17" s="62"/>
+      <x:c r="K17" s="62"/>
+      <x:c r="L17" s="62"/>
+      <x:c r="M17" s="62"/>
       <x:c r="N17" s="3"/>
       <x:c r="O17" s="3"/>
       <x:c r="P17" s="3"/>
@@ -3089,22 +3114,22 @@
     </x:row>
     <x:row r="18" spans="1:26" ht="20" customHeight="1">
       <x:c r="A18" s="5"/>
-      <x:c r="B18" s="43"/>
+      <x:c r="B18" s="45"/>
       <x:c r="C18" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D18" s="7"/>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G18" s="35"/>
+      <x:c r="G18" s="37"/>
       <x:c r="H18" s="8"/>
       <x:c r="I18" s="3"/>
-      <x:c r="J18" s="60"/>
-      <x:c r="K18" s="60"/>
-      <x:c r="L18" s="60"/>
-      <x:c r="M18" s="60"/>
+      <x:c r="J18" s="62"/>
+      <x:c r="K18" s="62"/>
+      <x:c r="L18" s="62"/>
+      <x:c r="M18" s="62"/>
       <x:c r="N18" s="3"/>
       <x:c r="O18" s="3"/>
       <x:c r="P18" s="3"/>
@@ -3121,29 +3146,29 @@
     </x:row>
     <x:row r="19" spans="1:26" ht="20" customHeight="1">
       <x:c r="A19" s="5"/>
-      <x:c r="B19" s="43"/>
+      <x:c r="B19" s="45"/>
       <x:c r="C19" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D19" s="7"/>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="9">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G19" s="35"/>
+      <x:c r="G19" s="37"/>
       <x:c r="H19" s="8"/>
       <x:c r="I19" s="3"/>
-      <x:c r="J19" s="26" t="s">
-        <x:v>34</x:v>
+      <x:c r="J19" s="25" t="s">
+        <x:v>49</x:v>
       </x:c>
-      <x:c r="K19" s="29" t="s">
-        <x:v>28</x:v>
+      <x:c r="K19" s="27" t="s">
+        <x:v>41</x:v>
       </x:c>
-      <x:c r="L19" s="31" t="s">
-        <x:v>29</x:v>
+      <x:c r="L19" s="29" t="s">
+        <x:v>44</x:v>
       </x:c>
-      <x:c r="M19" s="64" t="s">
-        <x:v>0</x:v>
+      <x:c r="M19" s="33" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N19" s="3"/>
       <x:c r="O19" s="3"/>
@@ -3161,29 +3186,29 @@
     </x:row>
     <x:row r="20" spans="1:26" ht="20" customHeight="1">
       <x:c r="A20" s="5"/>
-      <x:c r="B20" s="43"/>
+      <x:c r="B20" s="45"/>
       <x:c r="C20" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D20" s="7"/>
       <x:c r="E20" s="7"/>
       <x:c r="F20" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G20" s="35"/>
+      <x:c r="G20" s="37"/>
       <x:c r="H20" s="8"/>
       <x:c r="I20" s="3"/>
       <x:c r="J20" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L20" s="6" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="M20" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N20" s="3"/>
       <x:c r="O20" s="3"/>
@@ -3201,29 +3226,29 @@
     </x:row>
     <x:row r="21" spans="1:26" ht="20" customHeight="1">
       <x:c r="A21" s="5"/>
-      <x:c r="B21" s="43"/>
-      <x:c r="C21" s="10" t="s">
-        <x:v>32</x:v>
+      <x:c r="B21" s="45"/>
+      <x:c r="C21" s="63" t="s">
+        <x:v>48</x:v>
       </x:c>
-      <x:c r="D21" s="7"/>
-      <x:c r="E21" s="7"/>
-      <x:c r="F21" s="7">
+      <x:c r="D21" s="64"/>
+      <x:c r="E21" s="64"/>
+      <x:c r="F21" s="64">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G21" s="35"/>
+      <x:c r="G21" s="37"/>
       <x:c r="H21" s="8"/>
       <x:c r="I21" s="3"/>
       <x:c r="J21" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K21" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L21" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M21" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N21" s="3"/>
       <x:c r="O21" s="3"/>
@@ -3241,29 +3266,29 @@
     </x:row>
     <x:row r="22" spans="1:26" ht="20" customHeight="1">
       <x:c r="A22" s="5"/>
-      <x:c r="B22" s="43"/>
-      <x:c r="C22" s="11" t="s">
-        <x:v>42</x:v>
+      <x:c r="B22" s="45"/>
+      <x:c r="C22" s="10" t="s">
+        <x:v>25</x:v>
       </x:c>
-      <x:c r="D22" s="12"/>
-      <x:c r="E22" s="12"/>
-      <x:c r="F22" s="12">
+      <x:c r="D22" s="11"/>
+      <x:c r="E22" s="11"/>
+      <x:c r="F22" s="11">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G22" s="35"/>
+      <x:c r="G22" s="37"/>
       <x:c r="H22" s="8"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K22" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L22" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M22" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N22" s="4"/>
       <x:c r="O22" s="4"/>
@@ -3281,31 +3306,31 @@
     </x:row>
     <x:row r="23" spans="1:26" ht="20" customHeight="1">
       <x:c r="A23" s="5"/>
-      <x:c r="B23" s="43"/>
-      <x:c r="C23" s="11" t="s">
-        <x:v>55</x:v>
+      <x:c r="B23" s="45"/>
+      <x:c r="C23" s="10" t="s">
+        <x:v>15</x:v>
       </x:c>
-      <x:c r="D23" s="12"/>
-      <x:c r="E23" s="12"/>
-      <x:c r="F23" s="12">
+      <x:c r="D23" s="11"/>
+      <x:c r="E23" s="11"/>
+      <x:c r="F23" s="11">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G23" s="35"/>
+      <x:c r="G23" s="37"/>
       <x:c r="H23" s="8"/>
-      <x:c r="I23" s="4"/>
+      <x:c r="I23" s="3"/>
       <x:c r="J23" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K23" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L23" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M23" s="6" t="s">
-        <x:v>104</x:v>
+        <x:v>64</x:v>
       </x:c>
-      <x:c r="N23" s="4"/>
+      <x:c r="N23" s="3"/>
       <x:c r="O23" s="4"/>
       <x:c r="P23" s="4"/>
       <x:c r="Q23" s="4"/>
@@ -3321,22 +3346,22 @@
     </x:row>
     <x:row r="24" spans="1:26" s="1" customFormat="1" ht="20" customHeight="1">
       <x:c r="A24" s="5"/>
-      <x:c r="B24" s="34"/>
-      <x:c r="C24" s="27" t="s">
-        <x:v>39</x:v>
+      <x:c r="B24" s="36"/>
+      <x:c r="C24" s="63" t="s">
+        <x:v>24</x:v>
       </x:c>
-      <x:c r="D24" s="28"/>
-      <x:c r="E24" s="28"/>
-      <x:c r="F24" s="28">
+      <x:c r="D24" s="64"/>
+      <x:c r="E24" s="64"/>
+      <x:c r="F24" s="64">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G24" s="34"/>
+      <x:c r="G24" s="36"/>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="3"/>
-      <x:c r="J24" s="3"/>
-      <x:c r="K24" s="6"/>
-      <x:c r="L24" s="3"/>
-      <x:c r="M24" s="6"/>
+      <x:c r="J24" s="62"/>
+      <x:c r="K24" s="62"/>
+      <x:c r="L24" s="62"/>
+      <x:c r="M24" s="62"/>
       <x:c r="N24" s="3"/>
       <x:c r="O24" s="3"/>
       <x:c r="P24" s="3"/>
@@ -3353,22 +3378,22 @@
     </x:row>
     <x:row r="25" spans="1:26" ht="20" customHeight="1">
       <x:c r="A25" s="5"/>
-      <x:c r="B25" s="53"/>
-      <x:c r="C25" s="7" t="s">
-        <x:v>1</x:v>
+      <x:c r="B25" s="55"/>
+      <x:c r="C25" s="64" t="s">
+        <x:v>10</x:v>
       </x:c>
-      <x:c r="D25" s="7"/>
-      <x:c r="E25" s="7"/>
-      <x:c r="F25" s="7">
+      <x:c r="D25" s="64"/>
+      <x:c r="E25" s="64"/>
+      <x:c r="F25" s="64">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G25" s="36"/>
+      <x:c r="G25" s="38"/>
       <x:c r="H25" s="8"/>
       <x:c r="I25" s="3"/>
-      <x:c r="J25" s="3"/>
-      <x:c r="K25" s="3"/>
-      <x:c r="L25" s="3"/>
-      <x:c r="M25" s="6"/>
+      <x:c r="J25" s="62"/>
+      <x:c r="K25" s="62"/>
+      <x:c r="L25" s="62"/>
+      <x:c r="M25" s="62"/>
       <x:c r="N25" s="3"/>
       <x:c r="O25" s="3"/>
       <x:c r="P25" s="3"/>
@@ -3385,19 +3410,21 @@
     </x:row>
     <x:row r="26" spans="1:26" ht="20" customHeight="1">
       <x:c r="A26" s="5"/>
-      <x:c r="B26" s="44"/>
-      <x:c r="C26" s="45"/>
-      <x:c r="D26" s="45"/>
-      <x:c r="E26" s="45"/>
-      <x:c r="F26" s="45"/>
-      <x:c r="G26" s="46"/>
+      <x:c r="B26" s="46"/>
+      <x:c r="C26" s="47"/>
+      <x:c r="D26" s="47"/>
+      <x:c r="E26" s="47"/>
+      <x:c r="F26" s="47"/>
+      <x:c r="G26" s="48"/>
       <x:c r="H26" s="8"/>
-      <x:c r="I26" s="4"/>
-      <x:c r="J26" s="4"/>
-      <x:c r="K26" s="4"/>
-      <x:c r="L26" s="4"/>
-      <x:c r="M26" s="4"/>
-      <x:c r="N26" s="4"/>
+      <x:c r="I26" s="3"/>
+      <x:c r="J26" s="65" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K26" s="3"/>
+      <x:c r="L26" s="3"/>
+      <x:c r="M26" s="3"/>
+      <x:c r="N26" s="3"/>
       <x:c r="O26" s="4"/>
       <x:c r="P26" s="4"/>
       <x:c r="Q26" s="4"/>
@@ -3413,15 +3440,17 @@
     </x:row>
     <x:row r="27" spans="1:26" ht="20" customHeight="1">
       <x:c r="A27" s="5"/>
-      <x:c r="B27" s="40"/>
-      <x:c r="C27" s="41"/>
-      <x:c r="D27" s="41"/>
-      <x:c r="E27" s="41"/>
-      <x:c r="F27" s="41"/>
-      <x:c r="G27" s="42"/>
+      <x:c r="B27" s="42"/>
+      <x:c r="C27" s="43"/>
+      <x:c r="D27" s="43"/>
+      <x:c r="E27" s="43"/>
+      <x:c r="F27" s="43"/>
+      <x:c r="G27" s="44"/>
       <x:c r="H27" s="8"/>
       <x:c r="I27" s="3"/>
-      <x:c r="J27" s="3"/>
+      <x:c r="J27" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="K27" s="3"/>
       <x:c r="L27" s="3"/>
       <x:c r="M27" s="3"/>
@@ -3441,14 +3470,14 @@
     </x:row>
     <x:row r="28" spans="1:26" ht="20" customHeight="1">
       <x:c r="A28" s="5"/>
-      <x:c r="B28" s="43" t="s">
-        <x:v>73</x:v>
+      <x:c r="B28" s="45" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D28" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E28" s="7">
         <x:v>5</x:v>
@@ -3456,12 +3485,14 @@
       <x:c r="F28" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G28" s="34">
+      <x:c r="G28" s="36">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H28" s="8"/>
       <x:c r="I28" s="3"/>
-      <x:c r="J28" s="3"/>
+      <x:c r="J28" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K28" s="3"/>
       <x:c r="L28" s="3"/>
       <x:c r="M28" s="3"/>
@@ -3481,19 +3512,21 @@
     </x:row>
     <x:row r="29" spans="1:26" ht="20" customHeight="1">
       <x:c r="A29" s="5"/>
-      <x:c r="B29" s="43"/>
+      <x:c r="B29" s="45"/>
       <x:c r="C29" s="9" t="s">
-        <x:v>79</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
       <x:c r="E29" s="7"/>
       <x:c r="F29" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G29" s="43"/>
+      <x:c r="G29" s="45"/>
       <x:c r="H29" s="8"/>
       <x:c r="I29" s="3"/>
-      <x:c r="J29" s="3"/>
+      <x:c r="J29" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="K29" s="3"/>
       <x:c r="L29" s="3"/>
       <x:c r="M29" s="3"/>
@@ -3513,16 +3546,16 @@
     </x:row>
     <x:row r="30" spans="1:26" ht="20" customHeight="1">
       <x:c r="A30" s="5"/>
-      <x:c r="B30" s="54"/>
+      <x:c r="B30" s="56"/>
       <x:c r="C30" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D30" s="7"/>
       <x:c r="E30" s="7"/>
       <x:c r="F30" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G30" s="54"/>
+      <x:c r="G30" s="56"/>
       <x:c r="H30" s="8"/>
       <x:c r="I30" s="3"/>
       <x:c r="J30" s="3"/>
@@ -3545,12 +3578,12 @@
     </x:row>
     <x:row r="31" spans="1:26" ht="20" customHeight="1">
       <x:c r="A31" s="5"/>
-      <x:c r="B31" s="47"/>
-      <x:c r="C31" s="48"/>
-      <x:c r="D31" s="48"/>
-      <x:c r="E31" s="48"/>
-      <x:c r="F31" s="48"/>
-      <x:c r="G31" s="49"/>
+      <x:c r="B31" s="49"/>
+      <x:c r="C31" s="50"/>
+      <x:c r="D31" s="50"/>
+      <x:c r="E31" s="50"/>
+      <x:c r="F31" s="50"/>
+      <x:c r="G31" s="51"/>
       <x:c r="H31" s="8"/>
       <x:c r="I31" s="4"/>
       <x:c r="J31" s="4"/>
@@ -3573,12 +3606,12 @@
     </x:row>
     <x:row r="32" spans="1:26" ht="20" customHeight="1">
       <x:c r="A32" s="5"/>
-      <x:c r="B32" s="50"/>
-      <x:c r="C32" s="51"/>
-      <x:c r="D32" s="51"/>
-      <x:c r="E32" s="51"/>
-      <x:c r="F32" s="51"/>
-      <x:c r="G32" s="52"/>
+      <x:c r="B32" s="52"/>
+      <x:c r="C32" s="53"/>
+      <x:c r="D32" s="53"/>
+      <x:c r="E32" s="53"/>
+      <x:c r="F32" s="53"/>
+      <x:c r="G32" s="54"/>
       <x:c r="H32" s="8"/>
       <x:c r="I32" s="3"/>
       <x:c r="J32" s="3"/>
@@ -3601,30 +3634,30 @@
     </x:row>
     <x:row r="33" spans="1:26" ht="20" customHeight="1">
       <x:c r="A33" s="5"/>
-      <x:c r="B33" s="34" t="s">
-        <x:v>37</x:v>
+      <x:c r="B33" s="36" t="s">
+        <x:v>27</x:v>
       </x:c>
-      <x:c r="C33" s="28" t="s">
-        <x:v>48</x:v>
+      <x:c r="C33" s="26" t="s">
+        <x:v>22</x:v>
       </x:c>
-      <x:c r="D33" s="28" t="s">
-        <x:v>84</x:v>
+      <x:c r="D33" s="26" t="s">
+        <x:v>34</x:v>
       </x:c>
-      <x:c r="E33" s="28"/>
-      <x:c r="F33" s="28">
+      <x:c r="E33" s="26"/>
+      <x:c r="F33" s="26">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G33" s="34">
+      <x:c r="G33" s="36">
         <x:f>SUM(F33:F35)</x:f>
         <x:v>120</x:v>
       </x:c>
       <x:c r="H33" s="8"/>
       <x:c r="I33" s="3"/>
       <x:c r="J33" s="3"/>
-      <x:c r="K33" s="13"/>
-      <x:c r="L33" s="13"/>
-      <x:c r="M33" s="13"/>
-      <x:c r="N33" s="14"/>
+      <x:c r="K33" s="12"/>
+      <x:c r="L33" s="12"/>
+      <x:c r="M33" s="12"/>
+      <x:c r="N33" s="13"/>
       <x:c r="O33" s="3"/>
       <x:c r="P33" s="3"/>
       <x:c r="Q33" s="3"/>
@@ -3640,16 +3673,16 @@
     </x:row>
     <x:row r="34" spans="1:26" ht="20" customHeight="1">
       <x:c r="A34" s="5"/>
-      <x:c r="B34" s="35"/>
-      <x:c r="C34" s="63" t="s">
-        <x:v>45</x:v>
+      <x:c r="B34" s="37"/>
+      <x:c r="C34" s="32" t="s">
+        <x:v>19</x:v>
       </x:c>
-      <x:c r="D34" s="63"/>
-      <x:c r="E34" s="63"/>
-      <x:c r="F34" s="63">
+      <x:c r="D34" s="32"/>
+      <x:c r="E34" s="32"/>
+      <x:c r="F34" s="32">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G34" s="35"/>
+      <x:c r="G34" s="37"/>
       <x:c r="H34" s="8"/>
       <x:c r="I34" s="3"/>
       <x:c r="J34" s="3"/>
@@ -3672,16 +3705,16 @@
     </x:row>
     <x:row r="35" spans="1:26" ht="20" customHeight="1">
       <x:c r="A35" s="5"/>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="63" t="s">
-        <x:v>59</x:v>
+      <x:c r="B35" s="38"/>
+      <x:c r="C35" s="32" t="s">
+        <x:v>75</x:v>
       </x:c>
-      <x:c r="D35" s="63"/>
-      <x:c r="E35" s="63"/>
-      <x:c r="F35" s="63">
+      <x:c r="D35" s="32"/>
+      <x:c r="E35" s="32"/>
+      <x:c r="F35" s="32">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G35" s="36"/>
+      <x:c r="G35" s="38"/>
       <x:c r="H35" s="8"/>
       <x:c r="I35" s="3"/>
       <x:c r="J35" s="3"/>
@@ -3704,12 +3737,12 @@
     </x:row>
     <x:row r="36" spans="1:26" ht="20" customHeight="1">
       <x:c r="A36" s="5"/>
-      <x:c r="B36" s="37"/>
-      <x:c r="C36" s="38"/>
-      <x:c r="D36" s="38"/>
-      <x:c r="E36" s="38"/>
-      <x:c r="F36" s="38"/>
-      <x:c r="G36" s="39"/>
+      <x:c r="B36" s="39"/>
+      <x:c r="C36" s="40"/>
+      <x:c r="D36" s="40"/>
+      <x:c r="E36" s="40"/>
+      <x:c r="F36" s="40"/>
+      <x:c r="G36" s="41"/>
       <x:c r="H36" s="8"/>
       <x:c r="I36" s="4"/>
       <x:c r="J36" s="4"/>
@@ -3732,12 +3765,12 @@
     </x:row>
     <x:row r="37" spans="1:26" ht="20" customHeight="1">
       <x:c r="A37" s="5"/>
-      <x:c r="B37" s="40"/>
-      <x:c r="C37" s="41"/>
-      <x:c r="D37" s="41"/>
-      <x:c r="E37" s="41"/>
-      <x:c r="F37" s="41"/>
-      <x:c r="G37" s="42"/>
+      <x:c r="B37" s="42"/>
+      <x:c r="C37" s="43"/>
+      <x:c r="D37" s="43"/>
+      <x:c r="E37" s="43"/>
+      <x:c r="F37" s="43"/>
+      <x:c r="G37" s="44"/>
       <x:c r="H37" s="8"/>
       <x:c r="I37" s="3"/>
       <x:c r="J37" s="3"/>
@@ -3760,22 +3793,22 @@
     </x:row>
     <x:row r="38" spans="1:26" ht="20" customHeight="1">
       <x:c r="A38" s="5"/>
-      <x:c r="B38" s="34" t="s">
-        <x:v>53</x:v>
+      <x:c r="B38" s="36" t="s">
+        <x:v>13</x:v>
       </x:c>
-      <x:c r="C38" s="30" t="s">
-        <x:v>48</x:v>
+      <x:c r="C38" s="28" t="s">
+        <x:v>22</x:v>
       </x:c>
-      <x:c r="D38" s="30" t="s">
-        <x:v>87</x:v>
+      <x:c r="D38" s="28" t="s">
+        <x:v>33</x:v>
       </x:c>
-      <x:c r="E38" s="30">
+      <x:c r="E38" s="28">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F38" s="30">
+      <x:c r="F38" s="28">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G38" s="34">
+      <x:c r="G38" s="36">
         <x:f>SUM(F38:F40)</x:f>
         <x:v>120</x:v>
       </x:c>
@@ -3801,16 +3834,16 @@
     </x:row>
     <x:row r="39" spans="1:26" ht="20" customHeight="1">
       <x:c r="A39" s="5"/>
-      <x:c r="B39" s="43"/>
+      <x:c r="B39" s="45"/>
       <x:c r="C39" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D39" s="7"/>
       <x:c r="E39" s="7"/>
       <x:c r="F39" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G39" s="43"/>
+      <x:c r="G39" s="45"/>
       <x:c r="H39" s="8"/>
       <x:c r="I39" s="4"/>
       <x:c r="J39" s="4"/>
@@ -3833,16 +3866,16 @@
     </x:row>
     <x:row r="40" spans="1:26" ht="20" customHeight="1">
       <x:c r="A40" s="5"/>
-      <x:c r="B40" s="36"/>
-      <x:c r="C40" s="30" t="s">
-        <x:v>65</x:v>
+      <x:c r="B40" s="38"/>
+      <x:c r="C40" s="28" t="s">
+        <x:v>69</x:v>
       </x:c>
-      <x:c r="D40" s="30"/>
-      <x:c r="E40" s="30"/>
-      <x:c r="F40" s="30">
+      <x:c r="D40" s="28"/>
+      <x:c r="E40" s="28"/>
+      <x:c r="F40" s="28">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G40" s="36"/>
+      <x:c r="G40" s="38"/>
       <x:c r="H40" s="8"/>
       <x:c r="I40" s="3"/>
       <x:c r="J40" s="3"/>
@@ -3865,12 +3898,12 @@
     </x:row>
     <x:row r="41" spans="1:26" ht="20" customHeight="1">
       <x:c r="A41" s="5"/>
-      <x:c r="B41" s="37"/>
-      <x:c r="C41" s="38"/>
-      <x:c r="D41" s="38"/>
-      <x:c r="E41" s="38"/>
-      <x:c r="F41" s="38"/>
-      <x:c r="G41" s="39"/>
+      <x:c r="B41" s="39"/>
+      <x:c r="C41" s="40"/>
+      <x:c r="D41" s="40"/>
+      <x:c r="E41" s="40"/>
+      <x:c r="F41" s="40"/>
+      <x:c r="G41" s="41"/>
       <x:c r="H41" s="8"/>
       <x:c r="I41" s="3"/>
       <x:c r="J41" s="4"/>
@@ -3893,12 +3926,12 @@
     </x:row>
     <x:row r="42" spans="1:26" ht="20" customHeight="1">
       <x:c r="A42" s="5"/>
-      <x:c r="B42" s="40"/>
-      <x:c r="C42" s="41"/>
-      <x:c r="D42" s="41"/>
-      <x:c r="E42" s="41"/>
-      <x:c r="F42" s="41"/>
-      <x:c r="G42" s="42"/>
+      <x:c r="B42" s="42"/>
+      <x:c r="C42" s="43"/>
+      <x:c r="D42" s="43"/>
+      <x:c r="E42" s="43"/>
+      <x:c r="F42" s="43"/>
+      <x:c r="G42" s="44"/>
       <x:c r="H42" s="8"/>
       <x:c r="J42" s="3"/>
       <x:c r="K42" s="3"/>
@@ -3920,14 +3953,14 @@
     </x:row>
     <x:row r="43" spans="1:26" ht="20" customHeight="1">
       <x:c r="A43" s="5"/>
-      <x:c r="B43" s="34" t="s">
-        <x:v>35</x:v>
+      <x:c r="B43" s="36" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C43" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D43" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E43" s="7">
         <x:v>2</x:v>
@@ -3935,7 +3968,7 @@
       <x:c r="F43" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G43" s="34">
+      <x:c r="G43" s="36">
         <x:f>SUM(F43:F44)</x:f>
         <x:v>48</x:v>
       </x:c>
@@ -3961,16 +3994,16 @@
     </x:row>
     <x:row r="44" spans="1:26" ht="20" customHeight="1">
       <x:c r="A44" s="5"/>
-      <x:c r="B44" s="36"/>
+      <x:c r="B44" s="38"/>
       <x:c r="C44" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D44" s="7"/>
       <x:c r="E44" s="7"/>
       <x:c r="F44" s="7">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G44" s="36"/>
+      <x:c r="G44" s="38"/>
       <x:c r="H44" s="8"/>
       <x:c r="I44" s="3"/>
       <x:c r="J44" s="3"/>
@@ -3993,12 +4026,12 @@
     </x:row>
     <x:row r="45" spans="1:26" ht="20" customHeight="1">
       <x:c r="A45" s="5"/>
-      <x:c r="B45" s="37"/>
-      <x:c r="C45" s="38"/>
-      <x:c r="D45" s="38"/>
-      <x:c r="E45" s="38"/>
-      <x:c r="F45" s="38"/>
-      <x:c r="G45" s="39"/>
+      <x:c r="B45" s="39"/>
+      <x:c r="C45" s="40"/>
+      <x:c r="D45" s="40"/>
+      <x:c r="E45" s="40"/>
+      <x:c r="F45" s="40"/>
+      <x:c r="G45" s="41"/>
       <x:c r="H45" s="8"/>
       <x:c r="I45" s="4"/>
       <x:c r="J45" s="4"/>
@@ -4021,12 +4054,12 @@
     </x:row>
     <x:row r="46" spans="1:26" ht="20" customHeight="1">
       <x:c r="A46" s="5"/>
-      <x:c r="B46" s="44"/>
-      <x:c r="C46" s="45"/>
-      <x:c r="D46" s="45"/>
-      <x:c r="E46" s="45"/>
-      <x:c r="F46" s="45"/>
-      <x:c r="G46" s="46"/>
+      <x:c r="B46" s="46"/>
+      <x:c r="C46" s="47"/>
+      <x:c r="D46" s="47"/>
+      <x:c r="E46" s="47"/>
+      <x:c r="F46" s="47"/>
+      <x:c r="G46" s="48"/>
       <x:c r="H46" s="6"/>
       <x:c r="I46" s="3"/>
       <x:c r="J46" s="3"/>
@@ -4049,23 +4082,23 @@
     </x:row>
     <x:row r="47" spans="1:26" ht="20" customHeight="1">
       <x:c r="A47" s="5"/>
-      <x:c r="B47" s="55" t="s">
-        <x:v>40</x:v>
+      <x:c r="B47" s="57" t="s">
+        <x:v>17</x:v>
       </x:c>
-      <x:c r="C47" s="61" t="s">
-        <x:v>21</x:v>
+      <x:c r="C47" s="30" t="s">
+        <x:v>60</x:v>
       </x:c>
-      <x:c r="D47" s="61" t="s">
-        <x:v>88</x:v>
+      <x:c r="D47" s="30" t="s">
+        <x:v>36</x:v>
       </x:c>
-      <x:c r="E47" s="61">
+      <x:c r="E47" s="30">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F47" s="62">
+      <x:c r="F47" s="31">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G47" s="57">
-        <x:v>60</x:v>
+      <x:c r="G47" s="59">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H47" s="6"/>
       <x:c r="I47" s="3"/>
@@ -4089,16 +4122,16 @@
     </x:row>
     <x:row r="48" spans="1:26" ht="20" customHeight="1">
       <x:c r="A48" s="5"/>
-      <x:c r="B48" s="56"/>
-      <x:c r="C48" s="15" t="s">
-        <x:v>83</x:v>
+      <x:c r="B48" s="58"/>
+      <x:c r="C48" s="14" t="s">
+        <x:v>50</x:v>
       </x:c>
-      <x:c r="D48" s="15"/>
-      <x:c r="E48" s="15"/>
-      <x:c r="F48" s="16">
-        <x:v>40</x:v>
+      <x:c r="D48" s="14"/>
+      <x:c r="E48" s="14"/>
+      <x:c r="F48" s="15">
+        <x:v>50</x:v>
       </x:c>
-      <x:c r="G48" s="58"/>
+      <x:c r="G48" s="60"/>
       <x:c r="H48" s="6"/>
       <x:c r="I48" s="3"/>
       <x:c r="J48" s="3"/>
@@ -4121,12 +4154,12 @@
     </x:row>
     <x:row r="49" spans="1:26" ht="25" customHeight="1">
       <x:c r="A49" s="5"/>
-      <x:c r="B49" s="59"/>
-      <x:c r="C49" s="59"/>
-      <x:c r="D49" s="59"/>
-      <x:c r="E49" s="59"/>
-      <x:c r="F49" s="59"/>
-      <x:c r="G49" s="59"/>
+      <x:c r="B49" s="61"/>
+      <x:c r="C49" s="61"/>
+      <x:c r="D49" s="61"/>
+      <x:c r="E49" s="61"/>
+      <x:c r="F49" s="61"/>
+      <x:c r="G49" s="61"/>
       <x:c r="H49" s="6"/>
       <x:c r="I49" s="3"/>
       <x:c r="J49" s="3"/>
@@ -4149,12 +4182,12 @@
     </x:row>
     <x:row r="50" spans="1:26" ht="23.5">
       <x:c r="A50" s="6"/>
-      <x:c r="B50" s="60"/>
-      <x:c r="C50" s="60"/>
-      <x:c r="D50" s="60"/>
-      <x:c r="E50" s="60"/>
-      <x:c r="F50" s="60"/>
-      <x:c r="G50" s="60"/>
+      <x:c r="B50" s="62"/>
+      <x:c r="C50" s="62"/>
+      <x:c r="D50" s="62"/>
+      <x:c r="E50" s="62"/>
+      <x:c r="F50" s="62"/>
+      <x:c r="G50" s="62"/>
       <x:c r="H50" s="6"/>
       <x:c r="I50" s="3"/>
       <x:c r="J50" s="3"/>
@@ -4177,18 +4210,18 @@
     </x:row>
     <x:row r="51" spans="1:26" ht="23.5">
       <x:c r="A51" s="6"/>
-      <x:c r="B51" s="34" t="s">
-        <x:v>77</x:v>
+      <x:c r="B51" s="36" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C51" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D51" s="7"/>
       <x:c r="E51" s="7"/>
       <x:c r="F51" s="7">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G51" s="34">
+      <x:c r="G51" s="36">
         <x:f>SUM(F51:F52)</x:f>
         <x:v>76</x:v>
       </x:c>
@@ -4213,16 +4246,16 @@
       <x:c r="Z51" s="3"/>
     </x:row>
     <x:row r="52" spans="2:26" ht="23.5">
-      <x:c r="B52" s="34"/>
+      <x:c r="B52" s="36"/>
       <x:c r="C52" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D52" s="7"/>
       <x:c r="E52" s="7"/>
       <x:c r="F52" s="7">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G52" s="34"/>
+      <x:c r="G52" s="36"/>
       <x:c r="H52" s="8"/>
       <x:c r="I52" s="3"/>
       <x:c r="J52" s="3"/>
@@ -4249,11 +4282,11 @@
       <x:c r="D53" s="6"/>
       <x:c r="E53" s="6"/>
       <x:c r="F53" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G53" s="7">
         <x:f>SUM(G3:G48)</x:f>
-        <x:v>1065</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="H53" s="8"/>
       <x:c r="I53" s="3"/>
@@ -31010,7 +31043,7 @@
       <x:c r="Z1009" s="3"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="28">
+  <x:mergeCells count="29">
     <x:mergeCell ref="F2:G2"/>
     <x:mergeCell ref="B3:B8"/>
     <x:mergeCell ref="G3:G8"/>
@@ -31039,6 +31072,7 @@
     <x:mergeCell ref="B51:B52"/>
     <x:mergeCell ref="G51:G52"/>
     <x:mergeCell ref="J17:M18"/>
+    <x:mergeCell ref="J24:M25"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/document/ZinZara.xlsx
+++ b/document/ZinZara.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
-  <x:si>
-    <x:t>모션인식 모델 구동(40)</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <x:si>
     <x:r>
       <x:t>2(</x:t>
@@ -35,21 +32,6 @@
       </x:rPr>
       <x:t>시간) * 5(일) * 3(명) * 14(주) = 420</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>모션 연구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디바이스 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 5일 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아홉번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5/16 ~ 5/27</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -65,70 +47,124 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>docker(50)</x:t>
+    <x:t>디바이스 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>여덟번째 스프린트</x:t>
+    <x:t>aws(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버로 사진 전송</x:t>
+    <x:t>모션 연구</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입</x:t>
+    <x:t>명령어 실행</x:t>
   </x:si>
   <x:si>
-    <x:t>재활 프로그램 관리</x:t>
+    <x:t>docker</x:t>
   </x:si>
   <x:si>
-    <x:t>운동 재활 프로그램</x:t>
+    <x:t>앱과 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>두번째 스프린트</x:t>
+    <x:t>액티비티 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 TTS 연동</x:t>
+    <x:t>주 5일 개발</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버와 연동</x:t>
+    <x:t>기기 연결</x:t>
   </x:si>
   <x:si>
-    <x:t>클라우드 플랫폼</x:t>
+    <x:t>UI 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>User Story</x:t>
+    <x:t>서버 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>음성과 단어 매치</x:t>
+    <x:t>기기 해제</x:t>
   </x:si>
   <x:si>
-    <x:t>모션인식 모델 구동</x:t>
+    <x:t>추가 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 관리</x:t>
+    <x:t>데이터베이스</x:t>
   </x:si>
   <x:si>
-    <x:t>매칭률 점수 계산</x:t>
+    <x:t>서버 구축</x:t>
   </x:si>
   <x:si>
-    <x:t>세번째 스프린트</x:t>
+    <x:t>명령어 커스텀</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 STT 연동</x:t>
+    <x:t>5/30 ~ 6/10</x:t>
   </x:si>
   <x:si>
-    <x:t>기상청 API 연동</x:t>
+    <x:t>연결된 기기 관리(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정보 관리</x:t>
+    <x:t>모션 인식 정보 관리(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>언어 재활 프로그램</x:t>
+    <x:t>구글 STT 연동(35)</x:t>
   </x:si>
   <x:si>
-    <x:t>사진과 동작 매치</x:t>
+    <x:t>재활 프로그램 관리(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>첫번째 스프린트</x:t>
+    <x:t>로그인/회원가입(16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션인식 모델 구동(40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 TTS 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 설계(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기상청 API 연동(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필립스 휴  API 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 목록 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 데이터셋 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 명령 실행(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprint Backlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 서버로 사진 전송(40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정확도 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/16 ~ 5/27(90)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다섯번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 명령 실행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션인식 모델 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일곱번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버 구축(50)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -165,94 +201,115 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱과 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 실행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션인식 모델 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여섯번쨰 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스  설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일곱번째 스프린트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 구축(50)</x:t>
-  </x:si>
-  <x:si>
     <x:t>앱 디자인 구성</x:t>
   </x:si>
   <x:si>
     <x:t>Story Point</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 명령 실행</x:t>
+    <x:t>여섯번쨰 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>다섯번째 스프린트</x:t>
+    <x:t>네번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>docker</x:t>
+    <x:t>docker(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>기기 연결</x:t>
+    <x:t>아홉번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>명령어 커스텀</x:t>
+    <x:t>로그인/회원가입</x:t>
   </x:si>
   <x:si>
-    <x:t>추가 기능</x:t>
+    <x:t>웹 서버로 사진 전송</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 설계</x:t>
+    <x:t>첫번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>기기 해제</x:t>
+    <x:t>데이터베이스  설계</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 구축</x:t>
+    <x:t>여덟번째 스프린트</x:t>
   </x:si>
   <x:si>
-    <x:t>UI 설계</x:t>
+    <x:t>운동 재활 프로그램</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터베이스</x:t>
+    <x:t>기상청 API 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 인식 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음성과 단어 매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클라우드 플랫폼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재활 프로그램 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션인식 모델 구동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진과 동작 매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 STT 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 프로그램</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 기기 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Story</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 서버와 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매칭률 점수 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 TTS 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱과 연동(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열번째 스프린트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면에 나오는 모션을 따라하며 운동 재활을 할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버에서 모델을 구동하고 앱/데이터베이스를 연결한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동 재활 - 매칭률 점수 데이터베이스에 저장(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aws에서 도커를 활용해 관리 및 서비스를 제공한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면에 나오는 단어를 말하며 언어 재활을 할수 있다</x:t>
   </x:si>
   <x:si>
     <x:t>개강</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aws</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">서버 </x:t>
@@ -264,10 +321,22 @@
     <x:t>방학</x:t>
   </x:si>
   <x:si>
-    <x:t>앱과 연동(24)</x:t>
+    <x:t>aws</x:t>
   </x:si>
   <x:si>
-    <x:t>액티비티 설계</x:t>
+    <x:t>3/21 ~ 4/1(100시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/2 ~ 5/13(94시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액티비티 설계(24) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모션 연구(36) - Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/7 ~ 3/18(115시간)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -283,13 +352,10 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>4/4 ~ 4/15(90시간)</x:t>
+    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
   </x:si>
   <x:si>
-    <x:t>5/2 ~ 5/13(94시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">매칭률 점수 데이테베이스에 저장 </x:t>
+    <x:t>디바이스들을 연결/해제할 수 있다</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -305,28 +371,16 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>매칭률 점수 데이터베이스에 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/10 ~ 1/21 (150시간)</x:t>
+  </x:si>
+  <x:si>
     <x:t>데이터베이스와 서버 연동(36)</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 연구(36) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/7 ~ 3/18(115시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/21 ~ 4/1(100시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매칭률 점수 데이터베이스에 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디바이스들을 연결/해제할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액티비티 설계(24) - Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/10 ~ 1/21 (150시간)</x:t>
+    <x:t>4/4 ~ 4/15(90시간)</x:t>
   </x:si>
   <x:si>
     <x:t>모션 인식 데이터셋 생성(24) - Done</x:t>
@@ -335,60 +389,16 @@
     <x:t>손가락 제스처/음성을 기반으로 명령어를 실행한다</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디바이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>해제</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(10) - Done</x:t>
-    </x:r>
+    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
+    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>필립스 휴 API 연동(36) - Done</x:t>
+    <x:t>언어 재활 - 음성과 단어 매치(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -457,26 +467,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>어플을 쉽고 편리하게 사용할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 재활 - 매칭률 점수 계산(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1/24 ~ 2/4 (105</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시간)(설)</x:t>
-    </x:r>
+    <x:t>데이터베이스를 통해 정보들을 관리한다</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -529,7 +520,17 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Estimate Time (단위: 시간)</x:t>
+    <x:r>
+      <x:t>1/24 ~ 2/4 (105</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>시간)(설)</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -598,55 +599,78 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>언어 재활 - 음성과 단어 매치(50)</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디바이스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>연결</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>해제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(10) - Done</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 목록 보기</x:t>
+    <x:t>필립스 휴 API 연동(36) - Done</x:t>
   </x:si>
   <x:si>
-    <x:t>모션 인식 정확도 개선</x:t>
+    <x:t>Estimate Time (단위: 시간)</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인/회원가입(16)</x:t>
+    <x:t>운동 재활 - 사진과 동작 매치(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 TTS 연동(36)</x:t>
+    <x:t>UI 설계(24)</x:t>
   </x:si>
   <x:si>
-    <x:t>Sprint Backlog</x:t>
+    <x:t>SMS 호스팅</x:t>
   </x:si>
   <x:si>
-    <x:t>연결된 기기 관리(30)</x:t>
+    <x:t>문자 전송</x:t>
   </x:si>
   <x:si>
-    <x:t>기상청 API 연동(36)</x:t>
+    <x:t>점수 감시</x:t>
   </x:si>
   <x:si>
-    <x:t>웹 서버로 사진 전송(40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 STT 연동(35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필립스 휴  API 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 설계(24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 데이터셋 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 명령 실행(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모션 인식 정보 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재활 프로그램 관리(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Backlog</x:t>
+    <x:t>재활 점수가 하락하는 사람에게 문자를 전송해 알린다</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -739,7 +763,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="26">
+  <x:borders count="31">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -779,20 +803,6 @@
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -884,34 +894,6 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
@@ -920,118 +902,6 @@
       </x:top>
       <x:bottom>
         <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -1066,24 +936,108 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
         <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -1092,15 +1046,155 @@
     </x:border>
     <x:border>
       <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
       <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -1110,7 +1204,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="66">
+  <x:cellXfs count="71">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1226,19 +1320,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1265,39 +1346,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1317,13 +1385,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1341,39 +1409,26 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1385,19 +1440,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1417,13 +1459,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1443,45 +1485,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1495,139 +1498,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -1647,26 +1537,444 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1699,182 +2007,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2483,10 +2622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:Z1009"/>
+  <x:dimension ref="A1:Z1016"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J38" activeCellId="0" sqref="J38:J38"/>
+    <x:sheetView tabSelected="1" topLeftCell="E19" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L47" activeCellId="0" sqref="L47:L47"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2534,23 +2673,23 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="20" customHeight="1">
       <x:c r="A2" s="5"/>
-      <x:c r="B2" s="7" t="s">
-        <x:v>108</x:v>
+      <x:c r="B2" s="27" t="s">
+        <x:v>26</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s">
-        <x:v>97</x:v>
+      <x:c r="C2" s="27" t="s">
+        <x:v>33</x:v>
       </x:c>
-      <x:c r="D2" s="7" t="s">
-        <x:v>18</x:v>
+      <x:c r="D2" s="27" t="s">
+        <x:v>66</x:v>
       </x:c>
-      <x:c r="E2" s="7" t="s">
-        <x:v>47</x:v>
+      <x:c r="E2" s="27" t="s">
+        <x:v>44</x:v>
       </x:c>
-      <x:c r="F2" s="34" t="s">
-        <x:v>90</x:v>
+      <x:c r="F2" s="31" t="s">
+        <x:v>110</x:v>
       </x:c>
-      <x:c r="G2" s="35"/>
-      <x:c r="H2" s="8"/>
+      <x:c r="G2" s="64"/>
+      <x:c r="H2" s="6"/>
       <x:c r="I2" s="3"/>
       <x:c r="J2" s="3"/>
       <x:c r="K2" s="3"/>
@@ -2572,26 +2711,26 @@
     </x:row>
     <x:row r="3" spans="1:26" ht="20" customHeight="1">
       <x:c r="A3" s="5"/>
-      <x:c r="B3" s="36" t="s">
-        <x:v>58</x:v>
+      <x:c r="B3" s="45" t="s">
+        <x:v>15</x:v>
       </x:c>
-      <x:c r="C3" s="9" t="s">
-        <x:v>42</x:v>
+      <x:c r="C3" s="46" t="s">
+        <x:v>52</x:v>
       </x:c>
-      <x:c r="D3" s="9" t="s">
-        <x:v>82</x:v>
+      <x:c r="D3" s="46" t="s">
+        <x:v>104</x:v>
       </x:c>
-      <x:c r="E3" s="9">
+      <x:c r="E3" s="46">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F3" s="9">
+      <x:c r="F3" s="46">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G3" s="36">
+      <x:c r="G3" s="48">
         <x:f>SUM(F3:F8)</x:f>
         <x:v>166</x:v>
       </x:c>
-      <x:c r="H3" s="8"/>
+      <x:c r="H3" s="6"/>
       <x:c r="I3" s="3"/>
       <x:c r="J3" s="3"/>
       <x:c r="K3" s="3"/>
@@ -2613,17 +2752,17 @@
     </x:row>
     <x:row r="4" spans="1:26" ht="20" customHeight="1">
       <x:c r="A4" s="5"/>
-      <x:c r="B4" s="37"/>
+      <x:c r="B4" s="58"/>
       <x:c r="C4" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="9"/>
       <x:c r="F4" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G4" s="37"/>
-      <x:c r="H4" s="8"/>
+      <x:c r="G4" s="59"/>
+      <x:c r="H4" s="6"/>
       <x:c r="I4" s="3"/>
       <x:c r="J4" s="3"/>
       <x:c r="K4" s="3"/>
@@ -2645,17 +2784,17 @@
     </x:row>
     <x:row r="5" spans="1:26" ht="20" customHeight="1">
       <x:c r="A5" s="5"/>
-      <x:c r="B5" s="37"/>
-      <x:c r="C5" s="11" t="s">
-        <x:v>12</x:v>
+      <x:c r="B5" s="58"/>
+      <x:c r="C5" s="9" t="s">
+        <x:v>59</x:v>
       </x:c>
-      <x:c r="D5" s="11"/>
-      <x:c r="E5" s="11"/>
-      <x:c r="F5" s="11">
+      <x:c r="D5" s="9"/>
+      <x:c r="E5" s="9"/>
+      <x:c r="F5" s="9">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G5" s="37"/>
-      <x:c r="H5" s="8"/>
+      <x:c r="G5" s="59"/>
+      <x:c r="H5" s="6"/>
       <x:c r="I5" s="3"/>
       <x:c r="J5" s="3"/>
       <x:c r="K5" s="3"/>
@@ -2676,20 +2815,20 @@
     </x:row>
     <x:row r="6" spans="1:26" ht="20" customHeight="1">
       <x:c r="A6" s="5"/>
-      <x:c r="B6" s="37"/>
-      <x:c r="C6" s="26" t="s">
-        <x:v>21</x:v>
+      <x:c r="B6" s="58"/>
+      <x:c r="C6" s="9" t="s">
+        <x:v>65</x:v>
       </x:c>
-      <x:c r="D6" s="26"/>
-      <x:c r="E6" s="26"/>
-      <x:c r="F6" s="26">
+      <x:c r="D6" s="9"/>
+      <x:c r="E6" s="9"/>
+      <x:c r="F6" s="9">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="37"/>
-      <x:c r="H6" s="8"/>
+      <x:c r="G6" s="59"/>
+      <x:c r="H6" s="6"/>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K6" s="3"/>
       <x:c r="L6" s="3"/>
@@ -2709,22 +2848,22 @@
     </x:row>
     <x:row r="7" spans="1:26" ht="20" customHeight="1">
       <x:c r="A7" s="5"/>
-      <x:c r="B7" s="37"/>
-      <x:c r="C7" s="28" t="s">
-        <x:v>26</x:v>
+      <x:c r="B7" s="58"/>
+      <x:c r="C7" s="9" t="s">
+        <x:v>56</x:v>
       </x:c>
-      <x:c r="D7" s="28"/>
-      <x:c r="E7" s="28"/>
-      <x:c r="F7" s="28">
+      <x:c r="D7" s="9"/>
+      <x:c r="E7" s="9"/>
+      <x:c r="F7" s="9">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G7" s="37"/>
-      <x:c r="H7" s="8"/>
+      <x:c r="G7" s="59"/>
+      <x:c r="H7" s="6"/>
       <x:c r="I7" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J7" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K7" s="3"/>
       <x:c r="L7" s="3"/>
@@ -2744,22 +2883,22 @@
     </x:row>
     <x:row r="8" spans="1:26" ht="20" customHeight="1">
       <x:c r="A8" s="5"/>
-      <x:c r="B8" s="38"/>
-      <x:c r="C8" s="9" t="s">
-        <x:v>11</x:v>
+      <x:c r="B8" s="49"/>
+      <x:c r="C8" s="54" t="s">
+        <x:v>49</x:v>
       </x:c>
-      <x:c r="D8" s="9"/>
-      <x:c r="E8" s="9"/>
-      <x:c r="F8" s="9">
+      <x:c r="D8" s="54"/>
+      <x:c r="E8" s="54"/>
+      <x:c r="F8" s="54">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G8" s="38"/>
-      <x:c r="H8" s="8"/>
+      <x:c r="G8" s="51"/>
+      <x:c r="H8" s="6"/>
       <x:c r="I8" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J8" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="3"/>
       <x:c r="L8" s="3"/>
@@ -2779,13 +2918,13 @@
     </x:row>
     <x:row r="9" spans="1:26" ht="20" customHeight="1">
       <x:c r="A9" s="5"/>
-      <x:c r="B9" s="39"/>
-      <x:c r="C9" s="40"/>
-      <x:c r="D9" s="40"/>
-      <x:c r="E9" s="40"/>
-      <x:c r="F9" s="40"/>
-      <x:c r="G9" s="41"/>
-      <x:c r="H9" s="8"/>
+      <x:c r="B9" s="28"/>
+      <x:c r="C9" s="29"/>
+      <x:c r="D9" s="29"/>
+      <x:c r="E9" s="29"/>
+      <x:c r="F9" s="29"/>
+      <x:c r="G9" s="30"/>
+      <x:c r="H9" s="6"/>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="6"/>
       <x:c r="K9" s="3"/>
@@ -2806,27 +2945,27 @@
     </x:row>
     <x:row r="10" spans="1:26" ht="20" customHeight="1">
       <x:c r="A10" s="5"/>
-      <x:c r="B10" s="42"/>
-      <x:c r="C10" s="43"/>
-      <x:c r="D10" s="43"/>
-      <x:c r="E10" s="43"/>
-      <x:c r="F10" s="43"/>
-      <x:c r="G10" s="44"/>
-      <x:c r="H10" s="8"/>
+      <x:c r="B10" s="28"/>
+      <x:c r="C10" s="29"/>
+      <x:c r="D10" s="29"/>
+      <x:c r="E10" s="29"/>
+      <x:c r="F10" s="29"/>
+      <x:c r="G10" s="30"/>
+      <x:c r="H10" s="6"/>
       <x:c r="I10" s="3"/>
-      <x:c r="J10" s="16" t="s">
-        <x:v>29</x:v>
+      <x:c r="J10" s="13" t="s">
+        <x:v>51</x:v>
       </x:c>
-      <x:c r="K10" s="16" t="s">
-        <x:v>14</x:v>
+      <x:c r="K10" s="13" t="s">
+        <x:v>64</x:v>
       </x:c>
-      <x:c r="L10" s="16" t="s">
-        <x:v>23</x:v>
+      <x:c r="L10" s="13" t="s">
+        <x:v>71</x:v>
       </x:c>
-      <x:c r="M10" s="16" t="s">
-        <x:v>43</x:v>
+      <x:c r="M10" s="13" t="s">
+        <x:v>46</x:v>
       </x:c>
-      <x:c r="N10" s="21"/>
+      <x:c r="N10" s="18"/>
       <x:c r="O10" s="3"/>
       <x:c r="P10" s="3"/>
       <x:c r="Q10" s="3"/>
@@ -2842,40 +2981,40 @@
     </x:row>
     <x:row r="11" spans="1:26" ht="20" customHeight="1">
       <x:c r="A11" s="5"/>
-      <x:c r="B11" s="36" t="s">
-        <x:v>61</x:v>
+      <x:c r="B11" s="45" t="s">
+        <x:v>80</x:v>
       </x:c>
-      <x:c r="C11" s="7" t="s">
-        <x:v>20</x:v>
+      <x:c r="C11" s="46" t="s">
+        <x:v>60</x:v>
       </x:c>
-      <x:c r="D11" s="7" t="s">
-        <x:v>32</x:v>
+      <x:c r="D11" s="46" t="s">
+        <x:v>74</x:v>
       </x:c>
-      <x:c r="E11" s="7">
+      <x:c r="E11" s="46">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F11" s="7">
+      <x:c r="F11" s="46">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G11" s="36">
+      <x:c r="G11" s="48">
         <x:f>SUM(F11:F14)</x:f>
         <x:v>138</x:v>
       </x:c>
-      <x:c r="H11" s="8"/>
+      <x:c r="H11" s="6"/>
       <x:c r="I11" s="3"/>
-      <x:c r="J11" s="17" t="s">
-        <x:v>78</x:v>
+      <x:c r="J11" s="14" t="s">
+        <x:v>94</x:v>
       </x:c>
-      <x:c r="K11" s="17" t="s">
-        <x:v>88</x:v>
+      <x:c r="K11" s="14" t="s">
+        <x:v>106</x:v>
       </x:c>
-      <x:c r="L11" s="17" t="s">
-        <x:v>66</x:v>
+      <x:c r="L11" s="14" t="s">
+        <x:v>89</x:v>
       </x:c>
-      <x:c r="M11" s="17" t="s">
-        <x:v>70</x:v>
+      <x:c r="M11" s="14" t="s">
+        <x:v>92</x:v>
       </x:c>
-      <x:c r="N11" s="22"/>
+      <x:c r="N11" s="19"/>
       <x:c r="O11" s="3"/>
       <x:c r="P11" s="3"/>
       <x:c r="Q11" s="3"/>
@@ -2891,31 +3030,31 @@
     </x:row>
     <x:row r="12" spans="1:26" ht="20" customHeight="1">
       <x:c r="A12" s="5"/>
-      <x:c r="B12" s="37"/>
-      <x:c r="C12" s="64" t="s">
-        <x:v>38</x:v>
+      <x:c r="B12" s="58"/>
+      <x:c r="C12" s="9" t="s">
+        <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="64"/>
-      <x:c r="E12" s="64"/>
-      <x:c r="F12" s="64">
+      <x:c r="D12" s="9"/>
+      <x:c r="E12" s="9"/>
+      <x:c r="F12" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G12" s="37"/>
-      <x:c r="H12" s="8"/>
+      <x:c r="G12" s="59"/>
+      <x:c r="H12" s="6"/>
       <x:c r="I12" s="3"/>
-      <x:c r="J12" s="17" t="s">
-        <x:v>72</x:v>
+      <x:c r="J12" s="14" t="s">
+        <x:v>87</x:v>
       </x:c>
-      <x:c r="K12" s="17" t="s">
-        <x:v>81</x:v>
+      <x:c r="K12" s="14" t="s">
+        <x:v>108</x:v>
       </x:c>
-      <x:c r="L12" s="17" t="s">
-        <x:v>30</x:v>
+      <x:c r="L12" s="14" t="s">
+        <x:v>42</x:v>
       </x:c>
-      <x:c r="M12" s="17" t="s">
-        <x:v>99</x:v>
+      <x:c r="M12" s="14" t="s">
+        <x:v>28</x:v>
       </x:c>
-      <x:c r="N12" s="23"/>
+      <x:c r="N12" s="20"/>
       <x:c r="O12" s="3"/>
       <x:c r="P12" s="3"/>
       <x:c r="Q12" s="3"/>
@@ -2931,31 +3070,31 @@
     </x:row>
     <x:row r="13" spans="1:26" ht="20" customHeight="1">
       <x:c r="A13" s="5"/>
-      <x:c r="B13" s="37"/>
+      <x:c r="B13" s="58"/>
       <x:c r="C13" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D13" s="9"/>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="37"/>
-      <x:c r="H13" s="8"/>
+      <x:c r="G13" s="59"/>
+      <x:c r="H13" s="6"/>
       <x:c r="I13" s="3"/>
-      <x:c r="J13" s="17" t="s">
-        <x:v>83</x:v>
+      <x:c r="J13" s="14" t="s">
+        <x:v>109</x:v>
       </x:c>
-      <x:c r="K13" s="17" t="s">
-        <x:v>84</x:v>
+      <x:c r="K13" s="14" t="s">
+        <x:v>103</x:v>
       </x:c>
-      <x:c r="L13" s="17" t="s">
-        <x:v>45</x:v>
+      <x:c r="L13" s="14" t="s">
+        <x:v>41</x:v>
       </x:c>
-      <x:c r="M13" s="17" t="s">
-        <x:v>96</x:v>
+      <x:c r="M13" s="14" t="s">
+        <x:v>25</x:v>
       </x:c>
-      <x:c r="N13" s="22"/>
+      <x:c r="N13" s="19"/>
       <x:c r="O13" s="3"/>
       <x:c r="P13" s="4"/>
       <x:c r="Q13" s="4"/>
@@ -2971,31 +3110,31 @@
     </x:row>
     <x:row r="14" spans="1:26" ht="20" customHeight="1">
       <x:c r="A14" s="5"/>
-      <x:c r="B14" s="38"/>
-      <x:c r="C14" s="9" t="s">
-        <x:v>54</x:v>
+      <x:c r="B14" s="49"/>
+      <x:c r="C14" s="54" t="s">
+        <x:v>12</x:v>
       </x:c>
-      <x:c r="D14" s="9"/>
-      <x:c r="E14" s="9"/>
-      <x:c r="F14" s="9">
+      <x:c r="D14" s="54"/>
+      <x:c r="E14" s="54"/>
+      <x:c r="F14" s="54">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="38"/>
-      <x:c r="H14" s="8"/>
+      <x:c r="G14" s="51"/>
+      <x:c r="H14" s="6"/>
       <x:c r="I14" s="3"/>
-      <x:c r="J14" s="17" t="s">
-        <x:v>79</x:v>
+      <x:c r="J14" s="14" t="s">
+        <x:v>97</x:v>
       </x:c>
-      <x:c r="K14" s="17" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="L14" s="17" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="M14" s="17" t="s">
+      <x:c r="K14" s="14" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="N14" s="24"/>
+      <x:c r="L14" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M14" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N14" s="21"/>
       <x:c r="O14" s="3"/>
       <x:c r="P14" s="3"/>
       <x:c r="Q14" s="3"/>
@@ -3011,22 +3150,22 @@
     </x:row>
     <x:row r="15" spans="1:26" ht="20" customHeight="1">
       <x:c r="A15" s="5"/>
-      <x:c r="B15" s="39"/>
-      <x:c r="C15" s="40"/>
-      <x:c r="D15" s="40"/>
-      <x:c r="E15" s="40"/>
-      <x:c r="F15" s="40"/>
-      <x:c r="G15" s="41"/>
-      <x:c r="H15" s="8"/>
+      <x:c r="B15" s="28"/>
+      <x:c r="C15" s="29"/>
+      <x:c r="D15" s="29"/>
+      <x:c r="E15" s="29"/>
+      <x:c r="F15" s="29"/>
+      <x:c r="G15" s="30"/>
+      <x:c r="H15" s="6"/>
       <x:c r="I15" s="3"/>
-      <x:c r="J15" s="17" t="s">
-        <x:v>77</x:v>
+      <x:c r="J15" s="14" t="s">
+        <x:v>86</x:v>
       </x:c>
-      <x:c r="K15" s="19"/>
-      <x:c r="L15" s="17" t="s">
-        <x:v>103</x:v>
+      <x:c r="K15" s="16"/>
+      <x:c r="L15" s="14" t="s">
+        <x:v>27</x:v>
       </x:c>
-      <x:c r="M15" s="19"/>
+      <x:c r="M15" s="16"/>
       <x:c r="O15" s="3"/>
       <x:c r="P15" s="4"/>
       <x:c r="Q15" s="4"/>
@@ -3042,22 +3181,22 @@
     </x:row>
     <x:row r="16" spans="1:26" ht="20" customHeight="1">
       <x:c r="A16" s="5"/>
-      <x:c r="B16" s="42"/>
-      <x:c r="C16" s="43"/>
-      <x:c r="D16" s="43"/>
-      <x:c r="E16" s="43"/>
-      <x:c r="F16" s="43"/>
-      <x:c r="G16" s="44"/>
-      <x:c r="H16" s="8"/>
+      <x:c r="B16" s="28"/>
+      <x:c r="C16" s="29"/>
+      <x:c r="D16" s="29"/>
+      <x:c r="E16" s="29"/>
+      <x:c r="F16" s="29"/>
+      <x:c r="G16" s="30"/>
+      <x:c r="H16" s="6"/>
       <x:c r="I16" s="3"/>
-      <x:c r="J16" s="18" t="s">
-        <x:v>89</x:v>
+      <x:c r="J16" s="15" t="s">
+        <x:v>105</x:v>
       </x:c>
-      <x:c r="K16" s="20"/>
-      <x:c r="L16" s="18" t="s">
-        <x:v>71</x:v>
+      <x:c r="K16" s="17"/>
+      <x:c r="L16" s="15" t="s">
+        <x:v>95</x:v>
       </x:c>
-      <x:c r="M16" s="20"/>
+      <x:c r="M16" s="17"/>
       <x:c r="O16" s="3"/>
       <x:c r="P16" s="3"/>
       <x:c r="Q16" s="3"/>
@@ -3073,31 +3212,31 @@
     </x:row>
     <x:row r="17" spans="1:26" ht="20" customHeight="1">
       <x:c r="A17" s="5"/>
-      <x:c r="B17" s="36" t="s">
-        <x:v>39</x:v>
+      <x:c r="B17" s="45" t="s">
+        <x:v>5</x:v>
       </x:c>
-      <x:c r="C17" s="9" t="s">
-        <x:v>2</x:v>
+      <x:c r="C17" s="46" t="s">
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="D17" s="7" t="s">
-        <x:v>80</x:v>
+      <x:c r="D17" s="46" t="s">
+        <x:v>98</x:v>
       </x:c>
-      <x:c r="E17" s="7">
+      <x:c r="E17" s="47">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F17" s="9">
+      <x:c r="F17" s="46">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="36">
+      <x:c r="G17" s="48">
         <x:f>SUM(F17:F25)</x:f>
         <x:v>353</x:v>
       </x:c>
-      <x:c r="H17" s="8"/>
+      <x:c r="H17" s="6"/>
       <x:c r="I17" s="3"/>
-      <x:c r="J17" s="62"/>
-      <x:c r="K17" s="62"/>
-      <x:c r="L17" s="62"/>
-      <x:c r="M17" s="62"/>
+      <x:c r="J17" s="32"/>
+      <x:c r="K17" s="32"/>
+      <x:c r="L17" s="32"/>
+      <x:c r="M17" s="32"/>
       <x:c r="N17" s="3"/>
       <x:c r="O17" s="3"/>
       <x:c r="P17" s="3"/>
@@ -3114,22 +3253,22 @@
     </x:row>
     <x:row r="18" spans="1:26" ht="20" customHeight="1">
       <x:c r="A18" s="5"/>
-      <x:c r="B18" s="45"/>
+      <x:c r="B18" s="52"/>
       <x:c r="C18" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D18" s="7"/>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="9">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G18" s="37"/>
-      <x:c r="H18" s="8"/>
+      <x:c r="G18" s="59"/>
+      <x:c r="H18" s="6"/>
       <x:c r="I18" s="3"/>
-      <x:c r="J18" s="62"/>
-      <x:c r="K18" s="62"/>
-      <x:c r="L18" s="62"/>
-      <x:c r="M18" s="62"/>
+      <x:c r="J18" s="32"/>
+      <x:c r="K18" s="32"/>
+      <x:c r="L18" s="32"/>
+      <x:c r="M18" s="32"/>
       <x:c r="N18" s="3"/>
       <x:c r="O18" s="3"/>
       <x:c r="P18" s="3"/>
@@ -3146,29 +3285,29 @@
     </x:row>
     <x:row r="19" spans="1:26" ht="20" customHeight="1">
       <x:c r="A19" s="5"/>
-      <x:c r="B19" s="45"/>
+      <x:c r="B19" s="52"/>
       <x:c r="C19" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D19" s="7"/>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="9">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G19" s="37"/>
-      <x:c r="H19" s="8"/>
+      <x:c r="G19" s="59"/>
+      <x:c r="H19" s="6"/>
       <x:c r="I19" s="3"/>
-      <x:c r="J19" s="25" t="s">
-        <x:v>49</x:v>
+      <x:c r="J19" s="22" t="s">
+        <x:v>37</x:v>
       </x:c>
-      <x:c r="K19" s="27" t="s">
-        <x:v>41</x:v>
+      <x:c r="K19" s="23" t="s">
+        <x:v>45</x:v>
       </x:c>
-      <x:c r="L19" s="29" t="s">
-        <x:v>44</x:v>
+      <x:c r="L19" s="24" t="s">
+        <x:v>40</x:v>
       </x:c>
-      <x:c r="M19" s="33" t="s">
-        <x:v>9</x:v>
+      <x:c r="M19" s="25" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N19" s="3"/>
       <x:c r="O19" s="3"/>
@@ -3186,29 +3325,29 @@
     </x:row>
     <x:row r="20" spans="1:26" ht="20" customHeight="1">
       <x:c r="A20" s="5"/>
-      <x:c r="B20" s="45"/>
+      <x:c r="B20" s="52"/>
       <x:c r="C20" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D20" s="7"/>
       <x:c r="E20" s="7"/>
       <x:c r="F20" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G20" s="37"/>
-      <x:c r="H20" s="8"/>
+      <x:c r="G20" s="59"/>
+      <x:c r="H20" s="6"/>
       <x:c r="I20" s="3"/>
       <x:c r="J20" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L20" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M20" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="N20" s="3"/>
       <x:c r="O20" s="3"/>
@@ -3226,29 +3365,29 @@
     </x:row>
     <x:row r="21" spans="1:26" ht="20" customHeight="1">
       <x:c r="A21" s="5"/>
-      <x:c r="B21" s="45"/>
-      <x:c r="C21" s="63" t="s">
-        <x:v>48</x:v>
+      <x:c r="B21" s="52"/>
+      <x:c r="C21" s="10" t="s">
+        <x:v>38</x:v>
       </x:c>
-      <x:c r="D21" s="64"/>
-      <x:c r="E21" s="64"/>
-      <x:c r="F21" s="64">
+      <x:c r="D21" s="9"/>
+      <x:c r="E21" s="9"/>
+      <x:c r="F21" s="9">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G21" s="37"/>
-      <x:c r="H21" s="8"/>
+      <x:c r="G21" s="59"/>
+      <x:c r="H21" s="6"/>
       <x:c r="I21" s="3"/>
       <x:c r="J21" s="6" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K21" s="6" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="L21" s="6" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="K21" s="6" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="L21" s="6" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="M21" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N21" s="3"/>
       <x:c r="O21" s="3"/>
@@ -3266,29 +3405,29 @@
     </x:row>
     <x:row r="22" spans="1:26" ht="20" customHeight="1">
       <x:c r="A22" s="5"/>
-      <x:c r="B22" s="45"/>
+      <x:c r="B22" s="52"/>
       <x:c r="C22" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>55</x:v>
       </x:c>
-      <x:c r="D22" s="11"/>
-      <x:c r="E22" s="11"/>
-      <x:c r="F22" s="11">
+      <x:c r="D22" s="9"/>
+      <x:c r="E22" s="9"/>
+      <x:c r="F22" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G22" s="37"/>
-      <x:c r="H22" s="8"/>
+      <x:c r="G22" s="59"/>
+      <x:c r="H22" s="6"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K22" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L22" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M22" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N22" s="4"/>
       <x:c r="O22" s="4"/>
@@ -3306,29 +3445,29 @@
     </x:row>
     <x:row r="23" spans="1:26" ht="20" customHeight="1">
       <x:c r="A23" s="5"/>
-      <x:c r="B23" s="45"/>
+      <x:c r="B23" s="52"/>
       <x:c r="C23" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="11"/>
-      <x:c r="E23" s="11"/>
-      <x:c r="F23" s="11">
+      <x:c r="D23" s="9"/>
+      <x:c r="E23" s="9"/>
+      <x:c r="F23" s="9">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G23" s="37"/>
-      <x:c r="H23" s="8"/>
+      <x:c r="G23" s="59"/>
+      <x:c r="H23" s="6"/>
       <x:c r="I23" s="3"/>
       <x:c r="J23" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K23" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L23" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M23" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N23" s="3"/>
       <x:c r="O23" s="4"/>
@@ -3346,22 +3485,22 @@
     </x:row>
     <x:row r="24" spans="1:26" s="1" customFormat="1" ht="20" customHeight="1">
       <x:c r="A24" s="5"/>
-      <x:c r="B24" s="36"/>
-      <x:c r="C24" s="63" t="s">
-        <x:v>24</x:v>
+      <x:c r="B24" s="62"/>
+      <x:c r="C24" s="10" t="s">
+        <x:v>62</x:v>
       </x:c>
-      <x:c r="D24" s="64"/>
-      <x:c r="E24" s="64"/>
-      <x:c r="F24" s="64">
+      <x:c r="D24" s="9"/>
+      <x:c r="E24" s="9"/>
+      <x:c r="F24" s="9">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G24" s="36"/>
+      <x:c r="G24" s="63"/>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="3"/>
-      <x:c r="J24" s="62"/>
-      <x:c r="K24" s="62"/>
-      <x:c r="L24" s="62"/>
-      <x:c r="M24" s="62"/>
+      <x:c r="J24" s="32"/>
+      <x:c r="K24" s="32"/>
+      <x:c r="L24" s="32"/>
+      <x:c r="M24" s="32"/>
       <x:c r="N24" s="3"/>
       <x:c r="O24" s="3"/>
       <x:c r="P24" s="3"/>
@@ -3378,22 +3517,22 @@
     </x:row>
     <x:row r="25" spans="1:26" ht="20" customHeight="1">
       <x:c r="A25" s="5"/>
-      <x:c r="B25" s="55"/>
-      <x:c r="C25" s="64" t="s">
-        <x:v>10</x:v>
+      <x:c r="B25" s="60"/>
+      <x:c r="C25" s="54" t="s">
+        <x:v>50</x:v>
       </x:c>
-      <x:c r="D25" s="64"/>
-      <x:c r="E25" s="64"/>
-      <x:c r="F25" s="64">
+      <x:c r="D25" s="54"/>
+      <x:c r="E25" s="54"/>
+      <x:c r="F25" s="54">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G25" s="38"/>
-      <x:c r="H25" s="8"/>
+      <x:c r="G25" s="51"/>
+      <x:c r="H25" s="6"/>
       <x:c r="I25" s="3"/>
-      <x:c r="J25" s="62"/>
-      <x:c r="K25" s="62"/>
-      <x:c r="L25" s="62"/>
-      <x:c r="M25" s="62"/>
+      <x:c r="J25" s="32"/>
+      <x:c r="K25" s="32"/>
+      <x:c r="L25" s="32"/>
+      <x:c r="M25" s="32"/>
       <x:c r="N25" s="3"/>
       <x:c r="O25" s="3"/>
       <x:c r="P25" s="3"/>
@@ -3410,18 +3549,20 @@
     </x:row>
     <x:row r="26" spans="1:26" ht="20" customHeight="1">
       <x:c r="A26" s="5"/>
-      <x:c r="B26" s="46"/>
-      <x:c r="C26" s="47"/>
-      <x:c r="D26" s="47"/>
-      <x:c r="E26" s="47"/>
-      <x:c r="F26" s="47"/>
-      <x:c r="G26" s="48"/>
-      <x:c r="H26" s="8"/>
+      <x:c r="B26" s="28"/>
+      <x:c r="C26" s="29"/>
+      <x:c r="D26" s="29"/>
+      <x:c r="E26" s="29"/>
+      <x:c r="F26" s="29"/>
+      <x:c r="G26" s="30"/>
+      <x:c r="H26" s="6"/>
       <x:c r="I26" s="3"/>
-      <x:c r="J26" s="65" t="s">
-        <x:v>5</x:v>
+      <x:c r="J26" s="26" t="s">
+        <x:v>48</x:v>
       </x:c>
-      <x:c r="K26" s="3"/>
+      <x:c r="K26" s="66" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="L26" s="3"/>
       <x:c r="M26" s="3"/>
       <x:c r="N26" s="3"/>
@@ -3440,18 +3581,20 @@
     </x:row>
     <x:row r="27" spans="1:26" ht="20" customHeight="1">
       <x:c r="A27" s="5"/>
-      <x:c r="B27" s="42"/>
-      <x:c r="C27" s="43"/>
-      <x:c r="D27" s="43"/>
-      <x:c r="E27" s="43"/>
-      <x:c r="F27" s="43"/>
-      <x:c r="G27" s="44"/>
-      <x:c r="H27" s="8"/>
+      <x:c r="B27" s="28"/>
+      <x:c r="C27" s="29"/>
+      <x:c r="D27" s="29"/>
+      <x:c r="E27" s="29"/>
+      <x:c r="F27" s="29"/>
+      <x:c r="G27" s="30"/>
+      <x:c r="H27" s="6"/>
       <x:c r="I27" s="3"/>
       <x:c r="J27" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>36</x:v>
       </x:c>
-      <x:c r="K27" s="3"/>
+      <x:c r="K27" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="L27" s="3"/>
       <x:c r="M27" s="3"/>
       <x:c r="N27" s="3"/>
@@ -3471,29 +3614,31 @@
     <x:row r="28" spans="1:26" ht="20" customHeight="1">
       <x:c r="A28" s="5"/>
       <x:c r="B28" s="45" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
-      <x:c r="C28" s="9" t="s">
-        <x:v>51</x:v>
+      <x:c r="C28" s="46" t="s">
+        <x:v>10</x:v>
       </x:c>
-      <x:c r="D28" s="7" t="s">
-        <x:v>76</x:v>
+      <x:c r="D28" s="46" t="s">
+        <x:v>91</x:v>
       </x:c>
-      <x:c r="E28" s="7">
+      <x:c r="E28" s="47">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F28" s="9">
+      <x:c r="F28" s="46">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G28" s="36">
+      <x:c r="G28" s="48">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="H28" s="8"/>
+      <x:c r="H28" s="6"/>
       <x:c r="I28" s="3"/>
       <x:c r="J28" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
-      <x:c r="K28" s="3"/>
+      <x:c r="K28" s="6" t="s">
+        <x:v>111</x:v>
+      </x:c>
       <x:c r="L28" s="3"/>
       <x:c r="M28" s="3"/>
       <x:c r="N28" s="3"/>
@@ -3512,22 +3657,24 @@
     </x:row>
     <x:row r="29" spans="1:26" ht="20" customHeight="1">
       <x:c r="A29" s="5"/>
-      <x:c r="B29" s="45"/>
+      <x:c r="B29" s="52"/>
       <x:c r="C29" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
       <x:c r="E29" s="7"/>
       <x:c r="F29" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G29" s="45"/>
-      <x:c r="H29" s="8"/>
+      <x:c r="G29" s="53"/>
+      <x:c r="H29" s="6"/>
       <x:c r="I29" s="3"/>
       <x:c r="J29" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>47</x:v>
       </x:c>
-      <x:c r="K29" s="3"/>
+      <x:c r="K29" s="6" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="L29" s="3"/>
       <x:c r="M29" s="3"/>
       <x:c r="N29" s="3"/>
@@ -3546,17 +3693,17 @@
     </x:row>
     <x:row r="30" spans="1:26" ht="20" customHeight="1">
       <x:c r="A30" s="5"/>
-      <x:c r="B30" s="56"/>
-      <x:c r="C30" s="9" t="s">
-        <x:v>93</x:v>
+      <x:c r="B30" s="60"/>
+      <x:c r="C30" s="54" t="s">
+        <x:v>30</x:v>
       </x:c>
-      <x:c r="D30" s="7"/>
-      <x:c r="E30" s="7"/>
-      <x:c r="F30" s="9">
+      <x:c r="D30" s="50"/>
+      <x:c r="E30" s="50"/>
+      <x:c r="F30" s="54">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G30" s="56"/>
-      <x:c r="H30" s="8"/>
+      <x:c r="G30" s="61"/>
+      <x:c r="H30" s="6"/>
       <x:c r="I30" s="3"/>
       <x:c r="J30" s="3"/>
       <x:c r="K30" s="3"/>
@@ -3578,13 +3725,13 @@
     </x:row>
     <x:row r="31" spans="1:26" ht="20" customHeight="1">
       <x:c r="A31" s="5"/>
-      <x:c r="B31" s="49"/>
-      <x:c r="C31" s="50"/>
-      <x:c r="D31" s="50"/>
-      <x:c r="E31" s="50"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="51"/>
-      <x:c r="H31" s="8"/>
+      <x:c r="B31" s="55"/>
+      <x:c r="C31" s="56"/>
+      <x:c r="D31" s="56"/>
+      <x:c r="E31" s="56"/>
+      <x:c r="F31" s="56"/>
+      <x:c r="G31" s="57"/>
+      <x:c r="H31" s="6"/>
       <x:c r="I31" s="4"/>
       <x:c r="J31" s="4"/>
       <x:c r="K31" s="7"/>
@@ -3606,13 +3753,13 @@
     </x:row>
     <x:row r="32" spans="1:26" ht="20" customHeight="1">
       <x:c r="A32" s="5"/>
-      <x:c r="B32" s="52"/>
-      <x:c r="C32" s="53"/>
-      <x:c r="D32" s="53"/>
-      <x:c r="E32" s="53"/>
-      <x:c r="F32" s="53"/>
-      <x:c r="G32" s="54"/>
-      <x:c r="H32" s="8"/>
+      <x:c r="B32" s="55"/>
+      <x:c r="C32" s="56"/>
+      <x:c r="D32" s="56"/>
+      <x:c r="E32" s="56"/>
+      <x:c r="F32" s="56"/>
+      <x:c r="G32" s="57"/>
+      <x:c r="H32" s="6"/>
       <x:c r="I32" s="3"/>
       <x:c r="J32" s="3"/>
       <x:c r="K32" s="7"/>
@@ -3634,30 +3781,30 @@
     </x:row>
     <x:row r="33" spans="1:26" ht="20" customHeight="1">
       <x:c r="A33" s="5"/>
-      <x:c r="B33" s="36" t="s">
-        <x:v>27</x:v>
+      <x:c r="B33" s="45" t="s">
+        <x:v>63</x:v>
       </x:c>
-      <x:c r="C33" s="26" t="s">
-        <x:v>22</x:v>
+      <x:c r="C33" s="46" t="s">
+        <x:v>68</x:v>
       </x:c>
-      <x:c r="D33" s="26" t="s">
-        <x:v>34</x:v>
+      <x:c r="D33" s="46" t="s">
+        <x:v>78</x:v>
       </x:c>
-      <x:c r="E33" s="26"/>
-      <x:c r="F33" s="26">
+      <x:c r="E33" s="46"/>
+      <x:c r="F33" s="46">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G33" s="36">
+      <x:c r="G33" s="48">
         <x:f>SUM(F33:F35)</x:f>
         <x:v>120</x:v>
       </x:c>
-      <x:c r="H33" s="8"/>
+      <x:c r="H33" s="6"/>
       <x:c r="I33" s="3"/>
       <x:c r="J33" s="3"/>
-      <x:c r="K33" s="12"/>
-      <x:c r="L33" s="12"/>
-      <x:c r="M33" s="12"/>
-      <x:c r="N33" s="13"/>
+      <x:c r="K33" s="11"/>
+      <x:c r="L33" s="11"/>
+      <x:c r="M33" s="11"/>
+      <x:c r="N33" s="12"/>
       <x:c r="O33" s="3"/>
       <x:c r="P33" s="3"/>
       <x:c r="Q33" s="3"/>
@@ -3673,17 +3820,17 @@
     </x:row>
     <x:row r="34" spans="1:26" ht="20" customHeight="1">
       <x:c r="A34" s="5"/>
-      <x:c r="B34" s="37"/>
-      <x:c r="C34" s="32" t="s">
-        <x:v>19</x:v>
+      <x:c r="B34" s="58"/>
+      <x:c r="C34" s="9" t="s">
+        <x:v>57</x:v>
       </x:c>
-      <x:c r="D34" s="32"/>
-      <x:c r="E34" s="32"/>
-      <x:c r="F34" s="32">
+      <x:c r="D34" s="9"/>
+      <x:c r="E34" s="9"/>
+      <x:c r="F34" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G34" s="37"/>
-      <x:c r="H34" s="8"/>
+      <x:c r="G34" s="59"/>
+      <x:c r="H34" s="6"/>
       <x:c r="I34" s="3"/>
       <x:c r="J34" s="3"/>
       <x:c r="K34" s="3"/>
@@ -3705,17 +3852,17 @@
     </x:row>
     <x:row r="35" spans="1:26" ht="20" customHeight="1">
       <x:c r="A35" s="5"/>
-      <x:c r="B35" s="38"/>
-      <x:c r="C35" s="32" t="s">
-        <x:v>75</x:v>
+      <x:c r="B35" s="49"/>
+      <x:c r="C35" s="54" t="s">
+        <x:v>93</x:v>
       </x:c>
-      <x:c r="D35" s="32"/>
-      <x:c r="E35" s="32"/>
-      <x:c r="F35" s="32">
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="54"/>
+      <x:c r="F35" s="54">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G35" s="38"/>
-      <x:c r="H35" s="8"/>
+      <x:c r="G35" s="51"/>
+      <x:c r="H35" s="6"/>
       <x:c r="I35" s="3"/>
       <x:c r="J35" s="3"/>
       <x:c r="K35" s="3"/>
@@ -3737,13 +3884,13 @@
     </x:row>
     <x:row r="36" spans="1:26" ht="20" customHeight="1">
       <x:c r="A36" s="5"/>
-      <x:c r="B36" s="39"/>
-      <x:c r="C36" s="40"/>
-      <x:c r="D36" s="40"/>
-      <x:c r="E36" s="40"/>
-      <x:c r="F36" s="40"/>
-      <x:c r="G36" s="41"/>
-      <x:c r="H36" s="8"/>
+      <x:c r="B36" s="28"/>
+      <x:c r="C36" s="29"/>
+      <x:c r="D36" s="29"/>
+      <x:c r="E36" s="29"/>
+      <x:c r="F36" s="29"/>
+      <x:c r="G36" s="30"/>
+      <x:c r="H36" s="6"/>
       <x:c r="I36" s="4"/>
       <x:c r="J36" s="4"/>
       <x:c r="K36" s="4"/>
@@ -3765,13 +3912,13 @@
     </x:row>
     <x:row r="37" spans="1:26" ht="20" customHeight="1">
       <x:c r="A37" s="5"/>
-      <x:c r="B37" s="42"/>
-      <x:c r="C37" s="43"/>
-      <x:c r="D37" s="43"/>
-      <x:c r="E37" s="43"/>
-      <x:c r="F37" s="43"/>
-      <x:c r="G37" s="44"/>
-      <x:c r="H37" s="8"/>
+      <x:c r="B37" s="28"/>
+      <x:c r="C37" s="29"/>
+      <x:c r="D37" s="29"/>
+      <x:c r="E37" s="29"/>
+      <x:c r="F37" s="29"/>
+      <x:c r="G37" s="30"/>
+      <x:c r="H37" s="6"/>
       <x:c r="I37" s="3"/>
       <x:c r="J37" s="3"/>
       <x:c r="K37" s="3"/>
@@ -3793,26 +3940,26 @@
     </x:row>
     <x:row r="38" spans="1:26" ht="20" customHeight="1">
       <x:c r="A38" s="5"/>
-      <x:c r="B38" s="36" t="s">
-        <x:v>13</x:v>
+      <x:c r="B38" s="45" t="s">
+        <x:v>54</x:v>
       </x:c>
-      <x:c r="C38" s="28" t="s">
-        <x:v>22</x:v>
+      <x:c r="C38" s="46" t="s">
+        <x:v>68</x:v>
       </x:c>
-      <x:c r="D38" s="28" t="s">
-        <x:v>33</x:v>
+      <x:c r="D38" s="46" t="s">
+        <x:v>73</x:v>
       </x:c>
-      <x:c r="E38" s="28">
+      <x:c r="E38" s="46">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F38" s="28">
+      <x:c r="F38" s="46">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G38" s="36">
+      <x:c r="G38" s="48">
         <x:f>SUM(F38:F40)</x:f>
         <x:v>120</x:v>
       </x:c>
-      <x:c r="H38" s="8"/>
+      <x:c r="H38" s="6"/>
       <x:c r="I38" s="3"/>
       <x:c r="J38" s="3"/>
       <x:c r="K38" s="3"/>
@@ -3834,17 +3981,17 @@
     </x:row>
     <x:row r="39" spans="1:26" ht="20" customHeight="1">
       <x:c r="A39" s="5"/>
-      <x:c r="B39" s="45"/>
+      <x:c r="B39" s="52"/>
       <x:c r="C39" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D39" s="7"/>
       <x:c r="E39" s="7"/>
       <x:c r="F39" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G39" s="45"/>
-      <x:c r="H39" s="8"/>
+      <x:c r="G39" s="53"/>
+      <x:c r="H39" s="6"/>
       <x:c r="I39" s="4"/>
       <x:c r="J39" s="4"/>
       <x:c r="K39" s="4"/>
@@ -3866,17 +4013,17 @@
     </x:row>
     <x:row r="40" spans="1:26" ht="20" customHeight="1">
       <x:c r="A40" s="5"/>
-      <x:c r="B40" s="38"/>
-      <x:c r="C40" s="28" t="s">
-        <x:v>69</x:v>
+      <x:c r="B40" s="49"/>
+      <x:c r="C40" s="54" t="s">
+        <x:v>90</x:v>
       </x:c>
-      <x:c r="D40" s="28"/>
-      <x:c r="E40" s="28"/>
-      <x:c r="F40" s="28">
+      <x:c r="D40" s="54"/>
+      <x:c r="E40" s="54"/>
+      <x:c r="F40" s="54">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G40" s="38"/>
-      <x:c r="H40" s="8"/>
+      <x:c r="G40" s="51"/>
+      <x:c r="H40" s="6"/>
       <x:c r="I40" s="3"/>
       <x:c r="J40" s="3"/>
       <x:c r="K40" s="3"/>
@@ -3898,13 +4045,13 @@
     </x:row>
     <x:row r="41" spans="1:26" ht="20" customHeight="1">
       <x:c r="A41" s="5"/>
-      <x:c r="B41" s="39"/>
-      <x:c r="C41" s="40"/>
-      <x:c r="D41" s="40"/>
-      <x:c r="E41" s="40"/>
-      <x:c r="F41" s="40"/>
-      <x:c r="G41" s="41"/>
-      <x:c r="H41" s="8"/>
+      <x:c r="B41" s="28"/>
+      <x:c r="C41" s="29"/>
+      <x:c r="D41" s="29"/>
+      <x:c r="E41" s="29"/>
+      <x:c r="F41" s="29"/>
+      <x:c r="G41" s="30"/>
+      <x:c r="H41" s="6"/>
       <x:c r="I41" s="3"/>
       <x:c r="J41" s="4"/>
       <x:c r="K41" s="4"/>
@@ -3926,13 +4073,13 @@
     </x:row>
     <x:row r="42" spans="1:26" ht="20" customHeight="1">
       <x:c r="A42" s="5"/>
-      <x:c r="B42" s="42"/>
-      <x:c r="C42" s="43"/>
-      <x:c r="D42" s="43"/>
-      <x:c r="E42" s="43"/>
-      <x:c r="F42" s="43"/>
-      <x:c r="G42" s="44"/>
-      <x:c r="H42" s="8"/>
+      <x:c r="B42" s="28"/>
+      <x:c r="C42" s="29"/>
+      <x:c r="D42" s="29"/>
+      <x:c r="E42" s="29"/>
+      <x:c r="F42" s="29"/>
+      <x:c r="G42" s="30"/>
+      <x:c r="H42" s="6"/>
       <x:c r="J42" s="3"/>
       <x:c r="K42" s="3"/>
       <x:c r="L42" s="3"/>
@@ -3953,26 +4100,26 @@
     </x:row>
     <x:row r="43" spans="1:26" ht="20" customHeight="1">
       <x:c r="A43" s="5"/>
-      <x:c r="B43" s="36" t="s">
-        <x:v>46</x:v>
+      <x:c r="B43" s="45" t="s">
+        <x:v>43</x:v>
       </x:c>
-      <x:c r="C43" s="9" t="s">
-        <x:v>65</x:v>
+      <x:c r="C43" s="46" t="s">
+        <x:v>8</x:v>
       </x:c>
-      <x:c r="D43" s="7" t="s">
-        <x:v>85</x:v>
+      <x:c r="D43" s="47" t="s">
+        <x:v>99</x:v>
       </x:c>
-      <x:c r="E43" s="7">
+      <x:c r="E43" s="47">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F43" s="9">
+      <x:c r="F43" s="46">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G43" s="36">
+      <x:c r="G43" s="48">
         <x:f>SUM(F43:F44)</x:f>
         <x:v>48</x:v>
       </x:c>
-      <x:c r="H43" s="8"/>
+      <x:c r="H43" s="6"/>
       <x:c r="I43" s="3"/>
       <x:c r="J43" s="3"/>
       <x:c r="K43" s="3"/>
@@ -3994,17 +4141,17 @@
     </x:row>
     <x:row r="44" spans="1:26" ht="20" customHeight="1">
       <x:c r="A44" s="5"/>
-      <x:c r="B44" s="38"/>
-      <x:c r="C44" s="7" t="s">
-        <x:v>57</x:v>
+      <x:c r="B44" s="49"/>
+      <x:c r="C44" s="50" t="s">
+        <x:v>11</x:v>
       </x:c>
-      <x:c r="D44" s="7"/>
-      <x:c r="E44" s="7"/>
-      <x:c r="F44" s="7">
+      <x:c r="D44" s="50"/>
+      <x:c r="E44" s="50"/>
+      <x:c r="F44" s="50">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G44" s="38"/>
-      <x:c r="H44" s="8"/>
+      <x:c r="G44" s="51"/>
+      <x:c r="H44" s="6"/>
       <x:c r="I44" s="3"/>
       <x:c r="J44" s="3"/>
       <x:c r="K44" s="3"/>
@@ -4026,13 +4173,13 @@
     </x:row>
     <x:row r="45" spans="1:26" ht="20" customHeight="1">
       <x:c r="A45" s="5"/>
-      <x:c r="B45" s="39"/>
-      <x:c r="C45" s="40"/>
-      <x:c r="D45" s="40"/>
-      <x:c r="E45" s="40"/>
-      <x:c r="F45" s="40"/>
-      <x:c r="G45" s="41"/>
-      <x:c r="H45" s="8"/>
+      <x:c r="B45" s="28"/>
+      <x:c r="C45" s="29"/>
+      <x:c r="D45" s="29"/>
+      <x:c r="E45" s="29"/>
+      <x:c r="F45" s="29"/>
+      <x:c r="G45" s="30"/>
+      <x:c r="H45" s="6"/>
       <x:c r="I45" s="4"/>
       <x:c r="J45" s="4"/>
       <x:c r="K45" s="4"/>
@@ -4054,12 +4201,12 @@
     </x:row>
     <x:row r="46" spans="1:26" ht="20" customHeight="1">
       <x:c r="A46" s="5"/>
-      <x:c r="B46" s="46"/>
-      <x:c r="C46" s="47"/>
-      <x:c r="D46" s="47"/>
-      <x:c r="E46" s="47"/>
-      <x:c r="F46" s="47"/>
-      <x:c r="G46" s="48"/>
+      <x:c r="B46" s="28"/>
+      <x:c r="C46" s="29"/>
+      <x:c r="D46" s="29"/>
+      <x:c r="E46" s="29"/>
+      <x:c r="F46" s="29"/>
+      <x:c r="G46" s="30"/>
       <x:c r="H46" s="6"/>
       <x:c r="I46" s="3"/>
       <x:c r="J46" s="3"/>
@@ -4082,22 +4229,22 @@
     </x:row>
     <x:row r="47" spans="1:26" ht="20" customHeight="1">
       <x:c r="A47" s="5"/>
-      <x:c r="B47" s="57" t="s">
-        <x:v>17</x:v>
+      <x:c r="B47" s="39" t="s">
+        <x:v>58</x:v>
       </x:c>
-      <x:c r="C47" s="30" t="s">
-        <x:v>60</x:v>
+      <x:c r="C47" s="40" t="s">
+        <x:v>83</x:v>
       </x:c>
-      <x:c r="D47" s="30" t="s">
-        <x:v>36</x:v>
+      <x:c r="D47" s="40" t="s">
+        <x:v>77</x:v>
       </x:c>
-      <x:c r="E47" s="30">
+      <x:c r="E47" s="40">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F47" s="31">
+      <x:c r="F47" s="41">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G47" s="59">
+      <x:c r="G47" s="35">
         <x:v>70</x:v>
       </x:c>
       <x:c r="H47" s="6"/>
@@ -4122,16 +4269,16 @@
     </x:row>
     <x:row r="48" spans="1:26" ht="20" customHeight="1">
       <x:c r="A48" s="5"/>
-      <x:c r="B48" s="58"/>
-      <x:c r="C48" s="14" t="s">
+      <x:c r="B48" s="42"/>
+      <x:c r="C48" s="43" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D48" s="43"/>
+      <x:c r="E48" s="43"/>
+      <x:c r="F48" s="44">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D48" s="14"/>
-      <x:c r="E48" s="14"/>
-      <x:c r="F48" s="15">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G48" s="60"/>
+      <x:c r="G48" s="38"/>
       <x:c r="H48" s="6"/>
       <x:c r="I48" s="3"/>
       <x:c r="J48" s="3"/>
@@ -4154,12 +4301,12 @@
     </x:row>
     <x:row r="49" spans="1:26" ht="25" customHeight="1">
       <x:c r="A49" s="5"/>
-      <x:c r="B49" s="61"/>
-      <x:c r="C49" s="61"/>
-      <x:c r="D49" s="61"/>
-      <x:c r="E49" s="61"/>
-      <x:c r="F49" s="61"/>
-      <x:c r="G49" s="61"/>
+      <x:c r="B49" s="32"/>
+      <x:c r="C49" s="32"/>
+      <x:c r="D49" s="32"/>
+      <x:c r="E49" s="32"/>
+      <x:c r="F49" s="32"/>
+      <x:c r="G49" s="32"/>
       <x:c r="H49" s="6"/>
       <x:c r="I49" s="3"/>
       <x:c r="J49" s="3"/>
@@ -4182,12 +4329,12 @@
     </x:row>
     <x:row r="50" spans="1:26" ht="23.5">
       <x:c r="A50" s="6"/>
-      <x:c r="B50" s="62"/>
-      <x:c r="C50" s="62"/>
-      <x:c r="D50" s="62"/>
-      <x:c r="E50" s="62"/>
-      <x:c r="F50" s="62"/>
-      <x:c r="G50" s="62"/>
+      <x:c r="B50" s="32"/>
+      <x:c r="C50" s="32"/>
+      <x:c r="D50" s="32"/>
+      <x:c r="E50" s="32"/>
+      <x:c r="F50" s="32"/>
+      <x:c r="G50" s="32"/>
       <x:c r="H50" s="6"/>
       <x:c r="I50" s="3"/>
       <x:c r="J50" s="3"/>
@@ -4208,22 +4355,25 @@
       <x:c r="Y50" s="3"/>
       <x:c r="Z50" s="3"/>
     </x:row>
-    <x:row r="51" spans="1:26" ht="23.5">
+    <x:row r="51" spans="1:26" ht="23.5" customHeight="1">
       <x:c r="A51" s="6"/>
-      <x:c r="B51" s="36" t="s">
-        <x:v>53</x:v>
+      <x:c r="B51" s="33" t="s">
+        <x:v>113</x:v>
       </x:c>
-      <x:c r="C51" s="7" t="s">
-        <x:v>52</x:v>
+      <x:c r="C51" s="34" t="s">
+        <x:v>114</x:v>
       </x:c>
-      <x:c r="D51" s="7"/>
-      <x:c r="E51" s="7"/>
-      <x:c r="F51" s="7">
-        <x:v>36</x:v>
+      <x:c r="D51" s="34" t="s">
+        <x:v>116</x:v>
       </x:c>
-      <x:c r="G51" s="36">
-        <x:f>SUM(F51:F52)</x:f>
-        <x:v>76</x:v>
+      <x:c r="E51" s="34">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F51" s="34">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G51" s="35">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H51" s="6"/>
       <x:c r="I51" s="3"/>
@@ -4247,16 +4397,16 @@
     </x:row>
     <x:row r="52" spans="2:26" ht="23.5">
       <x:c r="B52" s="36"/>
-      <x:c r="C52" s="7" t="s">
-        <x:v>94</x:v>
+      <x:c r="C52" s="37" t="s">
+        <x:v>115</x:v>
       </x:c>
-      <x:c r="D52" s="7"/>
-      <x:c r="E52" s="7"/>
-      <x:c r="F52" s="7">
-        <x:v>40</x:v>
+      <x:c r="D52" s="37"/>
+      <x:c r="E52" s="37"/>
+      <x:c r="F52" s="37">
+        <x:v>30</x:v>
       </x:c>
-      <x:c r="G52" s="36"/>
-      <x:c r="H52" s="8"/>
+      <x:c r="G52" s="38"/>
+      <x:c r="H52" s="6"/>
       <x:c r="I52" s="3"/>
       <x:c r="J52" s="3"/>
       <x:c r="K52" s="3"/>
@@ -4276,19 +4426,14 @@
       <x:c r="Y52" s="3"/>
       <x:c r="Z52" s="3"/>
     </x:row>
-    <x:row r="53" spans="2:26" ht="23.5">
-      <x:c r="B53" s="6"/>
-      <x:c r="C53" s="6"/>
-      <x:c r="D53" s="6"/>
-      <x:c r="E53" s="6"/>
-      <x:c r="F53" s="7" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G53" s="7">
-        <x:f>SUM(G3:G48)</x:f>
-        <x:v>1075</x:v>
-      </x:c>
-      <x:c r="H53" s="8"/>
+    <x:row r="53" spans="2:26" ht="23.5" customHeight="1">
+      <x:c r="B53" s="65"/>
+      <x:c r="C53" s="65"/>
+      <x:c r="D53" s="65"/>
+      <x:c r="E53" s="65"/>
+      <x:c r="F53" s="65"/>
+      <x:c r="G53" s="65"/>
+      <x:c r="H53" s="6"/>
       <x:c r="I53" s="3"/>
       <x:c r="J53" s="3"/>
       <x:c r="K53" s="3"/>
@@ -4310,7 +4455,13 @@
     </x:row>
     <x:row r="54" spans="1:26" ht="23.5">
       <x:c r="A54" s="6"/>
-      <x:c r="H54" s="8"/>
+      <x:c r="B54" s="32"/>
+      <x:c r="C54" s="32"/>
+      <x:c r="D54" s="32"/>
+      <x:c r="E54" s="32"/>
+      <x:c r="F54" s="32"/>
+      <x:c r="G54" s="32"/>
+      <x:c r="H54" s="6"/>
       <x:c r="I54" s="3"/>
       <x:c r="J54" s="3"/>
       <x:c r="K54" s="3"/>
@@ -4332,7 +4483,22 @@
     </x:row>
     <x:row r="55" spans="1:26" ht="23.5">
       <x:c r="A55" s="6"/>
-      <x:c r="H55" s="8"/>
+      <x:c r="B55" s="45" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C55" s="47" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D55" s="67"/>
+      <x:c r="E55" s="47"/>
+      <x:c r="F55" s="47">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G55" s="48">
+        <x:f>SUM(F55:F56)</x:f>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H55" s="6"/>
       <x:c r="I55" s="3"/>
       <x:c r="J55" s="3"/>
       <x:c r="K55" s="3"/>
@@ -4354,7 +4520,17 @@
     </x:row>
     <x:row r="56" spans="1:26" ht="23.5">
       <x:c r="A56" s="6"/>
-      <x:c r="H56" s="8"/>
+      <x:c r="B56" s="62"/>
+      <x:c r="C56" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D56" s="7"/>
+      <x:c r="E56" s="7"/>
+      <x:c r="F56" s="7">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G56" s="63"/>
+      <x:c r="H56" s="6"/>
       <x:c r="I56" s="3"/>
       <x:c r="J56" s="3"/>
       <x:c r="K56" s="3"/>
@@ -4376,9 +4552,18 @@
     </x:row>
     <x:row r="57" spans="1:26" ht="23.5">
       <x:c r="A57" s="6"/>
-      <x:c r="F57" s="6"/>
-      <x:c r="G57" s="8"/>
-      <x:c r="H57" s="8"/>
+      <x:c r="B57" s="68"/>
+      <x:c r="C57" s="69"/>
+      <x:c r="D57" s="50"/>
+      <x:c r="E57" s="69"/>
+      <x:c r="F57" s="50" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G57" s="70">
+        <x:f>SUM(G3:G52)</x:f>
+        <x:v>1125</x:v>
+      </x:c>
+      <x:c r="H57" s="6"/>
       <x:c r="I57" s="3"/>
       <x:c r="J57" s="3"/>
       <x:c r="K57" s="3"/>
@@ -4400,9 +4585,9 @@
     </x:row>
     <x:row r="58" spans="1:26" ht="23.5">
       <x:c r="A58" s="6"/>
-      <x:c r="F58" s="6"/>
-      <x:c r="G58" s="8"/>
-      <x:c r="H58" s="8"/>
+      <x:c r="F58"/>
+      <x:c r="G58"/>
+      <x:c r="H58" s="6"/>
       <x:c r="I58" s="3"/>
       <x:c r="J58" s="3"/>
       <x:c r="K58" s="3"/>
@@ -4424,8 +4609,6 @@
     </x:row>
     <x:row r="59" spans="1:26" ht="23.5">
       <x:c r="A59" s="6"/>
-      <x:c r="F59" s="6"/>
-      <x:c r="G59" s="8"/>
       <x:c r="H59" s="8"/>
       <x:c r="I59" s="3"/>
       <x:c r="J59" s="3"/>
@@ -4448,10 +4631,7 @@
     </x:row>
     <x:row r="60" spans="1:26" ht="23.5">
       <x:c r="A60" s="6"/>
-      <x:c r="C60" s="6"/>
-      <x:c r="E60" s="6"/>
-      <x:c r="F60" s="6"/>
-      <x:c r="G60" s="8"/>
+      <x:c r="D60" s="6"/>
       <x:c r="H60" s="8"/>
       <x:c r="I60" s="3"/>
       <x:c r="J60" s="3"/>
@@ -4474,10 +4654,6 @@
     </x:row>
     <x:row r="61" spans="1:26" ht="23.5">
       <x:c r="A61" s="6"/>
-      <x:c r="C61" s="6"/>
-      <x:c r="E61" s="6"/>
-      <x:c r="F61" s="6"/>
-      <x:c r="G61" s="8"/>
       <x:c r="H61" s="8"/>
       <x:c r="I61" s="3"/>
       <x:c r="J61" s="3"/>
@@ -4500,12 +4676,6 @@
     </x:row>
     <x:row r="62" spans="1:26" ht="23.5">
       <x:c r="A62" s="6"/>
-      <x:c r="B62" s="6"/>
-      <x:c r="C62" s="6"/>
-      <x:c r="D62" s="6"/>
-      <x:c r="E62" s="6"/>
-      <x:c r="F62" s="6"/>
-      <x:c r="G62" s="8"/>
       <x:c r="H62" s="8"/>
       <x:c r="I62" s="3"/>
       <x:c r="J62" s="3"/>
@@ -4528,12 +4698,8 @@
     </x:row>
     <x:row r="63" spans="1:26" ht="23.5">
       <x:c r="A63" s="6"/>
-      <x:c r="B63" s="6"/>
-      <x:c r="C63" s="6"/>
-      <x:c r="D63" s="8"/>
-      <x:c r="E63" s="6"/>
       <x:c r="F63" s="6"/>
-      <x:c r="G63" s="6"/>
+      <x:c r="G63" s="8"/>
       <x:c r="H63" s="6"/>
       <x:c r="I63" s="3"/>
       <x:c r="J63" s="3"/>
@@ -4556,12 +4722,8 @@
     </x:row>
     <x:row r="64" spans="1:26" ht="23.5">
       <x:c r="A64" s="3"/>
-      <x:c r="B64" s="6"/>
-      <x:c r="C64" s="6"/>
-      <x:c r="D64" s="6"/>
-      <x:c r="E64" s="6"/>
       <x:c r="F64" s="6"/>
-      <x:c r="G64" s="6"/>
+      <x:c r="G64" s="8"/>
       <x:c r="H64" s="6"/>
       <x:c r="I64" s="3"/>
       <x:c r="J64" s="3"/>
@@ -4582,14 +4744,10 @@
       <x:c r="Y64" s="3"/>
       <x:c r="Z64" s="3"/>
     </x:row>
-    <x:row r="65" spans="1:26" ht="13.199999999999999">
+    <x:row r="65" spans="1:26" ht="23.5">
       <x:c r="A65" s="3"/>
-      <x:c r="B65" s="3"/>
-      <x:c r="C65" s="3"/>
-      <x:c r="D65" s="3"/>
-      <x:c r="E65" s="3"/>
-      <x:c r="F65" s="3"/>
-      <x:c r="G65" s="3"/>
+      <x:c r="F65" s="6"/>
+      <x:c r="G65" s="8"/>
       <x:c r="H65" s="3"/>
       <x:c r="I65" s="3"/>
       <x:c r="J65" s="3"/>
@@ -4610,14 +4768,12 @@
       <x:c r="Y65" s="3"/>
       <x:c r="Z65" s="3"/>
     </x:row>
-    <x:row r="66" spans="1:26" ht="13.199999999999999">
+    <x:row r="66" spans="1:26" ht="23.5">
       <x:c r="A66" s="3"/>
-      <x:c r="B66" s="3"/>
-      <x:c r="C66" s="3"/>
-      <x:c r="D66" s="3"/>
-      <x:c r="E66" s="3"/>
-      <x:c r="F66" s="3"/>
-      <x:c r="G66" s="3"/>
+      <x:c r="C66" s="6"/>
+      <x:c r="E66" s="6"/>
+      <x:c r="F66" s="6"/>
+      <x:c r="G66" s="8"/>
       <x:c r="H66" s="3"/>
       <x:c r="I66" s="3"/>
       <x:c r="J66" s="3"/>
@@ -4638,14 +4794,12 @@
       <x:c r="Y66" s="3"/>
       <x:c r="Z66" s="3"/>
     </x:row>
-    <x:row r="67" spans="1:26" ht="13.199999999999999">
+    <x:row r="67" spans="1:26" ht="23.5">
       <x:c r="A67" s="3"/>
-      <x:c r="B67" s="3"/>
-      <x:c r="C67" s="3"/>
-      <x:c r="D67" s="3"/>
-      <x:c r="E67" s="3"/>
-      <x:c r="F67" s="3"/>
-      <x:c r="G67" s="3"/>
+      <x:c r="C67" s="6"/>
+      <x:c r="E67" s="6"/>
+      <x:c r="F67" s="6"/>
+      <x:c r="G67" s="8"/>
       <x:c r="H67" s="3"/>
       <x:c r="I67" s="3"/>
       <x:c r="J67" s="3"/>
@@ -4666,14 +4820,13 @@
       <x:c r="Y67" s="3"/>
       <x:c r="Z67" s="3"/>
     </x:row>
-    <x:row r="68" spans="1:26" ht="13.199999999999999">
+    <x:row r="68" spans="1:26" ht="23.5">
       <x:c r="A68" s="3"/>
-      <x:c r="B68" s="3"/>
-      <x:c r="C68" s="3"/>
-      <x:c r="D68" s="3"/>
-      <x:c r="E68" s="3"/>
-      <x:c r="F68" s="3"/>
-      <x:c r="G68" s="3"/>
+      <x:c r="B68" s="6"/>
+      <x:c r="C68" s="6"/>
+      <x:c r="E68" s="6"/>
+      <x:c r="F68" s="6"/>
+      <x:c r="G68" s="8"/>
       <x:c r="H68" s="3"/>
       <x:c r="I68" s="3"/>
       <x:c r="J68" s="3"/>
@@ -4694,14 +4847,14 @@
       <x:c r="Y68" s="3"/>
       <x:c r="Z68" s="3"/>
     </x:row>
-    <x:row r="69" spans="1:26" ht="13.199999999999999">
+    <x:row r="69" spans="1:26" ht="23.5">
       <x:c r="A69" s="3"/>
-      <x:c r="B69" s="3"/>
-      <x:c r="C69" s="3"/>
-      <x:c r="D69" s="3"/>
-      <x:c r="E69" s="3"/>
-      <x:c r="F69" s="3"/>
-      <x:c r="G69" s="3"/>
+      <x:c r="B69" s="6"/>
+      <x:c r="C69" s="6"/>
+      <x:c r="D69" s="6"/>
+      <x:c r="E69" s="6"/>
+      <x:c r="F69" s="6"/>
+      <x:c r="G69" s="6"/>
       <x:c r="H69" s="3"/>
       <x:c r="I69" s="3"/>
       <x:c r="J69" s="3"/>
@@ -4722,14 +4875,14 @@
       <x:c r="Y69" s="3"/>
       <x:c r="Z69" s="3"/>
     </x:row>
-    <x:row r="70" spans="1:26" ht="13.199999999999999">
+    <x:row r="70" spans="1:26" ht="23.5">
       <x:c r="A70" s="3"/>
-      <x:c r="B70" s="3"/>
-      <x:c r="C70" s="3"/>
-      <x:c r="D70" s="3"/>
-      <x:c r="E70" s="3"/>
-      <x:c r="F70" s="3"/>
-      <x:c r="G70" s="3"/>
+      <x:c r="B70" s="6"/>
+      <x:c r="C70" s="6"/>
+      <x:c r="D70" s="8"/>
+      <x:c r="E70" s="6"/>
+      <x:c r="F70" s="6"/>
+      <x:c r="G70" s="6"/>
       <x:c r="H70" s="3"/>
       <x:c r="I70" s="3"/>
       <x:c r="J70" s="3"/>
@@ -4750,11 +4903,11 @@
       <x:c r="Y70" s="3"/>
       <x:c r="Z70" s="3"/>
     </x:row>
-    <x:row r="71" spans="1:26" ht="13.199999999999999">
+    <x:row r="71" spans="1:26" ht="23.5">
       <x:c r="A71" s="3"/>
       <x:c r="B71" s="3"/>
       <x:c r="C71" s="3"/>
-      <x:c r="D71" s="3"/>
+      <x:c r="D71" s="6"/>
       <x:c r="E71" s="3"/>
       <x:c r="F71" s="3"/>
       <x:c r="G71" s="3"/>
@@ -31042,8 +31195,59 @@
       <x:c r="Y1009" s="3"/>
       <x:c r="Z1009" s="3"/>
     </x:row>
+    <x:row r="1010" spans="2:7" customHeight="1">
+      <x:c r="B1010" s="3"/>
+      <x:c r="C1010" s="3"/>
+      <x:c r="D1010" s="3"/>
+      <x:c r="E1010" s="3"/>
+      <x:c r="F1010" s="3"/>
+      <x:c r="G1010" s="3"/>
+    </x:row>
+    <x:row r="1011" spans="2:7" customHeight="1">
+      <x:c r="B1011" s="3"/>
+      <x:c r="C1011" s="3"/>
+      <x:c r="D1011" s="3"/>
+      <x:c r="E1011" s="3"/>
+      <x:c r="F1011" s="3"/>
+      <x:c r="G1011" s="3"/>
+    </x:row>
+    <x:row r="1012" spans="2:7" customHeight="1">
+      <x:c r="B1012" s="3"/>
+      <x:c r="C1012" s="3"/>
+      <x:c r="D1012" s="3"/>
+      <x:c r="E1012" s="3"/>
+      <x:c r="F1012" s="3"/>
+      <x:c r="G1012" s="3"/>
+    </x:row>
+    <x:row r="1013" spans="2:7" customHeight="1">
+      <x:c r="B1013" s="3"/>
+      <x:c r="C1013" s="3"/>
+      <x:c r="D1013" s="3"/>
+      <x:c r="E1013" s="3"/>
+      <x:c r="F1013" s="3"/>
+      <x:c r="G1013" s="3"/>
+    </x:row>
+    <x:row r="1014" spans="2:7" customHeight="1">
+      <x:c r="B1014" s="3"/>
+      <x:c r="C1014" s="3"/>
+      <x:c r="D1014" s="3"/>
+      <x:c r="E1014" s="3"/>
+      <x:c r="F1014" s="3"/>
+      <x:c r="G1014" s="3"/>
+    </x:row>
+    <x:row r="1015" spans="2:7" customHeight="1">
+      <x:c r="B1015" s="3"/>
+      <x:c r="C1015" s="3"/>
+      <x:c r="D1015" s="3"/>
+      <x:c r="E1015" s="3"/>
+      <x:c r="F1015" s="3"/>
+      <x:c r="G1015" s="3"/>
+    </x:row>
+    <x:row r="1016" spans="4:4" customHeight="1">
+      <x:c r="D1016" s="3"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="29">
+  <x:mergeCells count="31">
     <x:mergeCell ref="F2:G2"/>
     <x:mergeCell ref="B3:B8"/>
     <x:mergeCell ref="G3:G8"/>
@@ -31069,10 +31273,12 @@
     <x:mergeCell ref="B47:B48"/>
     <x:mergeCell ref="G47:G48"/>
     <x:mergeCell ref="B49:G50"/>
-    <x:mergeCell ref="B51:B52"/>
-    <x:mergeCell ref="G51:G52"/>
     <x:mergeCell ref="J17:M18"/>
     <x:mergeCell ref="J24:M25"/>
+    <x:mergeCell ref="G51:G52"/>
+    <x:mergeCell ref="B53:G54"/>
+    <x:mergeCell ref="B55:B56"/>
+    <x:mergeCell ref="G55:G56"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
